--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/60/Output_1_12.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/60/Output_1_12.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>370970.5501966818</v>
+        <v>375153.7601792219</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>3854815.050462387</v>
+        <v>3854815.050462386</v>
       </c>
     </row>
     <row r="8">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7706098.054851416</v>
+        <v>7706098.054851417</v>
       </c>
     </row>
     <row r="11">
@@ -668,16 +670,16 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>409.0311279568768</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>320.8422199291742</v>
       </c>
       <c r="I2" t="n">
-        <v>136.9537457384598</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -704,7 +706,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>34.83054880334496</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S2" t="n">
         <v>164.8484195083599</v>
@@ -719,13 +721,13 @@
         <v>338.6857412035168</v>
       </c>
       <c r="W2" t="n">
-        <v>367.2890446813954</v>
+        <v>136.9453936793724</v>
       </c>
       <c r="X2" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>392.5258019886049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -756,7 +758,7 @@
         <v>87.41444223540508</v>
       </c>
       <c r="I3" t="n">
-        <v>48.89338144820825</v>
+        <v>48.89338144820752</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,7 +785,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>23.6778726709161</v>
+        <v>23.67787267091717</v>
       </c>
       <c r="S3" t="n">
         <v>133.5813703291298</v>
@@ -814,25 +816,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>183.3559385043883</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>168.5030667546707</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>100.3434053864689</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.5715133615489</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>153.923765528121</v>
       </c>
       <c r="I4" t="n">
         <v>131.7634811092929</v>
@@ -862,10 +864,10 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>122.6619794737488</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>200.7879229792761</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -883,7 +885,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>55.28567602260123</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -905,10 +907,10 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>326.2749874485178</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>409.0311279568768</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -956,10 +958,10 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.7480363891213</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y5" t="n">
         <v>392.5258019886049</v>
@@ -990,7 +992,7 @@
         <v>118.8592197488542</v>
       </c>
       <c r="H6" t="n">
-        <v>87.41444223540508</v>
+        <v>87.4144422354058</v>
       </c>
       <c r="I6" t="n">
         <v>48.89338144820752</v>
@@ -1026,7 +1028,7 @@
         <v>133.5813703291298</v>
       </c>
       <c r="T6" t="n">
-        <v>175.2139736830814</v>
+        <v>175.2139736830806</v>
       </c>
       <c r="U6" t="n">
         <v>207.9625118881446</v>
@@ -1051,25 +1053,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>183.3559385043883</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>168.5030667546707</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>154.0767819665104</v>
+        <v>100.3434053864689</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.5715133615489</v>
       </c>
       <c r="H7" t="n">
-        <v>3.777855937592547</v>
+        <v>153.923765528121</v>
       </c>
       <c r="I7" t="n">
         <v>131.7634811092929</v>
@@ -1120,7 +1122,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>220.8809405715231</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1130,19 +1132,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>396.4897982542829</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>320.2344011398816</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D8" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>412.725494085322</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
@@ -1184,22 +1186,22 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>168.6545639842436</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>253.1952022697474</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X8" t="n">
         <v>385.5580790162737</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="9">
@@ -1230,7 +1232,7 @@
         <v>87.41444223540508</v>
       </c>
       <c r="I9" t="n">
-        <v>48.89338144820825</v>
+        <v>48.89338144820752</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1260,7 +1262,7 @@
         <v>23.6778726709161</v>
       </c>
       <c r="S9" t="n">
-        <v>133.5813703291298</v>
+        <v>133.5813703291307</v>
       </c>
       <c r="T9" t="n">
         <v>175.2139736830806</v>
@@ -1294,22 +1296,22 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>100.3434053864689</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.5715133615489</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>153.923765528121</v>
       </c>
       <c r="I10" t="n">
-        <v>22.96189723698673</v>
+        <v>131.7634811092929</v>
       </c>
       <c r="J10" t="n">
         <v>30.07448747215907</v>
@@ -1336,16 +1338,16 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>122.6619794737488</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>200.7879229792761</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>233.3618613134482</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>282.5844038405181</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -1367,28 +1369,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C11" t="n">
-        <v>372.4089305243873</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D11" t="n">
         <v>381.5867174954989</v>
       </c>
       <c r="E11" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>412.725494085322</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>409.0311279568768</v>
+        <v>277.5101497377607</v>
       </c>
       <c r="H11" t="n">
         <v>320.8422199291742</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>136.9537457384598</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1436,7 +1438,7 @@
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="12">
@@ -1500,7 +1502,7 @@
         <v>133.5813703291298</v>
       </c>
       <c r="T12" t="n">
-        <v>175.2139736830814</v>
+        <v>175.2139736830806</v>
       </c>
       <c r="U12" t="n">
         <v>207.9625118881446</v>
@@ -1509,7 +1511,7 @@
         <v>220.3146016126436</v>
       </c>
       <c r="W12" t="n">
-        <v>227.816073408046</v>
+        <v>227.8160734080467</v>
       </c>
       <c r="X12" t="n">
         <v>187.4140068734885</v>
@@ -1579,7 +1581,7 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>233.3618613134482</v>
+        <v>66.03149870010068</v>
       </c>
       <c r="U13" t="n">
         <v>282.5844038405181</v>
@@ -1588,7 +1590,7 @@
         <v>263.319551727384</v>
       </c>
       <c r="W13" t="n">
-        <v>113.1667354347866</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -1604,10 +1606,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>253.7514067422077</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
@@ -1616,16 +1618,16 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>336.6327140501647</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>409.0311279568768</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>320.8422199291742</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>136.9537457384598</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1658,16 +1660,16 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>221.2655964161775</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>253.1952022697474</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
         <v>385.5580790162737</v>
@@ -1731,10 +1733,10 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>23.67787267091717</v>
+        <v>23.6778726709161</v>
       </c>
       <c r="S15" t="n">
-        <v>133.5813703291298</v>
+        <v>133.5813703291307</v>
       </c>
       <c r="T15" t="n">
         <v>175.2139736830806</v>
@@ -1771,22 +1773,22 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>131.6846499321096</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>166.5715133615489</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>153.923765528121</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>131.7634811092929</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>30.07448747215907</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -1810,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>122.6619794737488</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -1819,16 +1821,16 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>282.5844038405181</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>66.0314987001008</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -1841,10 +1843,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>304.0074039714629</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>389.2437464820987</v>
+        <v>372.4089305243873</v>
       </c>
       <c r="D17" t="n">
         <v>381.5867174954989</v>
@@ -1859,7 +1861,7 @@
         <v>409.0311279568768</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>320.8422199291742</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1999,7 +2001,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>125.6476561767118</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -2053,7 +2055,7 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>114.7890777533882</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>282.5844038405181</v>
@@ -2065,10 +2067,10 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>231.7395189948467</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="20">
@@ -2081,19 +2083,19 @@
         <v>396.4897982542829</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D20" t="n">
-        <v>161.4085122120593</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>316.5487336740566</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -2135,19 +2137,19 @@
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>253.1952022697474</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>392.5258019886049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -2239,7 +2241,7 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -2254,7 +2256,7 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>89.03088904473654</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2284,25 +2286,25 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>233.3618613134482</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>280.4970980481341</v>
       </c>
       <c r="X22" t="n">
-        <v>115.2540412271711</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -2315,19 +2317,19 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>396.4897982542829</v>
+        <v>304.0074039714629</v>
       </c>
       <c r="C23" t="n">
         <v>389.2437464820987</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E23" t="n">
         <v>398.5576896346209</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G23" t="n">
         <v>409.0311279568768</v>
@@ -2375,7 +2377,7 @@
         <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
         <v>0</v>
@@ -2384,7 +2386,7 @@
         <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>363.144076094484</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -2473,13 +2475,13 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>183.3559385043883</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>108.1045920014104</v>
       </c>
       <c r="D25" t="n">
-        <v>48.75094799137356</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E25" t="n">
         <v>154.0032240193895</v>
@@ -2497,7 +2499,7 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>30.07448747215907</v>
+        <v>0</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
@@ -2555,10 +2557,10 @@
         <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E26" t="n">
         <v>398.5576896346209</v>
@@ -2570,7 +2572,7 @@
         <v>409.0311279568768</v>
       </c>
       <c r="H26" t="n">
-        <v>115.667879794401</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2609,13 +2611,13 @@
         <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>253.1952022697474</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>338.6857412035168</v>
+        <v>304.0074039714629</v>
       </c>
       <c r="W26" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
         <v>0</v>
@@ -2710,7 +2712,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>183.3559385043883</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
@@ -2725,7 +2727,7 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>66.0314987001008</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2770,13 +2772,13 @@
         <v>282.5844038405181</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W28" t="n">
         <v>280.4970980481341</v>
       </c>
       <c r="X28" t="n">
-        <v>145.9951119230969</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -2792,13 +2794,13 @@
         <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>336.6327140501647</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
         <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F29" t="n">
         <v>0</v>
@@ -2807,7 +2809,7 @@
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>320.8422199291742</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2843,10 +2845,10 @@
         <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>221.2655964161775</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>253.1952022697474</v>
+        <v>91.6936031722943</v>
       </c>
       <c r="V29" t="n">
         <v>338.6857412035168</v>
@@ -2959,7 +2961,7 @@
         <v>154.0032240193895</v>
       </c>
       <c r="F31" t="n">
-        <v>155.7526754391568</v>
+        <v>11.612600499655</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -3016,7 +3018,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>76.7408656320216</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="32">
@@ -3029,19 +3031,19 @@
         <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>336.6327140501647</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>409.0311279568768</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -3080,22 +3082,22 @@
         <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>221.2655964161775</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>253.1952022697474</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>392.5258019886049</v>
+        <v>304.0074039714629</v>
       </c>
     </row>
     <row r="33">
@@ -3190,19 +3192,19 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>100.3434053864689</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>166.5715133615489</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>153.923765528121</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>131.7634811092929</v>
@@ -3232,19 +3234,19 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>62.02864869303423</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>282.5844038405181</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
@@ -3263,25 +3265,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>396.4897982542829</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E35" t="n">
         <v>398.5576896346209</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>409.0311279568768</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>101.3702069802975</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3320,19 +3322,19 @@
         <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>16.04602484718594</v>
+        <v>253.1952022697474</v>
       </c>
       <c r="V35" t="n">
         <v>338.6857412035168</v>
       </c>
       <c r="W35" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>392.5258019886049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -3478,10 +3480,10 @@
         <v>233.3618613134482</v>
       </c>
       <c r="U37" t="n">
-        <v>282.5844038405181</v>
+        <v>72.30123682228013</v>
       </c>
       <c r="V37" t="n">
-        <v>53.0363847091458</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
@@ -3500,13 +3502,13 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D38" t="n">
-        <v>368.4375690036124</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E38" t="n">
         <v>398.5576896346209</v>
@@ -3515,10 +3517,10 @@
         <v>412.725494085322</v>
       </c>
       <c r="G38" t="n">
-        <v>409.0311279568768</v>
+        <v>316.5487336740566</v>
       </c>
       <c r="H38" t="n">
-        <v>320.8422199291742</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3566,7 +3568,7 @@
         <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
         <v>0</v>
@@ -3600,7 +3602,7 @@
         <v>87.41444223540508</v>
       </c>
       <c r="I39" t="n">
-        <v>48.89338144820825</v>
+        <v>48.89338144820752</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3661,7 +3663,7 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
@@ -3670,7 +3672,7 @@
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>9.856719095497695</v>
       </c>
       <c r="G40" t="n">
         <v>166.5715133615489</v>
@@ -3682,7 +3684,7 @@
         <v>131.7634811092929</v>
       </c>
       <c r="J40" t="n">
-        <v>0</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K40" t="n">
         <v>0</v>
@@ -3706,13 +3708,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>122.6619794737488</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>200.7879229792761</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>116.7238898641497</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -3724,7 +3726,7 @@
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -3740,13 +3742,13 @@
         <v>396.4897982542829</v>
       </c>
       <c r="C41" t="n">
-        <v>285.8222677061726</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E41" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
         <v>412.725494085322</v>
@@ -3806,7 +3808,7 @@
         <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>392.5258019886049</v>
+        <v>306.0752953518007</v>
       </c>
     </row>
     <row r="42">
@@ -3834,10 +3836,10 @@
         <v>118.8592197488542</v>
       </c>
       <c r="H42" t="n">
-        <v>87.4144422354058</v>
+        <v>87.41444223540508</v>
       </c>
       <c r="I42" t="n">
-        <v>48.89338144820752</v>
+        <v>48.89338144820825</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3901,10 +3903,10 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>154.0767819665104</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>151.5863161692177</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
@@ -3943,25 +3945,25 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>122.6619794737488</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>200.7879229792761</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>282.5844038405181</v>
       </c>
       <c r="V43" t="n">
-        <v>263.319551727384</v>
+        <v>97.61153143263803</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -3977,7 +3979,7 @@
         <v>396.4897982542829</v>
       </c>
       <c r="C44" t="n">
-        <v>389.2437464820987</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
         <v>0</v>
@@ -3986,10 +3988,10 @@
         <v>398.5576896346209</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>409.0311279568768</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -4022,28 +4024,28 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>126.4541997930087</v>
+        <v>1.981803831422903</v>
       </c>
       <c r="U44" t="n">
         <v>253.1952022697474</v>
       </c>
       <c r="V44" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
         <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y44" t="n">
-        <v>392.5258019886049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -4104,7 +4106,7 @@
         <v>23.6778726709161</v>
       </c>
       <c r="S45" t="n">
-        <v>133.5813703291307</v>
+        <v>133.5813703291298</v>
       </c>
       <c r="T45" t="n">
         <v>175.2139736830806</v>
@@ -4132,10 +4134,10 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>183.3559385043883</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>168.5030667546707</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
@@ -4189,19 +4191,19 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>282.5844038405181</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W46" t="n">
         <v>280.4970980481341</v>
       </c>
       <c r="X46" t="n">
-        <v>39.19550843742088</v>
+        <v>66.0314987001008</v>
       </c>
       <c r="Y46" t="n">
-        <v>220.8809405715231</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -4304,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>185.6500870090788</v>
+        <v>1201.453214517072</v>
       </c>
       <c r="C2" t="n">
-        <v>185.6500870090788</v>
+        <v>1201.453214517072</v>
       </c>
       <c r="D2" t="n">
-        <v>185.6500870090788</v>
+        <v>1201.453214517072</v>
       </c>
       <c r="E2" t="n">
-        <v>185.6500870090788</v>
+        <v>1201.453214517072</v>
       </c>
       <c r="F2" t="n">
-        <v>185.6500870090788</v>
+        <v>784.5587760470498</v>
       </c>
       <c r="G2" t="n">
-        <v>185.6500870090788</v>
+        <v>371.396020535053</v>
       </c>
       <c r="H2" t="n">
-        <v>185.6500870090788</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="I2" t="n">
         <v>47.31297010154361</v>
       </c>
       <c r="J2" t="n">
-        <v>47.31297010154361</v>
+        <v>191.9627430103717</v>
       </c>
       <c r="K2" t="n">
-        <v>406.2953261290054</v>
+        <v>550.9450990378335</v>
       </c>
       <c r="L2" t="n">
-        <v>406.2953261290054</v>
+        <v>1044.265390756362</v>
       </c>
       <c r="M2" t="n">
-        <v>864.7645682749193</v>
+        <v>1590.266290800943</v>
       </c>
       <c r="N2" t="n">
-        <v>1392.575851912381</v>
+        <v>2118.077574438405</v>
       </c>
       <c r="O2" t="n">
-        <v>1832.61545280471</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="P2" t="n">
-        <v>2180.802944936232</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="Q2" t="n">
         <v>2365.64850507718</v>
       </c>
       <c r="R2" t="n">
-        <v>2330.466132548549</v>
+        <v>2327.655591362702</v>
       </c>
       <c r="S2" t="n">
-        <v>2163.9525774896</v>
+        <v>2161.142036303753</v>
       </c>
       <c r="T2" t="n">
-        <v>1940.451975049016</v>
+        <v>1937.641433863169</v>
       </c>
       <c r="U2" t="n">
-        <v>1684.699245483615</v>
+        <v>1681.888704297768</v>
       </c>
       <c r="V2" t="n">
-        <v>1342.592436187133</v>
+        <v>1339.781895001287</v>
       </c>
       <c r="W2" t="n">
-        <v>971.5934011554208</v>
+        <v>1201.453214517072</v>
       </c>
       <c r="X2" t="n">
-        <v>582.1407960884776</v>
+        <v>1201.453214517072</v>
       </c>
       <c r="Y2" t="n">
-        <v>185.6500870090788</v>
+        <v>1201.453214517072</v>
       </c>
     </row>
     <row r="3">
@@ -4383,40 +4385,40 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>846.6789532415753</v>
+        <v>846.6789532415746</v>
       </c>
       <c r="C3" t="n">
-        <v>696.0247228016675</v>
+        <v>696.0247228016668</v>
       </c>
       <c r="D3" t="n">
-        <v>565.9357554231478</v>
+        <v>565.9357554231472</v>
       </c>
       <c r="E3" t="n">
-        <v>429.4892645340356</v>
+        <v>429.4892645340348</v>
       </c>
       <c r="F3" t="n">
-        <v>305.0574584171674</v>
+        <v>305.0574584171666</v>
       </c>
       <c r="G3" t="n">
-        <v>184.9976404890318</v>
+        <v>184.9976404890311</v>
       </c>
       <c r="H3" t="n">
-        <v>96.70022408963275</v>
+        <v>96.70022408963202</v>
       </c>
       <c r="I3" t="n">
         <v>47.31297010154361</v>
       </c>
       <c r="J3" t="n">
-        <v>160.427952321271</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="K3" t="n">
-        <v>480.1670983834974</v>
+        <v>367.0521161637701</v>
       </c>
       <c r="L3" t="n">
-        <v>963.7331842818107</v>
+        <v>367.0521161637701</v>
       </c>
       <c r="M3" t="n">
-        <v>1209.141762214911</v>
+        <v>623.6437572083089</v>
       </c>
       <c r="N3" t="n">
         <v>1209.141762214911</v>
@@ -4431,28 +4433,28 @@
         <v>2365.64850507718</v>
       </c>
       <c r="R3" t="n">
-        <v>2341.731461975245</v>
+        <v>2341.731461975244</v>
       </c>
       <c r="S3" t="n">
-        <v>2206.800784875114</v>
+        <v>2206.800784875113</v>
       </c>
       <c r="T3" t="n">
-        <v>2029.816973074022</v>
+        <v>2029.816973074021</v>
       </c>
       <c r="U3" t="n">
-        <v>1819.753829752664</v>
+        <v>1819.753829752663</v>
       </c>
       <c r="V3" t="n">
-        <v>1597.213828123731</v>
+        <v>1597.21382812373</v>
       </c>
       <c r="W3" t="n">
-        <v>1367.096582257018</v>
+        <v>1367.096582257017</v>
       </c>
       <c r="X3" t="n">
         <v>1177.789504607029</v>
       </c>
       <c r="Y3" t="n">
-        <v>998.4752876825366</v>
+        <v>998.475287682536</v>
       </c>
     </row>
     <row r="4">
@@ -4462,22 +4464,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>380.9907835723745</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="C4" t="n">
-        <v>210.7856656383638</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="D4" t="n">
-        <v>210.7856656383638</v>
+        <v>847.4030175052487</v>
       </c>
       <c r="E4" t="n">
-        <v>210.7856656383638</v>
+        <v>691.8442053644512</v>
       </c>
       <c r="F4" t="n">
-        <v>210.7856656383638</v>
+        <v>534.5182705774242</v>
       </c>
       <c r="G4" t="n">
-        <v>210.7856656383638</v>
+        <v>366.2642166768698</v>
       </c>
       <c r="H4" t="n">
         <v>210.7856656383638</v>
@@ -4510,28 +4512,28 @@
         <v>948.7599926430961</v>
       </c>
       <c r="R4" t="n">
-        <v>824.8590032756731</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="S4" t="n">
-        <v>622.0429194582225</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="T4" t="n">
-        <v>622.0429194582225</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="U4" t="n">
-        <v>622.0429194582225</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="V4" t="n">
-        <v>622.0429194582225</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="W4" t="n">
-        <v>622.0429194582225</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="X4" t="n">
-        <v>622.0429194582225</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="Y4" t="n">
-        <v>566.1988022636758</v>
+        <v>948.7599926430961</v>
       </c>
     </row>
     <row r="5">
@@ -4541,19 +4543,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1568.663050286385</v>
+        <v>825.9296003819453</v>
       </c>
       <c r="C5" t="n">
-        <v>1175.487548789315</v>
+        <v>432.7540988848759</v>
       </c>
       <c r="D5" t="n">
-        <v>790.0464200059828</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="E5" t="n">
-        <v>790.0464200059828</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="F5" t="n">
-        <v>460.4757256135405</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="G5" t="n">
         <v>47.31297010154361</v>
@@ -4568,22 +4570,22 @@
         <v>191.9627430103717</v>
       </c>
       <c r="K5" t="n">
-        <v>550.9450990378335</v>
+        <v>191.9627430103717</v>
       </c>
       <c r="L5" t="n">
-        <v>1044.265390756362</v>
+        <v>685.2830347289006</v>
       </c>
       <c r="M5" t="n">
-        <v>1590.266290800943</v>
+        <v>1231.283934773481</v>
       </c>
       <c r="N5" t="n">
-        <v>2118.077574438405</v>
+        <v>1759.095218410943</v>
       </c>
       <c r="O5" t="n">
-        <v>2180.802944936232</v>
+        <v>2199.134819303272</v>
       </c>
       <c r="P5" t="n">
-        <v>2180.802944936232</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="Q5" t="n">
         <v>2365.64850507718</v>
@@ -4604,13 +4606,13 @@
         <v>2365.64850507718</v>
       </c>
       <c r="W5" t="n">
-        <v>2365.64850507718</v>
+        <v>2012.367660239684</v>
       </c>
       <c r="X5" t="n">
-        <v>2365.64850507718</v>
+        <v>1622.915055172741</v>
       </c>
       <c r="Y5" t="n">
-        <v>1969.157795997781</v>
+        <v>1226.424346093342</v>
       </c>
     </row>
     <row r="6">
@@ -4620,22 +4622,22 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>846.6789532415746</v>
+        <v>846.6789532415753</v>
       </c>
       <c r="C6" t="n">
-        <v>696.0247228016668</v>
+        <v>696.0247228016675</v>
       </c>
       <c r="D6" t="n">
-        <v>565.9357554231472</v>
+        <v>565.9357554231478</v>
       </c>
       <c r="E6" t="n">
-        <v>429.4892645340348</v>
+        <v>429.4892645340356</v>
       </c>
       <c r="F6" t="n">
-        <v>305.0574584171666</v>
+        <v>305.0574584171674</v>
       </c>
       <c r="G6" t="n">
-        <v>184.9976404890311</v>
+        <v>184.9976404890318</v>
       </c>
       <c r="H6" t="n">
         <v>96.70022408963202</v>
@@ -4647,19 +4649,19 @@
         <v>47.31297010154361</v>
       </c>
       <c r="K6" t="n">
-        <v>194.5661265746817</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="L6" t="n">
-        <v>678.132212472995</v>
+        <v>530.8790559998569</v>
       </c>
       <c r="M6" t="n">
-        <v>1263.630217479597</v>
+        <v>1116.377061006459</v>
       </c>
       <c r="N6" t="n">
-        <v>1849.128222486199</v>
+        <v>1701.875066013061</v>
       </c>
       <c r="O6" t="n">
-        <v>2365.64850507718</v>
+        <v>2218.395348604042</v>
       </c>
       <c r="P6" t="n">
         <v>2365.64850507718</v>
@@ -4674,22 +4676,22 @@
         <v>2206.800784875114</v>
       </c>
       <c r="T6" t="n">
-        <v>2029.816973074021</v>
+        <v>2029.816973074022</v>
       </c>
       <c r="U6" t="n">
-        <v>1819.753829752663</v>
+        <v>1819.753829752664</v>
       </c>
       <c r="V6" t="n">
-        <v>1597.21382812373</v>
+        <v>1597.213828123731</v>
       </c>
       <c r="W6" t="n">
-        <v>1367.096582257017</v>
+        <v>1367.096582257018</v>
       </c>
       <c r="X6" t="n">
         <v>1177.789504607029</v>
       </c>
       <c r="Y6" t="n">
-        <v>998.475287682536</v>
+        <v>998.4752876825366</v>
       </c>
     </row>
     <row r="7">
@@ -4699,22 +4701,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>540.4399127684381</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="C7" t="n">
-        <v>370.2347948344274</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="D7" t="n">
-        <v>214.6016817369421</v>
+        <v>847.4030175052487</v>
       </c>
       <c r="E7" t="n">
-        <v>214.6016817369421</v>
+        <v>691.8442053644512</v>
       </c>
       <c r="F7" t="n">
-        <v>214.6016817369421</v>
+        <v>534.5182705774242</v>
       </c>
       <c r="G7" t="n">
-        <v>214.6016817369421</v>
+        <v>366.2642166768698</v>
       </c>
       <c r="H7" t="n">
         <v>210.7856656383638</v>
@@ -4768,7 +4770,7 @@
         <v>948.7599926430961</v>
       </c>
       <c r="Y7" t="n">
-        <v>725.6479314597394</v>
+        <v>948.7599926430961</v>
       </c>
     </row>
     <row r="8">
@@ -4778,16 +4780,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1575.70115429884</v>
+        <v>440.488471598613</v>
       </c>
       <c r="C8" t="n">
-        <v>1252.232062238354</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="D8" t="n">
-        <v>866.7909334550213</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="E8" t="n">
-        <v>464.2074085715658</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="F8" t="n">
         <v>47.31297010154361</v>
@@ -4805,19 +4807,19 @@
         <v>191.9627430103717</v>
       </c>
       <c r="K8" t="n">
-        <v>191.9627430103717</v>
+        <v>550.9450990378335</v>
       </c>
       <c r="L8" t="n">
-        <v>685.2830347289006</v>
+        <v>550.9450990378335</v>
       </c>
       <c r="M8" t="n">
-        <v>1231.283934773481</v>
+        <v>1096.945999082414</v>
       </c>
       <c r="N8" t="n">
-        <v>1759.095218410943</v>
+        <v>1624.757282719876</v>
       </c>
       <c r="O8" t="n">
-        <v>2199.134819303272</v>
+        <v>2017.461012945658</v>
       </c>
       <c r="P8" t="n">
         <v>2365.64850507718</v>
@@ -4832,22 +4834,22 @@
         <v>2365.64850507718</v>
       </c>
       <c r="T8" t="n">
-        <v>2365.64850507718</v>
+        <v>2195.29035963855</v>
       </c>
       <c r="U8" t="n">
-        <v>2365.64850507718</v>
+        <v>1939.537630073149</v>
       </c>
       <c r="V8" t="n">
-        <v>2365.64850507718</v>
+        <v>1597.430820776668</v>
       </c>
       <c r="W8" t="n">
-        <v>2365.64850507718</v>
+        <v>1226.431785744955</v>
       </c>
       <c r="X8" t="n">
-        <v>1976.195900010237</v>
+        <v>836.979180678012</v>
       </c>
       <c r="Y8" t="n">
-        <v>1976.195900010237</v>
+        <v>440.488471598613</v>
       </c>
     </row>
     <row r="9">
@@ -4857,25 +4859,25 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>846.6789532415753</v>
+        <v>846.6789532415746</v>
       </c>
       <c r="C9" t="n">
-        <v>696.0247228016675</v>
+        <v>696.0247228016668</v>
       </c>
       <c r="D9" t="n">
-        <v>565.9357554231478</v>
+        <v>565.9357554231472</v>
       </c>
       <c r="E9" t="n">
-        <v>429.4892645340356</v>
+        <v>429.4892645340348</v>
       </c>
       <c r="F9" t="n">
-        <v>305.0574584171674</v>
+        <v>305.0574584171666</v>
       </c>
       <c r="G9" t="n">
-        <v>184.9976404890318</v>
+        <v>184.9976404890311</v>
       </c>
       <c r="H9" t="n">
-        <v>96.70022408963275</v>
+        <v>96.70022408963202</v>
       </c>
       <c r="I9" t="n">
         <v>47.31297010154361</v>
@@ -4884,22 +4886,22 @@
         <v>47.31297010154361</v>
       </c>
       <c r="K9" t="n">
-        <v>367.0521161637701</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="L9" t="n">
-        <v>850.6182020620834</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="M9" t="n">
-        <v>1436.116207068686</v>
+        <v>632.8109751081457</v>
       </c>
       <c r="N9" t="n">
-        <v>2021.614212075288</v>
+        <v>1218.308980114748</v>
       </c>
       <c r="O9" t="n">
-        <v>2365.64850507718</v>
+        <v>1734.829262705729</v>
       </c>
       <c r="P9" t="n">
-        <v>2365.64850507718</v>
+        <v>2140.450631422126</v>
       </c>
       <c r="Q9" t="n">
         <v>2365.64850507718</v>
@@ -4908,25 +4910,25 @@
         <v>2341.731461975245</v>
       </c>
       <c r="S9" t="n">
-        <v>2206.800784875114</v>
+        <v>2206.800784875113</v>
       </c>
       <c r="T9" t="n">
-        <v>2029.816973074022</v>
+        <v>2029.816973074021</v>
       </c>
       <c r="U9" t="n">
-        <v>1819.753829752664</v>
+        <v>1819.753829752663</v>
       </c>
       <c r="V9" t="n">
-        <v>1597.213828123731</v>
+        <v>1597.21382812373</v>
       </c>
       <c r="W9" t="n">
-        <v>1367.096582257018</v>
+        <v>1367.096582257017</v>
       </c>
       <c r="X9" t="n">
         <v>1177.789504607029</v>
       </c>
       <c r="Y9" t="n">
-        <v>998.4752876825366</v>
+        <v>998.475287682536</v>
       </c>
     </row>
     <row r="10">
@@ -4936,25 +4938,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>100.8850758683575</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="C10" t="n">
-        <v>100.8850758683575</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="D10" t="n">
-        <v>100.8850758683575</v>
+        <v>847.4030175052487</v>
       </c>
       <c r="E10" t="n">
-        <v>100.8850758683575</v>
+        <v>691.8442053644512</v>
       </c>
       <c r="F10" t="n">
-        <v>100.8850758683575</v>
+        <v>534.5182705774242</v>
       </c>
       <c r="G10" t="n">
-        <v>100.8850758683575</v>
+        <v>366.2642166768698</v>
       </c>
       <c r="H10" t="n">
-        <v>100.8850758683575</v>
+        <v>210.7856656383638</v>
       </c>
       <c r="I10" t="n">
         <v>77.69124027544166</v>
@@ -4984,28 +4986,28 @@
         <v>948.7599926430961</v>
       </c>
       <c r="R10" t="n">
-        <v>824.8590032756731</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="S10" t="n">
-        <v>622.0429194582225</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="T10" t="n">
-        <v>386.3238676264566</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="U10" t="n">
-        <v>100.8850758683575</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="V10" t="n">
-        <v>100.8850758683575</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="W10" t="n">
-        <v>100.8850758683575</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="X10" t="n">
-        <v>100.8850758683575</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="Y10" t="n">
-        <v>100.8850758683575</v>
+        <v>948.7599926430961</v>
       </c>
     </row>
     <row r="11">
@@ -5015,25 +5017,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2365.64850507718</v>
+        <v>1568.663050286385</v>
       </c>
       <c r="C11" t="n">
-        <v>1989.47786818386</v>
+        <v>1175.487548789315</v>
       </c>
       <c r="D11" t="n">
-        <v>1604.036739400527</v>
+        <v>790.0464200059828</v>
       </c>
       <c r="E11" t="n">
-        <v>1201.453214517072</v>
+        <v>790.0464200059828</v>
       </c>
       <c r="F11" t="n">
-        <v>784.5587760470498</v>
+        <v>790.0464200059828</v>
       </c>
       <c r="G11" t="n">
-        <v>371.396020535053</v>
+        <v>509.7331374425881</v>
       </c>
       <c r="H11" t="n">
-        <v>47.31297010154361</v>
+        <v>185.6500870090788</v>
       </c>
       <c r="I11" t="n">
         <v>47.31297010154361</v>
@@ -5042,22 +5044,22 @@
         <v>191.9627430103717</v>
       </c>
       <c r="K11" t="n">
-        <v>191.9627430103717</v>
+        <v>550.9450990378335</v>
       </c>
       <c r="L11" t="n">
-        <v>318.7636682303387</v>
+        <v>1044.265390756362</v>
       </c>
       <c r="M11" t="n">
-        <v>864.7645682749193</v>
+        <v>1590.266290800943</v>
       </c>
       <c r="N11" t="n">
-        <v>1392.575851912381</v>
+        <v>2118.077574438405</v>
       </c>
       <c r="O11" t="n">
-        <v>1832.61545280471</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="P11" t="n">
-        <v>2180.802944936232</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="Q11" t="n">
         <v>2365.64850507718</v>
@@ -5084,7 +5086,7 @@
         <v>2365.64850507718</v>
       </c>
       <c r="Y11" t="n">
-        <v>2365.64850507718</v>
+        <v>1969.157795997781</v>
       </c>
     </row>
     <row r="12">
@@ -5118,22 +5120,22 @@
         <v>47.31297010154361</v>
       </c>
       <c r="J12" t="n">
-        <v>160.427952321271</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="K12" t="n">
-        <v>480.1670983834974</v>
+        <v>367.0521161637701</v>
       </c>
       <c r="L12" t="n">
-        <v>963.7331842818107</v>
+        <v>850.6182020620834</v>
       </c>
       <c r="M12" t="n">
-        <v>1545.785408515688</v>
+        <v>1436.116207068686</v>
       </c>
       <c r="N12" t="n">
-        <v>2131.28341352229</v>
+        <v>1725.662044805892</v>
       </c>
       <c r="O12" t="n">
-        <v>2131.28341352229</v>
+        <v>1725.662044805892</v>
       </c>
       <c r="P12" t="n">
         <v>2131.28341352229</v>
@@ -5148,13 +5150,13 @@
         <v>2206.800784875114</v>
       </c>
       <c r="T12" t="n">
-        <v>2029.816973074021</v>
+        <v>2029.816973074022</v>
       </c>
       <c r="U12" t="n">
-        <v>1819.753829752663</v>
+        <v>1819.753829752664</v>
       </c>
       <c r="V12" t="n">
-        <v>1597.21382812373</v>
+        <v>1597.213828123731</v>
       </c>
       <c r="W12" t="n">
         <v>1367.096582257017</v>
@@ -5227,13 +5229,13 @@
         <v>948.7599926430961</v>
       </c>
       <c r="T13" t="n">
-        <v>713.0409408113302</v>
+        <v>882.0615091076409</v>
       </c>
       <c r="U13" t="n">
-        <v>427.6021490532311</v>
+        <v>596.6227173495417</v>
       </c>
       <c r="V13" t="n">
-        <v>161.6228038740554</v>
+        <v>330.643372170366</v>
       </c>
       <c r="W13" t="n">
         <v>47.31297010154361</v>
@@ -5252,25 +5254,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>387.3460145966595</v>
+        <v>1179.210445219441</v>
       </c>
       <c r="C14" t="n">
-        <v>387.3460145966595</v>
+        <v>922.895892954585</v>
       </c>
       <c r="D14" t="n">
-        <v>387.3460145966595</v>
+        <v>922.895892954585</v>
       </c>
       <c r="E14" t="n">
-        <v>387.3460145966595</v>
+        <v>922.895892954585</v>
       </c>
       <c r="F14" t="n">
-        <v>47.31297010154361</v>
+        <v>922.895892954585</v>
       </c>
       <c r="G14" t="n">
-        <v>47.31297010154361</v>
+        <v>509.7331374425881</v>
       </c>
       <c r="H14" t="n">
-        <v>47.31297010154361</v>
+        <v>185.6500870090788</v>
       </c>
       <c r="I14" t="n">
         <v>47.31297010154361</v>
@@ -5279,22 +5281,22 @@
         <v>47.31297010154361</v>
       </c>
       <c r="K14" t="n">
-        <v>47.31297010154361</v>
+        <v>406.2953261290054</v>
       </c>
       <c r="L14" t="n">
-        <v>503.6092283712875</v>
+        <v>864.7645682749193</v>
       </c>
       <c r="M14" t="n">
-        <v>1049.610128415868</v>
+        <v>864.7645682749193</v>
       </c>
       <c r="N14" t="n">
-        <v>1577.42141205333</v>
+        <v>1392.575851912381</v>
       </c>
       <c r="O14" t="n">
-        <v>2017.461012945658</v>
+        <v>1832.61545280471</v>
       </c>
       <c r="P14" t="n">
-        <v>2365.64850507718</v>
+        <v>2180.802944936232</v>
       </c>
       <c r="Q14" t="n">
         <v>2365.64850507718</v>
@@ -5306,22 +5308,22 @@
         <v>2365.64850507718</v>
       </c>
       <c r="T14" t="n">
-        <v>2142.147902636597</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="U14" t="n">
-        <v>1886.395173071196</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="V14" t="n">
-        <v>1544.288363774714</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="W14" t="n">
-        <v>1173.289328743002</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="X14" t="n">
-        <v>783.8367236760583</v>
+        <v>1976.195900010237</v>
       </c>
       <c r="Y14" t="n">
-        <v>387.3460145966595</v>
+        <v>1579.705190930838</v>
       </c>
     </row>
     <row r="15">
@@ -5361,25 +5363,25 @@
         <v>480.1670983834974</v>
       </c>
       <c r="L15" t="n">
-        <v>554.6660347926879</v>
+        <v>963.7331842818107</v>
       </c>
       <c r="M15" t="n">
-        <v>1140.16403979929</v>
+        <v>1549.231189288413</v>
       </c>
       <c r="N15" t="n">
-        <v>1725.662044805892</v>
+        <v>2134.729194295015</v>
       </c>
       <c r="O15" t="n">
-        <v>1725.662044805892</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="P15" t="n">
-        <v>2131.28341352229</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="Q15" t="n">
         <v>2365.64850507718</v>
       </c>
       <c r="R15" t="n">
-        <v>2341.731461975244</v>
+        <v>2341.731461975245</v>
       </c>
       <c r="S15" t="n">
         <v>2206.800784875113</v>
@@ -5410,28 +5412,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>824.8590032756731</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="C16" t="n">
-        <v>824.8590032756731</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="D16" t="n">
-        <v>824.8590032756731</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="E16" t="n">
-        <v>691.8442053644512</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="F16" t="n">
-        <v>534.5182705774242</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="G16" t="n">
-        <v>366.2642166768698</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="H16" t="n">
-        <v>210.7856656383638</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="I16" t="n">
-        <v>77.69124027544166</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="J16" t="n">
         <v>47.31297010154361</v>
@@ -5458,28 +5460,28 @@
         <v>948.7599926430961</v>
       </c>
       <c r="R16" t="n">
-        <v>824.8590032756731</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="S16" t="n">
-        <v>824.8590032756731</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="T16" t="n">
-        <v>824.8590032756731</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="U16" t="n">
-        <v>824.8590032756731</v>
+        <v>663.3212008849971</v>
       </c>
       <c r="V16" t="n">
-        <v>824.8590032756731</v>
+        <v>397.3418557058213</v>
       </c>
       <c r="W16" t="n">
-        <v>824.8590032756731</v>
+        <v>114.011453636999</v>
       </c>
       <c r="X16" t="n">
-        <v>824.8590032756731</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="Y16" t="n">
-        <v>824.8590032756731</v>
+        <v>47.31297010154361</v>
       </c>
     </row>
     <row r="17">
@@ -5489,22 +5491,22 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2058.57031924742</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="C17" t="n">
-        <v>1665.394817750351</v>
+        <v>1989.47786818386</v>
       </c>
       <c r="D17" t="n">
-        <v>1279.953688967018</v>
+        <v>1604.036739400527</v>
       </c>
       <c r="E17" t="n">
-        <v>877.3701640835627</v>
+        <v>1201.453214517072</v>
       </c>
       <c r="F17" t="n">
-        <v>460.4757256135405</v>
+        <v>784.5587760470498</v>
       </c>
       <c r="G17" t="n">
-        <v>47.31297010154361</v>
+        <v>371.396020535053</v>
       </c>
       <c r="H17" t="n">
         <v>47.31297010154361</v>
@@ -5516,19 +5518,19 @@
         <v>47.31297010154361</v>
       </c>
       <c r="K17" t="n">
-        <v>406.2953261290054</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="L17" t="n">
-        <v>899.6156178475343</v>
+        <v>503.6092283712875</v>
       </c>
       <c r="M17" t="n">
-        <v>1445.616517892115</v>
+        <v>1049.610128415868</v>
       </c>
       <c r="N17" t="n">
-        <v>1973.427801529577</v>
+        <v>1577.42141205333</v>
       </c>
       <c r="O17" t="n">
-        <v>2365.64850507718</v>
+        <v>2017.461012945658</v>
       </c>
       <c r="P17" t="n">
         <v>2365.64850507718</v>
@@ -5568,67 +5570,67 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>846.6789532415751</v>
+        <v>846.6789532415746</v>
       </c>
       <c r="C18" t="n">
-        <v>696.0247228016672</v>
+        <v>696.0247228016668</v>
       </c>
       <c r="D18" t="n">
-        <v>565.9357554231476</v>
+        <v>565.9357554231472</v>
       </c>
       <c r="E18" t="n">
-        <v>429.4892645340353</v>
+        <v>429.4892645340348</v>
       </c>
       <c r="F18" t="n">
-        <v>305.057458417167</v>
+        <v>305.0574584171666</v>
       </c>
       <c r="G18" t="n">
-        <v>184.9976404890315</v>
+        <v>184.9976404890311</v>
       </c>
       <c r="H18" t="n">
-        <v>96.70022408963223</v>
+        <v>96.70022408963202</v>
       </c>
       <c r="I18" t="n">
-        <v>47.31297010154367</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="J18" t="n">
-        <v>47.31297010154367</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="K18" t="n">
-        <v>47.31297010154367</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="L18" t="n">
-        <v>530.879055999857</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="M18" t="n">
-        <v>858.0088487631995</v>
+        <v>632.8109751081457</v>
       </c>
       <c r="N18" t="n">
-        <v>1443.506853769802</v>
+        <v>1209.14176221491</v>
       </c>
       <c r="O18" t="n">
-        <v>1960.027136360783</v>
+        <v>1725.662044805891</v>
       </c>
       <c r="P18" t="n">
-        <v>2365.64850507718</v>
+        <v>2131.283413522289</v>
       </c>
       <c r="Q18" t="n">
-        <v>2365.64850507718</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="R18" t="n">
-        <v>2341.731461975245</v>
+        <v>2341.731461975244</v>
       </c>
       <c r="S18" t="n">
-        <v>2206.800784875114</v>
+        <v>2206.800784875113</v>
       </c>
       <c r="T18" t="n">
-        <v>2029.816973074022</v>
+        <v>2029.816973074021</v>
       </c>
       <c r="U18" t="n">
-        <v>1819.753829752664</v>
+        <v>1819.753829752663</v>
       </c>
       <c r="V18" t="n">
-        <v>1597.213828123731</v>
+        <v>1597.21382812373</v>
       </c>
       <c r="W18" t="n">
         <v>1367.096582257017</v>
@@ -5637,7 +5639,7 @@
         <v>1177.789504607029</v>
       </c>
       <c r="Y18" t="n">
-        <v>998.4752876825364</v>
+        <v>998.475287682536</v>
       </c>
     </row>
     <row r="19">
@@ -5701,22 +5703,22 @@
         <v>948.7599926430961</v>
       </c>
       <c r="T19" t="n">
-        <v>832.8114292558353</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="U19" t="n">
-        <v>547.3726374977363</v>
+        <v>663.3212008849971</v>
       </c>
       <c r="V19" t="n">
-        <v>281.3932923185605</v>
+        <v>397.3418557058213</v>
       </c>
       <c r="W19" t="n">
-        <v>281.3932923185605</v>
+        <v>397.3418557058213</v>
       </c>
       <c r="X19" t="n">
-        <v>47.31297010154361</v>
+        <v>397.3418557058213</v>
       </c>
       <c r="Y19" t="n">
-        <v>47.31297010154361</v>
+        <v>174.2297945224647</v>
       </c>
     </row>
     <row r="20">
@@ -5726,19 +5728,19 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>210.3518713258459</v>
+        <v>1965.153759365783</v>
       </c>
       <c r="C20" t="n">
-        <v>210.3518713258459</v>
+        <v>1571.978257868714</v>
       </c>
       <c r="D20" t="n">
-        <v>47.31297010154361</v>
+        <v>1186.537129085382</v>
       </c>
       <c r="E20" t="n">
-        <v>47.31297010154361</v>
+        <v>783.9536042019261</v>
       </c>
       <c r="F20" t="n">
-        <v>47.31297010154361</v>
+        <v>367.0591657319038</v>
       </c>
       <c r="G20" t="n">
         <v>47.31297010154361</v>
@@ -5750,16 +5752,16 @@
         <v>47.31297010154361</v>
       </c>
       <c r="J20" t="n">
-        <v>47.31297010154361</v>
+        <v>191.9627430103717</v>
       </c>
       <c r="K20" t="n">
-        <v>406.2953261290054</v>
+        <v>550.9450990378335</v>
       </c>
       <c r="L20" t="n">
-        <v>899.6156178475343</v>
+        <v>1044.265390756362</v>
       </c>
       <c r="M20" t="n">
-        <v>1397.79762054739</v>
+        <v>1590.266290800943</v>
       </c>
       <c r="N20" t="n">
         <v>1925.608904184852</v>
@@ -5783,19 +5785,19 @@
         <v>2365.64850507718</v>
       </c>
       <c r="U20" t="n">
-        <v>2109.895775511779</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="V20" t="n">
-        <v>1767.788966215297</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="W20" t="n">
-        <v>1396.789931183585</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="X20" t="n">
-        <v>1007.337326116642</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="Y20" t="n">
-        <v>610.8466170372428</v>
+        <v>2365.64850507718</v>
       </c>
     </row>
     <row r="21">
@@ -5805,67 +5807,67 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>846.6789532415746</v>
+        <v>846.6789532415751</v>
       </c>
       <c r="C21" t="n">
-        <v>696.0247228016668</v>
+        <v>696.0247228016672</v>
       </c>
       <c r="D21" t="n">
-        <v>565.9357554231472</v>
+        <v>565.9357554231476</v>
       </c>
       <c r="E21" t="n">
-        <v>429.4892645340348</v>
+        <v>429.4892645340353</v>
       </c>
       <c r="F21" t="n">
-        <v>305.0574584171666</v>
+        <v>305.057458417167</v>
       </c>
       <c r="G21" t="n">
-        <v>184.9976404890311</v>
+        <v>184.9976404890315</v>
       </c>
       <c r="H21" t="n">
-        <v>96.70022408963202</v>
+        <v>96.70022408963223</v>
       </c>
       <c r="I21" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154367</v>
       </c>
       <c r="J21" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154367</v>
       </c>
       <c r="K21" t="n">
-        <v>367.0521161637701</v>
+        <v>47.31297010154367</v>
       </c>
       <c r="L21" t="n">
-        <v>850.6182020620834</v>
+        <v>530.879055999857</v>
       </c>
       <c r="M21" t="n">
-        <v>1436.116207068686</v>
+        <v>1116.377061006459</v>
       </c>
       <c r="N21" t="n">
-        <v>1960.027136360782</v>
+        <v>1701.875066013061</v>
       </c>
       <c r="O21" t="n">
-        <v>1960.027136360782</v>
+        <v>2218.395348604042</v>
       </c>
       <c r="P21" t="n">
-        <v>2365.648505077179</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="Q21" t="n">
-        <v>2365.648505077179</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="R21" t="n">
-        <v>2341.731461975244</v>
+        <v>2341.731461975245</v>
       </c>
       <c r="S21" t="n">
-        <v>2206.800784875113</v>
+        <v>2206.800784875114</v>
       </c>
       <c r="T21" t="n">
-        <v>2029.816973074021</v>
+        <v>2029.816973074022</v>
       </c>
       <c r="U21" t="n">
-        <v>1819.753829752663</v>
+        <v>1819.753829752664</v>
       </c>
       <c r="V21" t="n">
-        <v>1597.21382812373</v>
+        <v>1597.213828123731</v>
       </c>
       <c r="W21" t="n">
         <v>1367.096582257017</v>
@@ -5874,7 +5876,7 @@
         <v>1177.789504607029</v>
       </c>
       <c r="Y21" t="n">
-        <v>998.475287682536</v>
+        <v>998.4752876825364</v>
       </c>
     </row>
     <row r="22">
@@ -5884,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1464.201482535628</v>
+        <v>307.4482789898337</v>
       </c>
       <c r="C22" t="n">
-        <v>1464.201482535628</v>
+        <v>137.243161055823</v>
       </c>
       <c r="D22" t="n">
-        <v>1464.201482535628</v>
+        <v>137.243161055823</v>
       </c>
       <c r="E22" t="n">
-        <v>1464.201482535628</v>
+        <v>137.243161055823</v>
       </c>
       <c r="F22" t="n">
-        <v>1464.201482535628</v>
+        <v>137.243161055823</v>
       </c>
       <c r="G22" t="n">
-        <v>1464.201482535628</v>
+        <v>137.243161055823</v>
       </c>
       <c r="H22" t="n">
-        <v>1464.201482535628</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="I22" t="n">
-        <v>1464.201482535628</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="J22" t="n">
-        <v>1464.201482535628</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="K22" t="n">
-        <v>1546.036523645569</v>
+        <v>129.1480112114855</v>
       </c>
       <c r="L22" t="n">
-        <v>1710.164163519369</v>
+        <v>293.2756510852853</v>
       </c>
       <c r="M22" t="n">
-        <v>1896.455741857633</v>
+        <v>479.5672294235493</v>
       </c>
       <c r="N22" t="n">
-        <v>2079.645375888842</v>
+        <v>662.7568634547586</v>
       </c>
       <c r="O22" t="n">
-        <v>2242.350142930551</v>
+        <v>825.4616304964666</v>
       </c>
       <c r="P22" t="n">
-        <v>2362.226308707129</v>
+        <v>945.3377962730451</v>
       </c>
       <c r="Q22" t="n">
-        <v>2365.64850507718</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="R22" t="n">
-        <v>2365.64850507718</v>
+        <v>824.8590032756731</v>
       </c>
       <c r="S22" t="n">
-        <v>2365.64850507718</v>
+        <v>824.8590032756731</v>
       </c>
       <c r="T22" t="n">
-        <v>2129.929453245415</v>
+        <v>824.8590032756731</v>
       </c>
       <c r="U22" t="n">
-        <v>2129.929453245415</v>
+        <v>824.8590032756731</v>
       </c>
       <c r="V22" t="n">
-        <v>1863.950108066239</v>
+        <v>824.8590032756731</v>
       </c>
       <c r="W22" t="n">
-        <v>1580.619705997417</v>
+        <v>541.5286012068507</v>
       </c>
       <c r="X22" t="n">
-        <v>1464.201482535628</v>
+        <v>307.4482789898337</v>
       </c>
       <c r="Y22" t="n">
-        <v>1464.201482535628</v>
+        <v>307.4482789898337</v>
       </c>
     </row>
     <row r="23">
@@ -5963,16 +5965,16 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1256.234751994065</v>
+        <v>2058.57031924742</v>
       </c>
       <c r="C23" t="n">
-        <v>863.0592504969959</v>
+        <v>1665.394817750351</v>
       </c>
       <c r="D23" t="n">
-        <v>863.0592504969959</v>
+        <v>1279.953688967018</v>
       </c>
       <c r="E23" t="n">
-        <v>460.4757256135405</v>
+        <v>877.3701640835627</v>
       </c>
       <c r="F23" t="n">
         <v>460.4757256135405</v>
@@ -5990,16 +5992,16 @@
         <v>47.31297010154361</v>
       </c>
       <c r="K23" t="n">
-        <v>406.2953261290054</v>
+        <v>358.4764287842802</v>
       </c>
       <c r="L23" t="n">
-        <v>899.6156178475343</v>
+        <v>851.7967205028091</v>
       </c>
       <c r="M23" t="n">
-        <v>1445.616517892115</v>
+        <v>1397.79762054739</v>
       </c>
       <c r="N23" t="n">
-        <v>1973.427801529577</v>
+        <v>1925.608904184852</v>
       </c>
       <c r="O23" t="n">
         <v>2365.64850507718</v>
@@ -6023,16 +6025,16 @@
         <v>2365.64850507718</v>
       </c>
       <c r="V23" t="n">
-        <v>2023.541695780699</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="W23" t="n">
-        <v>2023.541695780699</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="X23" t="n">
-        <v>2023.541695780699</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="Y23" t="n">
-        <v>1656.729497705462</v>
+        <v>2365.64850507718</v>
       </c>
     </row>
     <row r="24">
@@ -6042,67 +6044,67 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>846.6789532415746</v>
+        <v>846.6789532415751</v>
       </c>
       <c r="C24" t="n">
-        <v>696.0247228016668</v>
+        <v>696.0247228016672</v>
       </c>
       <c r="D24" t="n">
-        <v>565.9357554231472</v>
+        <v>565.9357554231476</v>
       </c>
       <c r="E24" t="n">
-        <v>429.4892645340348</v>
+        <v>429.4892645340353</v>
       </c>
       <c r="F24" t="n">
-        <v>305.0574584171666</v>
+        <v>305.057458417167</v>
       </c>
       <c r="G24" t="n">
-        <v>184.9976404890311</v>
+        <v>184.9976404890315</v>
       </c>
       <c r="H24" t="n">
-        <v>96.70022408963202</v>
+        <v>96.70022408963223</v>
       </c>
       <c r="I24" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154367</v>
       </c>
       <c r="J24" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154367</v>
       </c>
       <c r="K24" t="n">
-        <v>47.31297010154361</v>
+        <v>367.0521161637701</v>
       </c>
       <c r="L24" t="n">
-        <v>272.5108437565964</v>
+        <v>850.6182020620834</v>
       </c>
       <c r="M24" t="n">
-        <v>858.0088487631986</v>
+        <v>1436.116207068686</v>
       </c>
       <c r="N24" t="n">
-        <v>1443.506853769801</v>
+        <v>1849.128222486199</v>
       </c>
       <c r="O24" t="n">
-        <v>1960.027136360782</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="P24" t="n">
-        <v>2365.648505077179</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="Q24" t="n">
-        <v>2365.648505077179</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="R24" t="n">
-        <v>2341.731461975244</v>
+        <v>2341.731461975245</v>
       </c>
       <c r="S24" t="n">
-        <v>2206.800784875113</v>
+        <v>2206.800784875114</v>
       </c>
       <c r="T24" t="n">
-        <v>2029.816973074021</v>
+        <v>2029.816973074022</v>
       </c>
       <c r="U24" t="n">
-        <v>1819.753829752663</v>
+        <v>1819.753829752664</v>
       </c>
       <c r="V24" t="n">
-        <v>1597.21382812373</v>
+        <v>1597.213828123731</v>
       </c>
       <c r="W24" t="n">
         <v>1367.096582257017</v>
@@ -6111,7 +6113,7 @@
         <v>1177.789504607029</v>
       </c>
       <c r="Y24" t="n">
-        <v>998.475287682536</v>
+        <v>998.4752876825364</v>
       </c>
     </row>
     <row r="25">
@@ -6121,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>2180.440486385879</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="C25" t="n">
-        <v>2180.440486385879</v>
+        <v>839.5634350659138</v>
       </c>
       <c r="D25" t="n">
-        <v>2131.197104576411</v>
+        <v>683.9303219684286</v>
       </c>
       <c r="E25" t="n">
-        <v>1975.638292435613</v>
+        <v>528.3715098276311</v>
       </c>
       <c r="F25" t="n">
-        <v>1818.312357648586</v>
+        <v>371.0455750406041</v>
       </c>
       <c r="G25" t="n">
-        <v>1650.058303748032</v>
+        <v>202.7915211400496</v>
       </c>
       <c r="H25" t="n">
-        <v>1494.579752709526</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="I25" t="n">
-        <v>1494.579752709526</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="J25" t="n">
-        <v>1464.201482535628</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="K25" t="n">
-        <v>1546.036523645569</v>
+        <v>129.1480112114855</v>
       </c>
       <c r="L25" t="n">
-        <v>1710.164163519369</v>
+        <v>293.2756510852853</v>
       </c>
       <c r="M25" t="n">
-        <v>1896.455741857633</v>
+        <v>479.5672294235493</v>
       </c>
       <c r="N25" t="n">
-        <v>2079.645375888842</v>
+        <v>662.7568634547586</v>
       </c>
       <c r="O25" t="n">
-        <v>2242.350142930551</v>
+        <v>825.4616304964666</v>
       </c>
       <c r="P25" t="n">
-        <v>2362.226308707129</v>
+        <v>945.3377962730451</v>
       </c>
       <c r="Q25" t="n">
-        <v>2365.64850507718</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="R25" t="n">
-        <v>2365.64850507718</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="S25" t="n">
-        <v>2365.64850507718</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="T25" t="n">
-        <v>2365.64850507718</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="U25" t="n">
-        <v>2365.64850507718</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="V25" t="n">
-        <v>2365.64850507718</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="W25" t="n">
-        <v>2365.64850507718</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="X25" t="n">
-        <v>2365.64850507718</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="Y25" t="n">
-        <v>2365.64850507718</v>
+        <v>948.7599926430961</v>
       </c>
     </row>
     <row r="26">
@@ -6200,22 +6202,22 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1396.789931183585</v>
+        <v>2058.57031924742</v>
       </c>
       <c r="C26" t="n">
-        <v>1396.789931183585</v>
+        <v>1665.394817750351</v>
       </c>
       <c r="D26" t="n">
-        <v>1396.789931183585</v>
+        <v>1279.953688967018</v>
       </c>
       <c r="E26" t="n">
-        <v>994.2064063001294</v>
+        <v>877.3701640835627</v>
       </c>
       <c r="F26" t="n">
-        <v>577.3119678301072</v>
+        <v>460.4757256135405</v>
       </c>
       <c r="G26" t="n">
-        <v>164.1492123181103</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="H26" t="n">
         <v>47.31297010154361</v>
@@ -6224,25 +6226,25 @@
         <v>47.31297010154361</v>
       </c>
       <c r="J26" t="n">
-        <v>191.9627430103717</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="K26" t="n">
-        <v>191.9627430103717</v>
+        <v>406.2953261290054</v>
       </c>
       <c r="L26" t="n">
-        <v>685.2830347289006</v>
+        <v>899.6156178475343</v>
       </c>
       <c r="M26" t="n">
-        <v>1231.283934773481</v>
+        <v>1445.616517892115</v>
       </c>
       <c r="N26" t="n">
-        <v>1759.095218410943</v>
+        <v>1973.427801529577</v>
       </c>
       <c r="O26" t="n">
-        <v>1832.61545280471</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="P26" t="n">
-        <v>2180.802944936232</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="Q26" t="n">
         <v>2365.64850507718</v>
@@ -6257,19 +6259,19 @@
         <v>2365.64850507718</v>
       </c>
       <c r="U26" t="n">
-        <v>2109.895775511779</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="V26" t="n">
-        <v>1767.788966215297</v>
+        <v>2058.57031924742</v>
       </c>
       <c r="W26" t="n">
-        <v>1396.789931183585</v>
+        <v>2058.57031924742</v>
       </c>
       <c r="X26" t="n">
-        <v>1396.789931183585</v>
+        <v>2058.57031924742</v>
       </c>
       <c r="Y26" t="n">
-        <v>1396.789931183585</v>
+        <v>2058.57031924742</v>
       </c>
     </row>
     <row r="27">
@@ -6309,19 +6311,19 @@
         <v>367.0521161637701</v>
       </c>
       <c r="L27" t="n">
-        <v>850.6182020620834</v>
+        <v>367.0521161637701</v>
       </c>
       <c r="M27" t="n">
-        <v>850.6182020620834</v>
+        <v>858.0088487631995</v>
       </c>
       <c r="N27" t="n">
-        <v>1209.141762214911</v>
+        <v>1443.506853769802</v>
       </c>
       <c r="O27" t="n">
-        <v>1725.662044805892</v>
+        <v>1960.027136360783</v>
       </c>
       <c r="P27" t="n">
-        <v>2131.28341352229</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="Q27" t="n">
         <v>2365.64850507718</v>
@@ -6358,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1464.201482535628</v>
+        <v>114.011453636999</v>
       </c>
       <c r="C28" t="n">
-        <v>1464.201482535628</v>
+        <v>114.011453636999</v>
       </c>
       <c r="D28" t="n">
-        <v>1464.201482535628</v>
+        <v>114.011453636999</v>
       </c>
       <c r="E28" t="n">
-        <v>1464.201482535628</v>
+        <v>114.011453636999</v>
       </c>
       <c r="F28" t="n">
-        <v>1464.201482535628</v>
+        <v>114.011453636999</v>
       </c>
       <c r="G28" t="n">
-        <v>1464.201482535628</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="H28" t="n">
-        <v>1464.201482535628</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="I28" t="n">
-        <v>1464.201482535628</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="J28" t="n">
-        <v>1464.201482535628</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="K28" t="n">
-        <v>1546.036523645569</v>
+        <v>129.1480112114855</v>
       </c>
       <c r="L28" t="n">
-        <v>1710.164163519369</v>
+        <v>293.2756510852853</v>
       </c>
       <c r="M28" t="n">
-        <v>1896.455741857633</v>
+        <v>479.5672294235493</v>
       </c>
       <c r="N28" t="n">
-        <v>2079.645375888842</v>
+        <v>662.7568634547586</v>
       </c>
       <c r="O28" t="n">
-        <v>2242.350142930551</v>
+        <v>825.4616304964666</v>
       </c>
       <c r="P28" t="n">
-        <v>2362.226308707129</v>
+        <v>945.3377962730451</v>
       </c>
       <c r="Q28" t="n">
-        <v>2365.64850507718</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="R28" t="n">
-        <v>2365.64850507718</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="S28" t="n">
-        <v>2365.64850507718</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="T28" t="n">
-        <v>2365.64850507718</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="U28" t="n">
-        <v>2080.209713319081</v>
+        <v>663.3212008849971</v>
       </c>
       <c r="V28" t="n">
-        <v>2080.209713319081</v>
+        <v>397.3418557058213</v>
       </c>
       <c r="W28" t="n">
-        <v>1796.879311250259</v>
+        <v>114.011453636999</v>
       </c>
       <c r="X28" t="n">
-        <v>1649.409501226929</v>
+        <v>114.011453636999</v>
       </c>
       <c r="Y28" t="n">
-        <v>1649.409501226929</v>
+        <v>114.011453636999</v>
       </c>
     </row>
     <row r="29">
@@ -6437,22 +6439,22 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>387.3460145966595</v>
+        <v>773.9795454185085</v>
       </c>
       <c r="C29" t="n">
-        <v>47.31297010154361</v>
+        <v>773.9795454185085</v>
       </c>
       <c r="D29" t="n">
-        <v>47.31297010154361</v>
+        <v>773.9795454185085</v>
       </c>
       <c r="E29" t="n">
-        <v>47.31297010154361</v>
+        <v>371.396020535053</v>
       </c>
       <c r="F29" t="n">
-        <v>47.31297010154361</v>
+        <v>371.396020535053</v>
       </c>
       <c r="G29" t="n">
-        <v>47.31297010154361</v>
+        <v>371.396020535053</v>
       </c>
       <c r="H29" t="n">
         <v>47.31297010154361</v>
@@ -6491,22 +6493,22 @@
         <v>2365.64850507718</v>
       </c>
       <c r="T29" t="n">
-        <v>2142.147902636597</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="U29" t="n">
-        <v>1886.395173071196</v>
+        <v>2273.028703893045</v>
       </c>
       <c r="V29" t="n">
-        <v>1544.288363774714</v>
+        <v>1930.921894596563</v>
       </c>
       <c r="W29" t="n">
-        <v>1173.289328743002</v>
+        <v>1559.922859564851</v>
       </c>
       <c r="X29" t="n">
-        <v>783.8367236760583</v>
+        <v>1170.470254497907</v>
       </c>
       <c r="Y29" t="n">
-        <v>387.3460145966595</v>
+        <v>773.9795454185085</v>
       </c>
     </row>
     <row r="30">
@@ -6549,16 +6551,16 @@
         <v>850.6182020620834</v>
       </c>
       <c r="M30" t="n">
-        <v>1209.141762214911</v>
+        <v>1436.116207068686</v>
       </c>
       <c r="N30" t="n">
-        <v>1209.141762214911</v>
+        <v>1849.128222486199</v>
       </c>
       <c r="O30" t="n">
-        <v>1725.662044805892</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="P30" t="n">
-        <v>2131.28341352229</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="Q30" t="n">
         <v>2365.64850507718</v>
@@ -6595,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>2102.924460494948</v>
+        <v>540.4399127684381</v>
       </c>
       <c r="C31" t="n">
-        <v>1932.719342560937</v>
+        <v>370.2347948344274</v>
       </c>
       <c r="D31" t="n">
-        <v>1777.086229463452</v>
+        <v>214.6016817369421</v>
       </c>
       <c r="E31" t="n">
-        <v>1621.527417322655</v>
+        <v>59.04286959614461</v>
       </c>
       <c r="F31" t="n">
-        <v>1464.201482535628</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="G31" t="n">
-        <v>1464.201482535628</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="H31" t="n">
-        <v>1464.201482535628</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="I31" t="n">
-        <v>1464.201482535628</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="J31" t="n">
-        <v>1464.201482535628</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="K31" t="n">
-        <v>1546.036523645569</v>
+        <v>129.1480112114855</v>
       </c>
       <c r="L31" t="n">
-        <v>1710.164163519369</v>
+        <v>293.2756510852853</v>
       </c>
       <c r="M31" t="n">
-        <v>1896.455741857633</v>
+        <v>479.5672294235493</v>
       </c>
       <c r="N31" t="n">
-        <v>2079.645375888842</v>
+        <v>662.7568634547586</v>
       </c>
       <c r="O31" t="n">
-        <v>2242.350142930551</v>
+        <v>825.4616304964666</v>
       </c>
       <c r="P31" t="n">
-        <v>2362.226308707129</v>
+        <v>945.3377962730451</v>
       </c>
       <c r="Q31" t="n">
-        <v>2365.64850507718</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="R31" t="n">
-        <v>2365.64850507718</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="S31" t="n">
-        <v>2365.64850507718</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="T31" t="n">
-        <v>2365.64850507718</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="U31" t="n">
-        <v>2365.64850507718</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="V31" t="n">
-        <v>2365.64850507718</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="W31" t="n">
-        <v>2365.64850507718</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="X31" t="n">
-        <v>2365.64850507718</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="Y31" t="n">
-        <v>2288.132479186249</v>
+        <v>725.6479314597394</v>
       </c>
     </row>
     <row r="32">
@@ -6674,19 +6676,19 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>387.3460145966595</v>
+        <v>2058.57031924742</v>
       </c>
       <c r="C32" t="n">
-        <v>47.31297010154361</v>
+        <v>1665.394817750351</v>
       </c>
       <c r="D32" t="n">
-        <v>47.31297010154361</v>
+        <v>1279.953688967018</v>
       </c>
       <c r="E32" t="n">
-        <v>47.31297010154361</v>
+        <v>877.3701640835627</v>
       </c>
       <c r="F32" t="n">
-        <v>47.31297010154361</v>
+        <v>460.4757256135405</v>
       </c>
       <c r="G32" t="n">
         <v>47.31297010154361</v>
@@ -6728,22 +6730,22 @@
         <v>2365.64850507718</v>
       </c>
       <c r="T32" t="n">
-        <v>2142.147902636597</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="U32" t="n">
-        <v>1886.395173071196</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="V32" t="n">
-        <v>1544.288363774714</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="W32" t="n">
-        <v>1173.289328743002</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="X32" t="n">
-        <v>783.8367236760583</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="Y32" t="n">
-        <v>387.3460145966595</v>
+        <v>2058.57031924742</v>
       </c>
     </row>
     <row r="33">
@@ -6786,16 +6788,16 @@
         <v>850.6182020620834</v>
       </c>
       <c r="M33" t="n">
-        <v>1209.141762214911</v>
+        <v>1263.630217479597</v>
       </c>
       <c r="N33" t="n">
-        <v>1209.141762214911</v>
+        <v>1849.128222486199</v>
       </c>
       <c r="O33" t="n">
-        <v>1725.662044805892</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="P33" t="n">
-        <v>2131.28341352229</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="Q33" t="n">
         <v>2365.64850507718</v>
@@ -6832,22 +6834,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>948.7599926430961</v>
+        <v>210.7856656383638</v>
       </c>
       <c r="C34" t="n">
-        <v>948.7599926430961</v>
+        <v>210.7856656383638</v>
       </c>
       <c r="D34" t="n">
-        <v>847.4030175052487</v>
+        <v>210.7856656383638</v>
       </c>
       <c r="E34" t="n">
-        <v>691.8442053644512</v>
+        <v>210.7856656383638</v>
       </c>
       <c r="F34" t="n">
-        <v>534.5182705774242</v>
+        <v>210.7856656383638</v>
       </c>
       <c r="G34" t="n">
-        <v>366.2642166768698</v>
+        <v>210.7856656383638</v>
       </c>
       <c r="H34" t="n">
         <v>210.7856656383638</v>
@@ -6880,28 +6882,28 @@
         <v>948.7599926430961</v>
       </c>
       <c r="R34" t="n">
-        <v>948.7599926430961</v>
+        <v>824.8590032756731</v>
       </c>
       <c r="S34" t="n">
-        <v>948.7599926430961</v>
+        <v>762.2038025756385</v>
       </c>
       <c r="T34" t="n">
-        <v>948.7599926430961</v>
+        <v>762.2038025756385</v>
       </c>
       <c r="U34" t="n">
-        <v>948.7599926430961</v>
+        <v>476.7650108175395</v>
       </c>
       <c r="V34" t="n">
-        <v>948.7599926430961</v>
+        <v>210.7856656383638</v>
       </c>
       <c r="W34" t="n">
-        <v>948.7599926430961</v>
+        <v>210.7856656383638</v>
       </c>
       <c r="X34" t="n">
-        <v>948.7599926430961</v>
+        <v>210.7856656383638</v>
       </c>
       <c r="Y34" t="n">
-        <v>948.7599926430961</v>
+        <v>210.7856656383638</v>
       </c>
     </row>
     <row r="35">
@@ -6911,22 +6913,22 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>449.8964949849991</v>
+        <v>1767.788966215297</v>
       </c>
       <c r="C35" t="n">
-        <v>449.8964949849991</v>
+        <v>1767.788966215297</v>
       </c>
       <c r="D35" t="n">
-        <v>449.8964949849991</v>
+        <v>1382.347837431965</v>
       </c>
       <c r="E35" t="n">
-        <v>47.31297010154361</v>
+        <v>979.7643125485097</v>
       </c>
       <c r="F35" t="n">
-        <v>47.31297010154361</v>
+        <v>562.8698740784874</v>
       </c>
       <c r="G35" t="n">
-        <v>47.31297010154361</v>
+        <v>149.7071185664906</v>
       </c>
       <c r="H35" t="n">
         <v>47.31297010154361</v>
@@ -6938,16 +6940,16 @@
         <v>47.31297010154361</v>
       </c>
       <c r="K35" t="n">
-        <v>406.2953261290054</v>
+        <v>358.4764287842802</v>
       </c>
       <c r="L35" t="n">
-        <v>899.6156178475343</v>
+        <v>851.7967205028091</v>
       </c>
       <c r="M35" t="n">
-        <v>1445.616517892115</v>
+        <v>1397.79762054739</v>
       </c>
       <c r="N35" t="n">
-        <v>1973.427801529577</v>
+        <v>1925.608904184852</v>
       </c>
       <c r="O35" t="n">
         <v>2365.64850507718</v>
@@ -6968,19 +6970,19 @@
         <v>2365.64850507718</v>
       </c>
       <c r="U35" t="n">
-        <v>2349.440399170932</v>
+        <v>2109.895775511779</v>
       </c>
       <c r="V35" t="n">
-        <v>2007.33358987445</v>
+        <v>1767.788966215297</v>
       </c>
       <c r="W35" t="n">
-        <v>1636.334554842738</v>
+        <v>1767.788966215297</v>
       </c>
       <c r="X35" t="n">
-        <v>1246.881949775795</v>
+        <v>1767.788966215297</v>
       </c>
       <c r="Y35" t="n">
-        <v>850.3912406963959</v>
+        <v>1767.788966215297</v>
       </c>
     </row>
     <row r="36">
@@ -7014,25 +7016,25 @@
         <v>47.31297010154361</v>
       </c>
       <c r="J36" t="n">
-        <v>160.427952321271</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="K36" t="n">
-        <v>160.427952321271</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="L36" t="n">
-        <v>160.427952321271</v>
+        <v>530.8790559998569</v>
       </c>
       <c r="M36" t="n">
-        <v>745.9259573278732</v>
+        <v>1116.377061006459</v>
       </c>
       <c r="N36" t="n">
-        <v>1331.423962334475</v>
+        <v>1701.875066013061</v>
       </c>
       <c r="O36" t="n">
-        <v>1725.662044805891</v>
+        <v>2218.395348604042</v>
       </c>
       <c r="P36" t="n">
-        <v>2131.283413522289</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="Q36" t="n">
         <v>2365.648505077179</v>
@@ -7069,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>47.31297010154361</v>
+        <v>1464.201482535628</v>
       </c>
       <c r="C37" t="n">
-        <v>47.31297010154361</v>
+        <v>1464.201482535628</v>
       </c>
       <c r="D37" t="n">
-        <v>47.31297010154361</v>
+        <v>1464.201482535628</v>
       </c>
       <c r="E37" t="n">
-        <v>47.31297010154361</v>
+        <v>1464.201482535628</v>
       </c>
       <c r="F37" t="n">
-        <v>47.31297010154361</v>
+        <v>1464.201482535628</v>
       </c>
       <c r="G37" t="n">
-        <v>47.31297010154361</v>
+        <v>1464.201482535628</v>
       </c>
       <c r="H37" t="n">
-        <v>47.31297010154361</v>
+        <v>1464.201482535628</v>
       </c>
       <c r="I37" t="n">
-        <v>47.31297010154361</v>
+        <v>1464.201482535628</v>
       </c>
       <c r="J37" t="n">
-        <v>47.31297010154361</v>
+        <v>1464.201482535628</v>
       </c>
       <c r="K37" t="n">
-        <v>129.1480112114855</v>
+        <v>1546.036523645569</v>
       </c>
       <c r="L37" t="n">
-        <v>293.2756510852853</v>
+        <v>1710.164163519369</v>
       </c>
       <c r="M37" t="n">
-        <v>479.5672294235493</v>
+        <v>1896.455741857633</v>
       </c>
       <c r="N37" t="n">
-        <v>662.7568634547586</v>
+        <v>2079.645375888842</v>
       </c>
       <c r="O37" t="n">
-        <v>825.4616304964666</v>
+        <v>2242.350142930551</v>
       </c>
       <c r="P37" t="n">
-        <v>945.3377962730451</v>
+        <v>2362.226308707129</v>
       </c>
       <c r="Q37" t="n">
-        <v>948.7599926430961</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="R37" t="n">
-        <v>824.8590032756731</v>
+        <v>2241.747515709757</v>
       </c>
       <c r="S37" t="n">
-        <v>622.0429194582225</v>
+        <v>2038.931431892307</v>
       </c>
       <c r="T37" t="n">
-        <v>386.3238676264566</v>
+        <v>1803.212380060541</v>
       </c>
       <c r="U37" t="n">
-        <v>100.8850758683575</v>
+        <v>1730.180827714803</v>
       </c>
       <c r="V37" t="n">
-        <v>47.31297010154361</v>
+        <v>1464.201482535628</v>
       </c>
       <c r="W37" t="n">
-        <v>47.31297010154361</v>
+        <v>1464.201482535628</v>
       </c>
       <c r="X37" t="n">
-        <v>47.31297010154361</v>
+        <v>1464.201482535628</v>
       </c>
       <c r="Y37" t="n">
-        <v>47.31297010154361</v>
+        <v>1464.201482535628</v>
       </c>
     </row>
     <row r="38">
@@ -7148,22 +7150,22 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1976.195900010237</v>
+        <v>1965.153759365783</v>
       </c>
       <c r="C38" t="n">
-        <v>1976.195900010237</v>
+        <v>1571.978257868714</v>
       </c>
       <c r="D38" t="n">
-        <v>1604.036739400527</v>
+        <v>1186.537129085382</v>
       </c>
       <c r="E38" t="n">
-        <v>1201.453214517072</v>
+        <v>783.9536042019261</v>
       </c>
       <c r="F38" t="n">
-        <v>784.5587760470498</v>
+        <v>367.0591657319038</v>
       </c>
       <c r="G38" t="n">
-        <v>371.396020535053</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="H38" t="n">
         <v>47.31297010154361</v>
@@ -7172,19 +7174,19 @@
         <v>47.31297010154361</v>
       </c>
       <c r="J38" t="n">
-        <v>47.31297010154361</v>
+        <v>191.9627430103717</v>
       </c>
       <c r="K38" t="n">
-        <v>406.2953261290054</v>
+        <v>550.9450990378335</v>
       </c>
       <c r="L38" t="n">
-        <v>899.6156178475343</v>
+        <v>1044.265390756362</v>
       </c>
       <c r="M38" t="n">
-        <v>1445.616517892115</v>
+        <v>1397.79762054739</v>
       </c>
       <c r="N38" t="n">
-        <v>1973.427801529577</v>
+        <v>1925.608904184852</v>
       </c>
       <c r="O38" t="n">
         <v>2365.64850507718</v>
@@ -7214,10 +7216,10 @@
         <v>2365.64850507718</v>
       </c>
       <c r="X38" t="n">
-        <v>1976.195900010237</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="Y38" t="n">
-        <v>1976.195900010237</v>
+        <v>2365.64850507718</v>
       </c>
     </row>
     <row r="39">
@@ -7227,25 +7229,25 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>846.6789532415753</v>
+        <v>846.6789532415746</v>
       </c>
       <c r="C39" t="n">
-        <v>696.0247228016675</v>
+        <v>696.0247228016668</v>
       </c>
       <c r="D39" t="n">
-        <v>565.9357554231478</v>
+        <v>565.9357554231472</v>
       </c>
       <c r="E39" t="n">
-        <v>429.4892645340356</v>
+        <v>429.4892645340348</v>
       </c>
       <c r="F39" t="n">
-        <v>305.0574584171674</v>
+        <v>305.0574584171666</v>
       </c>
       <c r="G39" t="n">
-        <v>184.9976404890318</v>
+        <v>184.9976404890311</v>
       </c>
       <c r="H39" t="n">
-        <v>96.70022408963275</v>
+        <v>96.70022408963202</v>
       </c>
       <c r="I39" t="n">
         <v>47.31297010154361</v>
@@ -7254,49 +7256,49 @@
         <v>47.31297010154361</v>
       </c>
       <c r="K39" t="n">
-        <v>367.0521161637701</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="L39" t="n">
-        <v>850.6182020620834</v>
+        <v>530.8790559998569</v>
       </c>
       <c r="M39" t="n">
-        <v>1263.630217479597</v>
+        <v>1116.377061006459</v>
       </c>
       <c r="N39" t="n">
-        <v>1849.128222486199</v>
+        <v>1701.875066013061</v>
       </c>
       <c r="O39" t="n">
-        <v>2365.64850507718</v>
+        <v>2218.395348604042</v>
       </c>
       <c r="P39" t="n">
-        <v>2365.64850507718</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="Q39" t="n">
-        <v>2365.64850507718</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="R39" t="n">
-        <v>2341.731461975245</v>
+        <v>2341.731461975244</v>
       </c>
       <c r="S39" t="n">
-        <v>2206.800784875114</v>
+        <v>2206.800784875113</v>
       </c>
       <c r="T39" t="n">
-        <v>2029.816973074022</v>
+        <v>2029.816973074021</v>
       </c>
       <c r="U39" t="n">
-        <v>1819.753829752664</v>
+        <v>1819.753829752663</v>
       </c>
       <c r="V39" t="n">
-        <v>1597.213828123731</v>
+        <v>1597.21382812373</v>
       </c>
       <c r="W39" t="n">
-        <v>1367.096582257018</v>
+        <v>1367.096582257017</v>
       </c>
       <c r="X39" t="n">
         <v>1177.789504607029</v>
       </c>
       <c r="Y39" t="n">
-        <v>998.4752876825366</v>
+        <v>998.475287682536</v>
       </c>
     </row>
     <row r="40">
@@ -7306,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1921.02851283761</v>
+        <v>714.6796704260792</v>
       </c>
       <c r="C40" t="n">
-        <v>1921.02851283761</v>
+        <v>544.4745524920684</v>
       </c>
       <c r="D40" t="n">
-        <v>1921.02851283761</v>
+        <v>544.4745524920684</v>
       </c>
       <c r="E40" t="n">
-        <v>1921.02851283761</v>
+        <v>544.4745524920684</v>
       </c>
       <c r="F40" t="n">
-        <v>1921.02851283761</v>
+        <v>534.5182705774242</v>
       </c>
       <c r="G40" t="n">
-        <v>1752.774458937056</v>
+        <v>366.2642166768698</v>
       </c>
       <c r="H40" t="n">
-        <v>1597.29590789855</v>
+        <v>210.7856656383638</v>
       </c>
       <c r="I40" t="n">
-        <v>1464.201482535628</v>
+        <v>77.69124027544166</v>
       </c>
       <c r="J40" t="n">
-        <v>1464.201482535628</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="K40" t="n">
-        <v>1546.036523645569</v>
+        <v>129.1480112114855</v>
       </c>
       <c r="L40" t="n">
-        <v>1710.164163519369</v>
+        <v>293.2756510852853</v>
       </c>
       <c r="M40" t="n">
-        <v>1896.455741857633</v>
+        <v>479.5672294235493</v>
       </c>
       <c r="N40" t="n">
-        <v>2079.645375888842</v>
+        <v>662.7568634547586</v>
       </c>
       <c r="O40" t="n">
-        <v>2242.350142930551</v>
+        <v>825.4616304964666</v>
       </c>
       <c r="P40" t="n">
-        <v>2362.226308707129</v>
+        <v>945.3377962730451</v>
       </c>
       <c r="Q40" t="n">
-        <v>2365.64850507718</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="R40" t="n">
-        <v>2241.747515709757</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="S40" t="n">
-        <v>2038.931431892307</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="T40" t="n">
-        <v>1921.02851283761</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="U40" t="n">
-        <v>1921.02851283761</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="V40" t="n">
-        <v>1921.02851283761</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="W40" t="n">
-        <v>1921.02851283761</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="X40" t="n">
-        <v>1921.02851283761</v>
+        <v>714.6796704260792</v>
       </c>
       <c r="Y40" t="n">
-        <v>1921.02851283761</v>
+        <v>714.6796704260792</v>
       </c>
     </row>
     <row r="41">
@@ -7385,13 +7387,13 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1568.663050286385</v>
+        <v>1655.986794363964</v>
       </c>
       <c r="C41" t="n">
-        <v>1279.953688967018</v>
+        <v>1262.811292866895</v>
       </c>
       <c r="D41" t="n">
-        <v>1279.953688967018</v>
+        <v>877.3701640835627</v>
       </c>
       <c r="E41" t="n">
         <v>877.3701640835627</v>
@@ -7412,19 +7414,19 @@
         <v>47.31297010154361</v>
       </c>
       <c r="K41" t="n">
-        <v>47.31297010154361</v>
+        <v>406.2953261290054</v>
       </c>
       <c r="L41" t="n">
-        <v>540.6332618200724</v>
+        <v>899.6156178475343</v>
       </c>
       <c r="M41" t="n">
-        <v>1086.634161864653</v>
+        <v>1445.616517892115</v>
       </c>
       <c r="N41" t="n">
-        <v>1614.445445502115</v>
+        <v>1973.427801529577</v>
       </c>
       <c r="O41" t="n">
-        <v>2054.485046394444</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="P41" t="n">
         <v>2365.64850507718</v>
@@ -7454,7 +7456,7 @@
         <v>2365.64850507718</v>
       </c>
       <c r="Y41" t="n">
-        <v>1969.157795997781</v>
+        <v>2056.481540075361</v>
       </c>
     </row>
     <row r="42">
@@ -7482,7 +7484,7 @@
         <v>184.9976404890318</v>
       </c>
       <c r="H42" t="n">
-        <v>96.70022408963202</v>
+        <v>96.70022408963275</v>
       </c>
       <c r="I42" t="n">
         <v>47.31297010154361</v>
@@ -7497,13 +7499,13 @@
         <v>530.8790559998569</v>
       </c>
       <c r="M42" t="n">
-        <v>858.0088487631995</v>
+        <v>1116.377061006459</v>
       </c>
       <c r="N42" t="n">
-        <v>1443.506853769802</v>
+        <v>1701.875066013061</v>
       </c>
       <c r="O42" t="n">
-        <v>1960.027136360783</v>
+        <v>2218.395348604042</v>
       </c>
       <c r="P42" t="n">
         <v>2365.64850507718</v>
@@ -7543,13 +7545,13 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>356.0635742790467</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="C43" t="n">
-        <v>356.0635742790467</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="D43" t="n">
-        <v>200.4304611815615</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="E43" t="n">
         <v>47.31297010154361</v>
@@ -7591,28 +7593,28 @@
         <v>948.7599926430961</v>
       </c>
       <c r="R43" t="n">
-        <v>824.8590032756731</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="S43" t="n">
-        <v>622.0429194582225</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="T43" t="n">
-        <v>622.0429194582225</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="U43" t="n">
-        <v>622.0429194582225</v>
+        <v>663.3212008849971</v>
       </c>
       <c r="V43" t="n">
-        <v>356.0635742790467</v>
+        <v>564.7236943873829</v>
       </c>
       <c r="W43" t="n">
-        <v>356.0635742790467</v>
+        <v>281.3932923185605</v>
       </c>
       <c r="X43" t="n">
-        <v>356.0635742790467</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="Y43" t="n">
-        <v>356.0635742790467</v>
+        <v>47.31297010154361</v>
       </c>
     </row>
     <row r="44">
@@ -7622,19 +7624,19 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>843.0719964820685</v>
+        <v>1279.953688967018</v>
       </c>
       <c r="C44" t="n">
-        <v>449.8964949849991</v>
+        <v>1279.953688967018</v>
       </c>
       <c r="D44" t="n">
-        <v>449.8964949849991</v>
+        <v>1279.953688967018</v>
       </c>
       <c r="E44" t="n">
-        <v>47.31297010154361</v>
+        <v>877.3701640835627</v>
       </c>
       <c r="F44" t="n">
-        <v>47.31297010154361</v>
+        <v>460.4757256135405</v>
       </c>
       <c r="G44" t="n">
         <v>47.31297010154361</v>
@@ -7646,16 +7648,16 @@
         <v>47.31297010154361</v>
       </c>
       <c r="J44" t="n">
-        <v>191.9627430103717</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="K44" t="n">
-        <v>550.9450990378335</v>
+        <v>406.2953261290054</v>
       </c>
       <c r="L44" t="n">
-        <v>1044.265390756362</v>
+        <v>406.2953261290054</v>
       </c>
       <c r="M44" t="n">
-        <v>1044.265390756362</v>
+        <v>864.7645682749193</v>
       </c>
       <c r="N44" t="n">
         <v>1392.575851912381</v>
@@ -7670,28 +7672,28 @@
         <v>2365.64850507718</v>
       </c>
       <c r="R44" t="n">
-        <v>2365.64850507718</v>
+        <v>2327.655591362702</v>
       </c>
       <c r="S44" t="n">
-        <v>2365.64850507718</v>
+        <v>2327.655591362702</v>
       </c>
       <c r="T44" t="n">
-        <v>2237.916990134747</v>
+        <v>2325.65376931076</v>
       </c>
       <c r="U44" t="n">
-        <v>1982.164260569346</v>
+        <v>2069.901039745359</v>
       </c>
       <c r="V44" t="n">
-        <v>1640.057451272864</v>
+        <v>2069.901039745359</v>
       </c>
       <c r="W44" t="n">
-        <v>1640.057451272864</v>
+        <v>2069.901039745359</v>
       </c>
       <c r="X44" t="n">
-        <v>1640.057451272864</v>
+        <v>1680.448434678415</v>
       </c>
       <c r="Y44" t="n">
-        <v>1243.566742193465</v>
+        <v>1680.448434678415</v>
       </c>
     </row>
     <row r="45">
@@ -7725,31 +7727,31 @@
         <v>47.31297010154361</v>
       </c>
       <c r="J45" t="n">
-        <v>160.427952321271</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="K45" t="n">
-        <v>480.1670983834974</v>
+        <v>367.0521161637701</v>
       </c>
       <c r="L45" t="n">
-        <v>963.7331842818107</v>
+        <v>850.6182020620834</v>
       </c>
       <c r="M45" t="n">
-        <v>1549.231189288413</v>
+        <v>1209.14176221491</v>
       </c>
       <c r="N45" t="n">
-        <v>1549.231189288413</v>
+        <v>1209.14176221491</v>
       </c>
       <c r="O45" t="n">
-        <v>2065.751471879394</v>
+        <v>1725.662044805891</v>
       </c>
       <c r="P45" t="n">
-        <v>2131.28341352229</v>
+        <v>2131.283413522289</v>
       </c>
       <c r="Q45" t="n">
-        <v>2365.64850507718</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="R45" t="n">
-        <v>2341.731461975245</v>
+        <v>2341.731461975244</v>
       </c>
       <c r="S45" t="n">
         <v>2206.800784875113</v>
@@ -7780,7 +7782,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>217.5180880355544</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="C46" t="n">
         <v>47.31297010154361</v>
@@ -7837,19 +7839,19 @@
         <v>948.7599926430961</v>
       </c>
       <c r="U46" t="n">
-        <v>948.7599926430961</v>
+        <v>663.3212008849971</v>
       </c>
       <c r="V46" t="n">
-        <v>948.7599926430961</v>
+        <v>397.3418557058213</v>
       </c>
       <c r="W46" t="n">
-        <v>665.4295905742738</v>
+        <v>114.011453636999</v>
       </c>
       <c r="X46" t="n">
-        <v>625.8381679102123</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="Y46" t="n">
-        <v>402.7261067268557</v>
+        <v>47.31297010154361</v>
       </c>
     </row>
   </sheetData>
@@ -7976,28 +7978,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>117.6798379423461</v>
+        <v>263.7907196684351</v>
       </c>
       <c r="K2" t="n">
         <v>505.666843611017</v>
       </c>
       <c r="L2" t="n">
-        <v>153.2481697304917</v>
+        <v>651.5514946987026</v>
       </c>
       <c r="M2" t="n">
-        <v>612.8252961895594</v>
+        <v>701.2411122488187</v>
       </c>
       <c r="N2" t="n">
         <v>682.2612020826953</v>
       </c>
       <c r="O2" t="n">
-        <v>594.0482827698827</v>
+        <v>399.6354845339704</v>
       </c>
       <c r="P2" t="n">
-        <v>502.0059847475129</v>
+        <v>150.3014472409252</v>
       </c>
       <c r="Q2" t="n">
-        <v>331.2113854294513</v>
+        <v>144.4986984183922</v>
       </c>
       <c r="R2" t="n">
         <v>102.5176150018526</v>
@@ -8055,19 +8057,19 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J3" t="n">
-        <v>196.7020151310378</v>
+        <v>82.44445733333335</v>
       </c>
       <c r="K3" t="n">
         <v>412.5657697396227</v>
       </c>
       <c r="L3" t="n">
-        <v>578.5109386733963</v>
+        <v>90.06034685691823</v>
       </c>
       <c r="M3" t="n">
-        <v>340.274574506989</v>
+        <v>351.5705978518764</v>
       </c>
       <c r="N3" t="n">
-        <v>85.37211285416666</v>
+        <v>676.7842391234617</v>
       </c>
       <c r="O3" t="n">
         <v>614.4252180716981</v>
@@ -8216,7 +8218,7 @@
         <v>263.7907196684351</v>
       </c>
       <c r="K5" t="n">
-        <v>505.666843611017</v>
+        <v>143.0584031792374</v>
       </c>
       <c r="L5" t="n">
         <v>651.5514946987026</v>
@@ -8228,13 +8230,13 @@
         <v>682.2612020826953</v>
       </c>
       <c r="O5" t="n">
-        <v>212.9227975229111</v>
+        <v>594.0482827698827</v>
       </c>
       <c r="P5" t="n">
-        <v>150.3014472409252</v>
+        <v>318.4970894367924</v>
       </c>
       <c r="Q5" t="n">
-        <v>331.2113854294513</v>
+        <v>144.4986984183922</v>
       </c>
       <c r="R5" t="n">
         <v>102.5176150018526</v>
@@ -8295,7 +8297,7 @@
         <v>82.44445733333335</v>
       </c>
       <c r="K6" t="n">
-        <v>238.3374974274122</v>
+        <v>89.59693533333335</v>
       </c>
       <c r="L6" t="n">
         <v>578.5109386733963</v>
@@ -8310,7 +8312,7 @@
         <v>614.4252180716981</v>
       </c>
       <c r="P6" t="n">
-        <v>87.08336481931465</v>
+        <v>235.8239269133934</v>
       </c>
       <c r="Q6" t="n">
         <v>90.98815315591399</v>
@@ -8453,10 +8455,10 @@
         <v>263.7907196684351</v>
       </c>
       <c r="K8" t="n">
-        <v>143.0584031792374</v>
+        <v>505.666843611017</v>
       </c>
       <c r="L8" t="n">
-        <v>651.5514946987026</v>
+        <v>153.2481697304917</v>
       </c>
       <c r="M8" t="n">
         <v>701.2411122488187</v>
@@ -8465,10 +8467,10 @@
         <v>682.2612020826953</v>
       </c>
       <c r="O8" t="n">
-        <v>594.0482827698827</v>
+        <v>546.2342719955939</v>
       </c>
       <c r="P8" t="n">
-        <v>318.4970894367924</v>
+        <v>502.0059847475129</v>
       </c>
       <c r="Q8" t="n">
         <v>144.4986984183922</v>
@@ -8532,10 +8534,10 @@
         <v>82.44445733333335</v>
       </c>
       <c r="K9" t="n">
-        <v>412.5657697396227</v>
+        <v>89.59693533333335</v>
       </c>
       <c r="L9" t="n">
-        <v>578.5109386733963</v>
+        <v>90.06034685691823</v>
       </c>
       <c r="M9" t="n">
         <v>683.7992483186069</v>
@@ -8544,13 +8546,13 @@
         <v>676.7842391234617</v>
       </c>
       <c r="O9" t="n">
-        <v>440.1969457594874</v>
+        <v>614.4252180716981</v>
       </c>
       <c r="P9" t="n">
-        <v>87.08336481931465</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q9" t="n">
-        <v>90.98815315591399</v>
+        <v>318.4607528074838</v>
       </c>
       <c r="R9" t="n">
         <v>71.01380490566048</v>
@@ -8690,10 +8692,10 @@
         <v>263.7907196684351</v>
       </c>
       <c r="K11" t="n">
-        <v>143.0584031792374</v>
+        <v>505.666843611017</v>
       </c>
       <c r="L11" t="n">
-        <v>281.3299123769229</v>
+        <v>651.5514946987026</v>
       </c>
       <c r="M11" t="n">
         <v>701.2411122488187</v>
@@ -8702,13 +8704,13 @@
         <v>682.2612020826953</v>
       </c>
       <c r="O11" t="n">
-        <v>594.0482827698827</v>
+        <v>399.6354845339704</v>
       </c>
       <c r="P11" t="n">
-        <v>502.0059847475129</v>
+        <v>150.3014472409252</v>
       </c>
       <c r="Q11" t="n">
-        <v>331.2113854294513</v>
+        <v>144.4986984183922</v>
       </c>
       <c r="R11" t="n">
         <v>102.5176150018526</v>
@@ -8766,7 +8768,7 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J12" t="n">
-        <v>196.7020151310378</v>
+        <v>82.44445733333335</v>
       </c>
       <c r="K12" t="n">
         <v>412.5657697396227</v>
@@ -8775,16 +8777,16 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M12" t="n">
-        <v>680.3186616794904</v>
+        <v>683.7992483186069</v>
       </c>
       <c r="N12" t="n">
-        <v>676.7842391234617</v>
+        <v>377.8426560230623</v>
       </c>
       <c r="O12" t="n">
         <v>92.68755888888889</v>
       </c>
       <c r="P12" t="n">
-        <v>87.08336481931465</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q12" t="n">
         <v>327.7205688679246</v>
@@ -8927,13 +8929,13 @@
         <v>117.6798379423461</v>
       </c>
       <c r="K14" t="n">
-        <v>143.0584031792374</v>
+        <v>505.666843611017</v>
       </c>
       <c r="L14" t="n">
-        <v>614.1534811140714</v>
+        <v>616.3484143223238</v>
       </c>
       <c r="M14" t="n">
-        <v>701.2411122488187</v>
+        <v>149.7250515977273</v>
       </c>
       <c r="N14" t="n">
         <v>682.2612020826953</v>
@@ -8945,7 +8947,7 @@
         <v>502.0059847475129</v>
       </c>
       <c r="Q14" t="n">
-        <v>144.4986984183922</v>
+        <v>331.2113854294513</v>
       </c>
       <c r="R14" t="n">
         <v>102.5176150018526</v>
@@ -9009,7 +9011,7 @@
         <v>412.5657697396227</v>
       </c>
       <c r="L15" t="n">
-        <v>165.3117977752925</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M15" t="n">
         <v>683.7992483186069</v>
@@ -9018,13 +9020,13 @@
         <v>676.7842391234617</v>
       </c>
       <c r="O15" t="n">
-        <v>92.68755888888889</v>
+        <v>325.939387961783</v>
       </c>
       <c r="P15" t="n">
-        <v>496.801919078302</v>
+        <v>87.08336481931465</v>
       </c>
       <c r="Q15" t="n">
-        <v>327.7205688679246</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R15" t="n">
         <v>71.01380490566048</v>
@@ -9164,10 +9166,10 @@
         <v>117.6798379423461</v>
       </c>
       <c r="K17" t="n">
-        <v>505.666843611017</v>
+        <v>143.0584031792374</v>
       </c>
       <c r="L17" t="n">
-        <v>651.5514946987026</v>
+        <v>614.1534811140714</v>
       </c>
       <c r="M17" t="n">
         <v>701.2411122488187</v>
@@ -9176,10 +9178,10 @@
         <v>682.2612020826953</v>
       </c>
       <c r="O17" t="n">
-        <v>545.7463662600596</v>
+        <v>594.0482827698827</v>
       </c>
       <c r="P17" t="n">
-        <v>150.3014472409252</v>
+        <v>502.0059847475129</v>
       </c>
       <c r="Q17" t="n">
         <v>144.4986984183922</v>
@@ -9246,13 +9248,13 @@
         <v>89.59693533333335</v>
       </c>
       <c r="L18" t="n">
-        <v>578.5109386733963</v>
+        <v>90.06034685691823</v>
       </c>
       <c r="M18" t="n">
-        <v>422.8212561536983</v>
+        <v>683.7992483186069</v>
       </c>
       <c r="N18" t="n">
-        <v>676.7842391234617</v>
+        <v>667.5244230630196</v>
       </c>
       <c r="O18" t="n">
         <v>614.4252180716981</v>
@@ -9261,7 +9263,7 @@
         <v>496.801919078302</v>
       </c>
       <c r="Q18" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R18" t="n">
         <v>71.01380490566048</v>
@@ -9398,7 +9400,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>117.6798379423461</v>
+        <v>263.7907196684351</v>
       </c>
       <c r="K20" t="n">
         <v>505.666843611017</v>
@@ -9407,10 +9409,10 @@
         <v>651.5514946987026</v>
       </c>
       <c r="M20" t="n">
-        <v>652.9391957389953</v>
+        <v>701.2411122488187</v>
       </c>
       <c r="N20" t="n">
-        <v>682.2612020826953</v>
+        <v>487.848403846783</v>
       </c>
       <c r="O20" t="n">
         <v>594.0482827698827</v>
@@ -9480,7 +9482,7 @@
         <v>82.44445733333335</v>
       </c>
       <c r="K21" t="n">
-        <v>412.5657697396227</v>
+        <v>89.59693533333335</v>
       </c>
       <c r="L21" t="n">
         <v>578.5109386733963</v>
@@ -9489,13 +9491,13 @@
         <v>683.7992483186069</v>
       </c>
       <c r="N21" t="n">
-        <v>614.5750717350721</v>
+        <v>676.7842391234617</v>
       </c>
       <c r="O21" t="n">
-        <v>92.68755888888889</v>
+        <v>614.4252180716981</v>
       </c>
       <c r="P21" t="n">
-        <v>496.801919078302</v>
+        <v>235.8239269133934</v>
       </c>
       <c r="Q21" t="n">
         <v>90.98815315591399</v>
@@ -9638,7 +9640,7 @@
         <v>117.6798379423461</v>
       </c>
       <c r="K23" t="n">
-        <v>505.666843611017</v>
+        <v>457.3649271011935</v>
       </c>
       <c r="L23" t="n">
         <v>651.5514946987026</v>
@@ -9650,7 +9652,7 @@
         <v>682.2612020826953</v>
       </c>
       <c r="O23" t="n">
-        <v>545.7463662600596</v>
+        <v>594.0482827698827</v>
       </c>
       <c r="P23" t="n">
         <v>150.3014472409252</v>
@@ -9717,22 +9719,22 @@
         <v>82.44445733333335</v>
       </c>
       <c r="K24" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L24" t="n">
-        <v>317.5329465084867</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M24" t="n">
         <v>683.7992483186069</v>
       </c>
       <c r="N24" t="n">
-        <v>676.7842391234617</v>
+        <v>502.5559668112513</v>
       </c>
       <c r="O24" t="n">
         <v>614.4252180716981</v>
       </c>
       <c r="P24" t="n">
-        <v>496.801919078302</v>
+        <v>87.08336481931465</v>
       </c>
       <c r="Q24" t="n">
         <v>90.98815315591399</v>
@@ -9872,10 +9874,10 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>263.7907196684351</v>
+        <v>117.6798379423461</v>
       </c>
       <c r="K26" t="n">
-        <v>143.0584031792374</v>
+        <v>505.666843611017</v>
       </c>
       <c r="L26" t="n">
         <v>651.5514946987026</v>
@@ -9887,13 +9889,13 @@
         <v>682.2612020826953</v>
       </c>
       <c r="O26" t="n">
-        <v>223.8267004481029</v>
+        <v>545.7463662600596</v>
       </c>
       <c r="P26" t="n">
-        <v>502.0059847475129</v>
+        <v>150.3014472409252</v>
       </c>
       <c r="Q26" t="n">
-        <v>331.2113854294513</v>
+        <v>144.4986984183922</v>
       </c>
       <c r="R26" t="n">
         <v>102.5176150018526</v>
@@ -9957,13 +9959,13 @@
         <v>412.5657697396227</v>
       </c>
       <c r="L27" t="n">
-        <v>578.5109386733963</v>
+        <v>90.06034685691823</v>
       </c>
       <c r="M27" t="n">
-        <v>92.38712204931191</v>
+        <v>588.303013563887</v>
       </c>
       <c r="N27" t="n">
-        <v>447.5171231095482</v>
+        <v>676.7842391234617</v>
       </c>
       <c r="O27" t="n">
         <v>614.4252180716981</v>
@@ -9972,7 +9974,7 @@
         <v>496.801919078302</v>
       </c>
       <c r="Q27" t="n">
-        <v>327.7205688679246</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R27" t="n">
         <v>71.01380490566048</v>
@@ -10197,19 +10199,19 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M30" t="n">
-        <v>454.5321323046934</v>
+        <v>683.7992483186069</v>
       </c>
       <c r="N30" t="n">
-        <v>85.37211285416666</v>
+        <v>502.5559668112513</v>
       </c>
       <c r="O30" t="n">
         <v>614.4252180716981</v>
       </c>
       <c r="P30" t="n">
-        <v>496.801919078302</v>
+        <v>87.08336481931465</v>
       </c>
       <c r="Q30" t="n">
-        <v>327.7205688679246</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R30" t="n">
         <v>71.01380490566048</v>
@@ -10434,19 +10436,19 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M33" t="n">
-        <v>454.5321323046934</v>
+        <v>509.5709760063966</v>
       </c>
       <c r="N33" t="n">
-        <v>85.37211285416666</v>
+        <v>676.7842391234617</v>
       </c>
       <c r="O33" t="n">
         <v>614.4252180716981</v>
       </c>
       <c r="P33" t="n">
-        <v>496.801919078302</v>
+        <v>87.08336481931465</v>
       </c>
       <c r="Q33" t="n">
-        <v>327.7205688679246</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R33" t="n">
         <v>71.01380490566048</v>
@@ -10586,7 +10588,7 @@
         <v>117.6798379423461</v>
       </c>
       <c r="K35" t="n">
-        <v>505.666843611017</v>
+        <v>457.3649271011935</v>
       </c>
       <c r="L35" t="n">
         <v>651.5514946987026</v>
@@ -10598,7 +10600,7 @@
         <v>682.2612020826953</v>
       </c>
       <c r="O35" t="n">
-        <v>545.7463662600596</v>
+        <v>594.0482827698827</v>
       </c>
       <c r="P35" t="n">
         <v>150.3014472409252</v>
@@ -10662,13 +10664,13 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J36" t="n">
-        <v>196.7020151310378</v>
+        <v>82.44445733333335</v>
       </c>
       <c r="K36" t="n">
         <v>89.59693533333335</v>
       </c>
       <c r="L36" t="n">
-        <v>90.06034685691823</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M36" t="n">
         <v>683.7992483186069</v>
@@ -10677,13 +10679,13 @@
         <v>676.7842391234617</v>
       </c>
       <c r="O36" t="n">
-        <v>490.9078442135515</v>
+        <v>614.4252180716981</v>
       </c>
       <c r="P36" t="n">
-        <v>496.801919078302</v>
+        <v>235.8239269133925</v>
       </c>
       <c r="Q36" t="n">
-        <v>327.7205688679246</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R36" t="n">
         <v>71.01380490566048</v>
@@ -10820,7 +10822,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>117.6798379423461</v>
+        <v>263.7907196684351</v>
       </c>
       <c r="K38" t="n">
         <v>505.666843611017</v>
@@ -10829,13 +10831,13 @@
         <v>651.5514946987026</v>
       </c>
       <c r="M38" t="n">
-        <v>701.2411122488187</v>
+        <v>506.8283140129063</v>
       </c>
       <c r="N38" t="n">
         <v>682.2612020826953</v>
       </c>
       <c r="O38" t="n">
-        <v>545.7463662600596</v>
+        <v>594.0482827698827</v>
       </c>
       <c r="P38" t="n">
         <v>150.3014472409252</v>
@@ -10902,13 +10904,13 @@
         <v>82.44445733333335</v>
       </c>
       <c r="K39" t="n">
-        <v>412.5657697396227</v>
+        <v>89.59693533333335</v>
       </c>
       <c r="L39" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M39" t="n">
-        <v>509.5709760063966</v>
+        <v>683.7992483186069</v>
       </c>
       <c r="N39" t="n">
         <v>676.7842391234617</v>
@@ -10917,7 +10919,7 @@
         <v>614.4252180716981</v>
       </c>
       <c r="P39" t="n">
-        <v>87.08336481931465</v>
+        <v>235.8239269133925</v>
       </c>
       <c r="Q39" t="n">
         <v>90.98815315591399</v>
@@ -11060,7 +11062,7 @@
         <v>117.6798379423461</v>
       </c>
       <c r="K41" t="n">
-        <v>143.0584031792374</v>
+        <v>505.666843611017</v>
       </c>
       <c r="L41" t="n">
         <v>651.5514946987026</v>
@@ -11072,10 +11074,10 @@
         <v>682.2612020826953</v>
       </c>
       <c r="O41" t="n">
-        <v>594.0482827698827</v>
+        <v>545.7463662600596</v>
       </c>
       <c r="P41" t="n">
-        <v>464.6079711628815</v>
+        <v>150.3014472409252</v>
       </c>
       <c r="Q41" t="n">
         <v>144.4986984183922</v>
@@ -11145,7 +11147,7 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M42" t="n">
-        <v>422.8212561536984</v>
+        <v>683.7992483186069</v>
       </c>
       <c r="N42" t="n">
         <v>676.7842391234617</v>
@@ -11154,7 +11156,7 @@
         <v>614.4252180716981</v>
       </c>
       <c r="P42" t="n">
-        <v>496.801919078302</v>
+        <v>235.8239269133934</v>
       </c>
       <c r="Q42" t="n">
         <v>90.98815315591399</v>
@@ -11294,19 +11296,19 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>263.7907196684351</v>
+        <v>117.6798379423461</v>
       </c>
       <c r="K44" t="n">
         <v>505.666843611017</v>
       </c>
       <c r="L44" t="n">
-        <v>651.5514946987026</v>
+        <v>153.2481697304917</v>
       </c>
       <c r="M44" t="n">
-        <v>149.7250515977273</v>
+        <v>612.8252961895594</v>
       </c>
       <c r="N44" t="n">
-        <v>500.9472399802273</v>
+        <v>682.2612020826953</v>
       </c>
       <c r="O44" t="n">
         <v>594.0482827698827</v>
@@ -11373,7 +11375,7 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J45" t="n">
-        <v>196.7020151310378</v>
+        <v>82.44445733333335</v>
       </c>
       <c r="K45" t="n">
         <v>412.5657697396227</v>
@@ -11382,7 +11384,7 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M45" t="n">
-        <v>683.7992483186069</v>
+        <v>454.5321323046925</v>
       </c>
       <c r="N45" t="n">
         <v>85.37211285416666</v>
@@ -11391,7 +11393,7 @@
         <v>614.4252180716981</v>
       </c>
       <c r="P45" t="n">
-        <v>153.277245266684</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q45" t="n">
         <v>327.7205688679246</v>
@@ -22556,16 +22558,16 @@
         <v>398.5576896346209</v>
       </c>
       <c r="F2" t="n">
-        <v>412.725494085322</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>409.0311279568768</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>320.8422199291742</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>136.9537457384598</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -22592,7 +22594,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>2.782435773988318</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -22607,13 +22609,13 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>230.343651002023</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="3">
@@ -22702,25 +22704,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D4" t="n">
-        <v>154.0767819665104</v>
+        <v>53.73337658004151</v>
       </c>
       <c r="E4" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>166.5715133615489</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>153.923765528121</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -22750,10 +22752,10 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>200.7879229792761</v>
       </c>
       <c r="T4" t="n">
         <v>233.3618613134482</v>
@@ -22771,7 +22773,7 @@
         <v>231.7395189948467</v>
       </c>
       <c r="Y4" t="n">
-        <v>165.5952645489218</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="5">
@@ -22793,10 +22795,10 @@
         <v>398.5576896346209</v>
       </c>
       <c r="F5" t="n">
-        <v>86.45050663680416</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>409.0311279568768</v>
       </c>
       <c r="H5" t="n">
         <v>320.8422199291742</v>
@@ -22844,10 +22846,10 @@
         <v>338.6857412035168</v>
       </c>
       <c r="W5" t="n">
-        <v>367.2890446813954</v>
+        <v>17.54100829227411</v>
       </c>
       <c r="X5" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -22939,25 +22941,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>53.73337658004151</v>
       </c>
       <c r="E7" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>166.5715133615489</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>150.1459095905284</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -23008,7 +23010,7 @@
         <v>231.7395189948467</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="8">
@@ -23018,19 +23020,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C8" t="n">
-        <v>69.0093453422171</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G8" t="n">
         <v>409.0311279568768</v>
@@ -23072,22 +23074,22 @@
         <v>164.8484195083599</v>
       </c>
       <c r="T8" t="n">
-        <v>221.2655964161775</v>
+        <v>52.61103243193392</v>
       </c>
       <c r="U8" t="n">
-        <v>253.1952022697474</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>392.5258019886049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -23182,22 +23184,22 @@
         <v>168.5030667546707</v>
       </c>
       <c r="D10" t="n">
-        <v>154.0767819665104</v>
+        <v>53.73337658004151</v>
       </c>
       <c r="E10" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>166.5715133615489</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>153.923765528121</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>108.8015838723062</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -23224,16 +23226,16 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>200.7879229792761</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>233.3618613134482</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>282.5844038405181</v>
       </c>
       <c r="V10" t="n">
         <v>263.319551727384</v>
@@ -23255,28 +23257,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>396.4897982542829</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>16.83481595771138</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>131.5209782191162</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>136.9537457384598</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23324,7 +23326,7 @@
         <v>385.5580790162737</v>
       </c>
       <c r="Y11" t="n">
-        <v>392.5258019886049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -23467,7 +23469,7 @@
         <v>200.7879229792761</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>167.3303626133475</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23476,7 +23478,7 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>167.3303626133475</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>231.7395189948467</v>
@@ -23492,10 +23494,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>396.4897982542829</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>389.2437464820987</v>
+        <v>135.492339739891</v>
       </c>
       <c r="D14" t="n">
         <v>381.5867174954989</v>
@@ -23504,16 +23506,16 @@
         <v>398.5576896346209</v>
       </c>
       <c r="F14" t="n">
-        <v>76.09278003515732</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G14" t="n">
-        <v>409.0311279568768</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>320.8422199291742</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>136.9537457384598</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23546,16 +23548,16 @@
         <v>164.8484195083599</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>253.1952022697474</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
@@ -23659,22 +23661,22 @@
         <v>154.0767819665104</v>
       </c>
       <c r="E16" t="n">
-        <v>22.31857408727987</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>166.5715133615489</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>153.923765528121</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>131.7634811092929</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -23698,7 +23700,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S16" t="n">
         <v>200.7879229792761</v>
@@ -23707,16 +23709,16 @@
         <v>233.3618613134482</v>
       </c>
       <c r="U16" t="n">
-        <v>282.5844038405181</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>231.7395189948467</v>
+        <v>165.7080202947459</v>
       </c>
       <c r="Y16" t="n">
         <v>220.8809405715231</v>
@@ -23729,10 +23731,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>92.48239428282</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>16.83481595771138</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
@@ -23747,7 +23749,7 @@
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>320.8422199291742</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>136.9537457384598</v>
@@ -23887,7 +23889,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>183.3559385043883</v>
+        <v>57.70828232767641</v>
       </c>
       <c r="C19" t="n">
         <v>168.5030667546707</v>
@@ -23941,7 +23943,7 @@
         <v>200.7879229792761</v>
       </c>
       <c r="T19" t="n">
-        <v>118.57278356006</v>
+        <v>233.3618613134482</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -23953,10 +23955,10 @@
         <v>280.4970980481341</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y19" t="n">
-        <v>220.8809405715231</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -23969,19 +23971,19 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>389.2437464820987</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>220.1782052834396</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>412.725494085322</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>409.0311279568768</v>
+        <v>92.48239428282028</v>
       </c>
       <c r="H20" t="n">
         <v>320.8422199291742</v>
@@ -24023,19 +24025,19 @@
         <v>221.2655964161775</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>253.1952022697474</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="21">
@@ -24127,7 +24129,7 @@
         <v>183.3559385043883</v>
       </c>
       <c r="C22" t="n">
-        <v>168.5030667546707</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>154.0767819665104</v>
@@ -24142,7 +24144,7 @@
         <v>166.5715133615489</v>
       </c>
       <c r="H22" t="n">
-        <v>153.923765528121</v>
+        <v>64.89287648338441</v>
       </c>
       <c r="I22" t="n">
         <v>131.7634811092929</v>
@@ -24172,25 +24174,25 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>122.6619794737488</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>200.7879229792761</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>233.3618613134482</v>
       </c>
       <c r="U22" t="n">
         <v>282.5844038405181</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>116.4854777676756</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>220.8809405715231</v>
@@ -24203,19 +24205,19 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>92.48239428282</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
         <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>412.725494085322</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
         <v>0</v>
@@ -24263,7 +24265,7 @@
         <v>253.1952022697474</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W23" t="n">
         <v>367.2890446813954</v>
@@ -24272,7 +24274,7 @@
         <v>385.5580790162737</v>
       </c>
       <c r="Y23" t="n">
-        <v>29.38172589412085</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="24">
@@ -24361,13 +24363,13 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C25" t="n">
-        <v>168.5030667546707</v>
+        <v>60.39847475326023</v>
       </c>
       <c r="D25" t="n">
-        <v>105.3258339751368</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -24385,7 +24387,7 @@
         <v>131.7634811092929</v>
       </c>
       <c r="J25" t="n">
-        <v>0</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
@@ -24443,10 +24445,10 @@
         <v>396.4897982542829</v>
       </c>
       <c r="C26" t="n">
-        <v>389.2437464820987</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
         <v>0</v>
@@ -24458,7 +24460,7 @@
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>205.1743401347732</v>
+        <v>320.8422199291742</v>
       </c>
       <c r="I26" t="n">
         <v>136.9537457384598</v>
@@ -24497,13 +24499,13 @@
         <v>221.2655964161775</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>253.1952022697474</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>34.67833723205388</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X26" t="n">
         <v>385.5580790162737</v>
@@ -24598,7 +24600,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C28" t="n">
         <v>168.5030667546707</v>
@@ -24613,7 +24615,7 @@
         <v>155.7526754391568</v>
       </c>
       <c r="G28" t="n">
-        <v>166.5715133615489</v>
+        <v>100.5400146614481</v>
       </c>
       <c r="H28" t="n">
         <v>153.923765528121</v>
@@ -24658,13 +24660,13 @@
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>85.74440707174983</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y28" t="n">
         <v>220.8809405715231</v>
@@ -24680,13 +24682,13 @@
         <v>396.4897982542829</v>
       </c>
       <c r="C29" t="n">
-        <v>52.61103243193401</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D29" t="n">
         <v>381.5867174954989</v>
       </c>
       <c r="E29" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
         <v>412.725494085322</v>
@@ -24695,7 +24697,7 @@
         <v>409.0311279568768</v>
       </c>
       <c r="H29" t="n">
-        <v>320.8422199291742</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
         <v>136.9537457384598</v>
@@ -24731,10 +24733,10 @@
         <v>164.8484195083599</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>161.5015990974531</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -24847,7 +24849,7 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>144.1400749395018</v>
       </c>
       <c r="G31" t="n">
         <v>166.5715133615489</v>
@@ -24904,7 +24906,7 @@
         <v>231.7395189948467</v>
       </c>
       <c r="Y31" t="n">
-        <v>144.1400749395015</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -24917,19 +24919,19 @@
         <v>396.4897982542829</v>
       </c>
       <c r="C32" t="n">
-        <v>52.61103243193401</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>412.725494085322</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>409.0311279568768</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
         <v>320.8422199291742</v>
@@ -24968,22 +24970,22 @@
         <v>164.8484195083599</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>253.1952022697474</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y32" t="n">
-        <v>0</v>
+        <v>88.51839801714198</v>
       </c>
     </row>
     <row r="33">
@@ -25078,19 +25080,19 @@
         <v>168.5030667546707</v>
       </c>
       <c r="D34" t="n">
-        <v>53.73337658004151</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>166.5715133615489</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>153.923765528121</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -25120,19 +25122,19 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>122.6619794737488</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>200.7879229792761</v>
+        <v>138.7592742862419</v>
       </c>
       <c r="T34" t="n">
         <v>233.3618613134482</v>
       </c>
       <c r="U34" t="n">
-        <v>282.5844038405181</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
         <v>280.4970980481341</v>
@@ -25151,25 +25153,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C35" t="n">
         <v>389.2437464820987</v>
       </c>
       <c r="D35" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
         <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>412.725494085322</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>409.0311279568768</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>320.8422199291742</v>
+        <v>219.4720129488767</v>
       </c>
       <c r="I35" t="n">
         <v>136.9537457384598</v>
@@ -25208,19 +25210,19 @@
         <v>221.2655964161775</v>
       </c>
       <c r="U35" t="n">
-        <v>237.1491774225614</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="36">
@@ -25366,10 +25368,10 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>210.2831670182379</v>
       </c>
       <c r="V37" t="n">
-        <v>210.2831670182382</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>280.4970980481341</v>
@@ -25388,13 +25390,13 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>396.4897982542829</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>389.2437464820987</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>13.14914849188654</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
         <v>0</v>
@@ -25403,10 +25405,10 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>92.48239428282028</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>320.8422199291742</v>
       </c>
       <c r="I38" t="n">
         <v>136.9537457384598</v>
@@ -25454,7 +25456,7 @@
         <v>367.2890446813954</v>
       </c>
       <c r="X38" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y38" t="n">
         <v>392.5258019886049</v>
@@ -25549,7 +25551,7 @@
         <v>183.3559385043883</v>
       </c>
       <c r="C40" t="n">
-        <v>168.5030667546707</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
         <v>154.0767819665104</v>
@@ -25558,7 +25560,7 @@
         <v>154.0032240193895</v>
       </c>
       <c r="F40" t="n">
-        <v>155.7526754391568</v>
+        <v>145.8959563436591</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
@@ -25570,7 +25572,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>30.07448747215907</v>
+        <v>0</v>
       </c>
       <c r="K40" t="n">
         <v>0</v>
@@ -25594,13 +25596,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>200.7879229792761</v>
       </c>
       <c r="T40" t="n">
-        <v>116.6379714492985</v>
+        <v>233.3618613134482</v>
       </c>
       <c r="U40" t="n">
         <v>282.5844038405181</v>
@@ -25612,7 +25614,7 @@
         <v>280.4970980481341</v>
       </c>
       <c r="X40" t="n">
-        <v>231.7395189948467</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
         <v>220.8809405715231</v>
@@ -25628,13 +25630,13 @@
         <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>103.4214787759261</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F41" t="n">
         <v>0</v>
@@ -25694,7 +25696,7 @@
         <v>385.5580790162737</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>86.45050663680422</v>
       </c>
     </row>
     <row r="42">
@@ -25789,10 +25791,10 @@
         <v>168.5030667546707</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E43" t="n">
-        <v>2.41690785017181</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F43" t="n">
         <v>155.7526754391568</v>
@@ -25831,25 +25833,25 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>200.7879229792761</v>
       </c>
       <c r="T43" t="n">
         <v>233.3618613134482</v>
       </c>
       <c r="U43" t="n">
-        <v>282.5844038405181</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>165.708020294746</v>
       </c>
       <c r="W43" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>231.7395189948467</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>220.8809405715231</v>
@@ -25865,7 +25867,7 @@
         <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D44" t="n">
         <v>381.5867174954989</v>
@@ -25874,10 +25876,10 @@
         <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>412.725494085322</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>409.0311279568768</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
         <v>320.8422199291742</v>
@@ -25910,28 +25912,28 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>37.61298457733328</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
         <v>164.8484195083599</v>
       </c>
       <c r="T44" t="n">
-        <v>94.8113966231688</v>
+        <v>219.2837925847546</v>
       </c>
       <c r="U44" t="n">
         <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W44" t="n">
         <v>367.2890446813954</v>
       </c>
       <c r="X44" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="45">
@@ -26020,10 +26022,10 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D46" t="n">
         <v>154.0767819665104</v>
@@ -26077,19 +26079,19 @@
         <v>233.3618613134482</v>
       </c>
       <c r="U46" t="n">
-        <v>282.5844038405181</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>192.5440105574258</v>
+        <v>165.7080202947459</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
   </sheetData>
@@ -26123,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>666437.4409807234</v>
+        <v>666437.4409807237</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>666437.4409807232</v>
+        <v>666437.4409807237</v>
       </c>
     </row>
     <row r="4">
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>666437.4409807239</v>
+        <v>666437.4409807238</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>666437.4409807237</v>
+        <v>666437.4409807239</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>666437.4409807239</v>
+        <v>666437.4409807238</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>666437.4409807241</v>
+        <v>666437.4409807237</v>
       </c>
     </row>
     <row r="9">
@@ -26195,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>666437.4409807237</v>
+        <v>666437.4409807236</v>
       </c>
     </row>
     <row r="12">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>666437.4409807234</v>
+        <v>666437.4409807238</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>666437.4409807236</v>
+        <v>666437.4409807239</v>
       </c>
     </row>
   </sheetData>
@@ -26320,7 +26322,7 @@
         <v>135515.4785656234</v>
       </c>
       <c r="E2" t="n">
-        <v>135515.4785656234</v>
+        <v>135515.4785656233</v>
       </c>
       <c r="F2" t="n">
         <v>135515.4785656234</v>
@@ -26353,7 +26355,7 @@
         <v>135515.4785656234</v>
       </c>
       <c r="P2" t="n">
-        <v>135515.4785656234</v>
+        <v>135515.4785656233</v>
       </c>
     </row>
     <row r="3">
@@ -26430,7 +26432,7 @@
         <v>11907.28194961663</v>
       </c>
       <c r="G4" t="n">
-        <v>11907.28194961663</v>
+        <v>11907.28194961662</v>
       </c>
       <c r="H4" t="n">
         <v>11907.28194961663</v>
@@ -26448,7 +26450,7 @@
         <v>11907.28194961663</v>
       </c>
       <c r="M4" t="n">
-        <v>11907.28194961663</v>
+        <v>11907.28194961662</v>
       </c>
       <c r="N4" t="n">
         <v>11907.28194961663</v>
@@ -26522,25 +26524,25 @@
         <v>-144173.0666529113</v>
       </c>
       <c r="C6" t="n">
-        <v>54022.73933883361</v>
+        <v>54022.73933883363</v>
       </c>
       <c r="D6" t="n">
-        <v>54022.73933883363</v>
+        <v>54022.73933883362</v>
       </c>
       <c r="E6" t="n">
+        <v>87650.33933883358</v>
+      </c>
+      <c r="F6" t="n">
         <v>87650.33933883364</v>
       </c>
-      <c r="F6" t="n">
-        <v>87650.33933883367</v>
-      </c>
       <c r="G6" t="n">
-        <v>87650.3393388336</v>
+        <v>87650.33933883364</v>
       </c>
       <c r="H6" t="n">
         <v>87650.33933883364</v>
       </c>
       <c r="I6" t="n">
-        <v>87650.33933883361</v>
+        <v>87650.33933883364</v>
       </c>
       <c r="J6" t="n">
         <v>-67089.09502676982</v>
@@ -26549,19 +26551,19 @@
         <v>87650.33933883364</v>
       </c>
       <c r="L6" t="n">
-        <v>87650.33933883363</v>
+        <v>87650.33933883361</v>
       </c>
       <c r="M6" t="n">
-        <v>87650.33933883367</v>
+        <v>87650.33933883364</v>
       </c>
       <c r="N6" t="n">
-        <v>87650.33933883364</v>
+        <v>87650.33933883361</v>
       </c>
       <c r="O6" t="n">
         <v>87650.33933883364</v>
       </c>
       <c r="P6" t="n">
-        <v>87650.33933883364</v>
+        <v>87650.33933883358</v>
       </c>
     </row>
   </sheetData>
@@ -34696,28 +34698,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>146.110881726089</v>
       </c>
       <c r="K2" t="n">
         <v>362.6084404317796</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>498.303324968211</v>
       </c>
       <c r="M2" t="n">
-        <v>463.1002445918322</v>
+        <v>551.5160606510915</v>
       </c>
       <c r="N2" t="n">
         <v>533.1427107449111</v>
       </c>
       <c r="O2" t="n">
-        <v>444.4844453457863</v>
+        <v>250.071647109874</v>
       </c>
       <c r="P2" t="n">
-        <v>351.7045375065877</v>
+        <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>186.7126870110591</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34775,19 +34777,19 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>114.2575577977044</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>322.9688344062893</v>
       </c>
       <c r="L3" t="n">
-        <v>488.450591816478</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>247.8874524576771</v>
+        <v>259.1834758025645</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>591.4121262692951</v>
       </c>
       <c r="O3" t="n">
         <v>521.7376591828091</v>
@@ -34936,7 +34938,7 @@
         <v>146.110881726089</v>
       </c>
       <c r="K5" t="n">
-        <v>362.6084404317796</v>
+        <v>0</v>
       </c>
       <c r="L5" t="n">
         <v>498.303324968211</v>
@@ -34948,13 +34950,13 @@
         <v>533.1427107449111</v>
       </c>
       <c r="O5" t="n">
-        <v>63.35896009881473</v>
+        <v>444.4844453457863</v>
       </c>
       <c r="P5" t="n">
-        <v>0</v>
+        <v>168.1956421958672</v>
       </c>
       <c r="Q5" t="n">
-        <v>186.7126870110591</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35015,7 +35017,7 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>148.7405620940789</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
         <v>488.450591816478</v>
@@ -35030,7 +35032,7 @@
         <v>521.7376591828091</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>148.7405620940788</v>
       </c>
       <c r="Q6" t="n">
         <v>0</v>
@@ -35173,10 +35175,10 @@
         <v>146.110881726089</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>362.6084404317796</v>
       </c>
       <c r="L8" t="n">
-        <v>498.303324968211</v>
+        <v>0</v>
       </c>
       <c r="M8" t="n">
         <v>551.5160606510915</v>
@@ -35185,10 +35187,10 @@
         <v>533.1427107449111</v>
       </c>
       <c r="O8" t="n">
-        <v>444.4844453457863</v>
+        <v>396.6704345714974</v>
       </c>
       <c r="P8" t="n">
-        <v>168.1956421958672</v>
+        <v>351.7045375065877</v>
       </c>
       <c r="Q8" t="n">
         <v>0</v>
@@ -35252,10 +35254,10 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>322.9688344062893</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>488.450591816478</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
         <v>591.4121262692951</v>
@@ -35264,13 +35266,13 @@
         <v>591.4121262692951</v>
       </c>
       <c r="O9" t="n">
-        <v>347.5093868705986</v>
+        <v>521.7376591828091</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>409.7185542589873</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>227.4725996515698</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35410,10 +35412,10 @@
         <v>146.110881726089</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>362.6084404317796</v>
       </c>
       <c r="L11" t="n">
-        <v>128.0817426464313</v>
+        <v>498.303324968211</v>
       </c>
       <c r="M11" t="n">
         <v>551.5160606510915</v>
@@ -35422,13 +35424,13 @@
         <v>533.1427107449111</v>
       </c>
       <c r="O11" t="n">
-        <v>444.4844453457863</v>
+        <v>250.071647109874</v>
       </c>
       <c r="P11" t="n">
-        <v>351.7045375065877</v>
+        <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>186.7126870110591</v>
+        <v>0</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -35486,7 +35488,7 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>114.2575577977044</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
         <v>322.9688344062893</v>
@@ -35495,16 +35497,16 @@
         <v>488.450591816478</v>
       </c>
       <c r="M12" t="n">
-        <v>587.9315396301786</v>
+        <v>591.4121262692951</v>
       </c>
       <c r="N12" t="n">
-        <v>591.4121262692951</v>
+        <v>292.4705431688957</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>409.7185542589873</v>
       </c>
       <c r="Q12" t="n">
         <v>236.7324157120106</v>
@@ -35647,13 +35649,13 @@
         <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>362.6084404317796</v>
       </c>
       <c r="L14" t="n">
-        <v>460.9053113835797</v>
+        <v>463.1002445918322</v>
       </c>
       <c r="M14" t="n">
-        <v>551.5160606510915</v>
+        <v>0</v>
       </c>
       <c r="N14" t="n">
         <v>533.1427107449111</v>
@@ -35665,7 +35667,7 @@
         <v>351.7045375065877</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>186.7126870110591</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -35729,7 +35731,7 @@
         <v>322.9688344062893</v>
       </c>
       <c r="L15" t="n">
-        <v>75.25145091837423</v>
+        <v>488.450591816478</v>
       </c>
       <c r="M15" t="n">
         <v>591.4121262692951</v>
@@ -35738,13 +35740,13 @@
         <v>591.4121262692951</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>233.2518290728942</v>
       </c>
       <c r="P15" t="n">
-        <v>409.7185542589873</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>236.7324157120106</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35884,10 +35886,10 @@
         <v>0</v>
       </c>
       <c r="K17" t="n">
-        <v>362.6084404317796</v>
+        <v>0</v>
       </c>
       <c r="L17" t="n">
-        <v>498.303324968211</v>
+        <v>460.9053113835797</v>
       </c>
       <c r="M17" t="n">
         <v>551.5160606510915</v>
@@ -35896,10 +35898,10 @@
         <v>533.1427107449111</v>
       </c>
       <c r="O17" t="n">
-        <v>396.1825288359632</v>
+        <v>444.4844453457863</v>
       </c>
       <c r="P17" t="n">
-        <v>0</v>
+        <v>351.7045375065877</v>
       </c>
       <c r="Q17" t="n">
         <v>0</v>
@@ -35966,13 +35968,13 @@
         <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>488.450591816478</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>330.4341341043864</v>
+        <v>591.4121262692951</v>
       </c>
       <c r="N18" t="n">
-        <v>591.4121262692951</v>
+        <v>582.152310208853</v>
       </c>
       <c r="O18" t="n">
         <v>521.7376591828091</v>
@@ -35981,7 +35983,7 @@
         <v>409.7185542589873</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36118,7 +36120,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>146.110881726089</v>
       </c>
       <c r="K20" t="n">
         <v>362.6084404317796</v>
@@ -36127,10 +36129,10 @@
         <v>498.303324968211</v>
       </c>
       <c r="M20" t="n">
-        <v>503.2141441412681</v>
+        <v>551.5160606510915</v>
       </c>
       <c r="N20" t="n">
-        <v>533.1427107449111</v>
+        <v>338.7299125089989</v>
       </c>
       <c r="O20" t="n">
         <v>444.4844453457863</v>
@@ -36200,7 +36202,7 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>322.9688344062893</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
         <v>488.450591816478</v>
@@ -36209,13 +36211,13 @@
         <v>591.4121262692951</v>
       </c>
       <c r="N21" t="n">
-        <v>529.2029588809055</v>
+        <v>591.4121262692951</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>521.7376591828091</v>
       </c>
       <c r="P21" t="n">
-        <v>409.7185542589873</v>
+        <v>148.7405620940788</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
@@ -36358,7 +36360,7 @@
         <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>362.6084404317796</v>
+        <v>314.3065239219562</v>
       </c>
       <c r="L23" t="n">
         <v>498.303324968211</v>
@@ -36370,7 +36372,7 @@
         <v>533.1427107449111</v>
       </c>
       <c r="O23" t="n">
-        <v>396.1825288359632</v>
+        <v>444.4844453457863</v>
       </c>
       <c r="P23" t="n">
         <v>0</v>
@@ -36437,22 +36439,22 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L24" t="n">
-        <v>227.4725996515685</v>
+        <v>488.450591816478</v>
       </c>
       <c r="M24" t="n">
         <v>591.4121262692951</v>
       </c>
       <c r="N24" t="n">
-        <v>591.4121262692951</v>
+        <v>417.1838539570846</v>
       </c>
       <c r="O24" t="n">
         <v>521.7376591828091</v>
       </c>
       <c r="P24" t="n">
-        <v>409.7185542589873</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
@@ -36592,10 +36594,10 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>146.110881726089</v>
+        <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>0</v>
+        <v>362.6084404317796</v>
       </c>
       <c r="L26" t="n">
         <v>498.303324968211</v>
@@ -36607,13 +36609,13 @@
         <v>533.1427107449111</v>
       </c>
       <c r="O26" t="n">
-        <v>74.26286302400655</v>
+        <v>396.1825288359632</v>
       </c>
       <c r="P26" t="n">
-        <v>351.7045375065877</v>
+        <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>186.7126870110591</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
         <v>0</v>
@@ -36677,13 +36679,13 @@
         <v>322.9688344062893</v>
       </c>
       <c r="L27" t="n">
-        <v>488.450591816478</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>495.9158915145751</v>
       </c>
       <c r="N27" t="n">
-        <v>362.1450102553815</v>
+        <v>591.4121262692951</v>
       </c>
       <c r="O27" t="n">
         <v>521.7376591828091</v>
@@ -36692,7 +36694,7 @@
         <v>409.7185542589873</v>
       </c>
       <c r="Q27" t="n">
-        <v>236.7324157120106</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36917,19 +36919,19 @@
         <v>488.450591816478</v>
       </c>
       <c r="M30" t="n">
-        <v>362.1450102553815</v>
+        <v>591.4121262692951</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>417.1838539570846</v>
       </c>
       <c r="O30" t="n">
         <v>521.7376591828091</v>
       </c>
       <c r="P30" t="n">
-        <v>409.7185542589873</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>236.7324157120106</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37154,19 +37156,19 @@
         <v>488.450591816478</v>
       </c>
       <c r="M33" t="n">
-        <v>362.1450102553815</v>
+        <v>417.1838539570846</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>591.4121262692951</v>
       </c>
       <c r="O33" t="n">
         <v>521.7376591828091</v>
       </c>
       <c r="P33" t="n">
-        <v>409.7185542589873</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>236.7324157120106</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37306,7 +37308,7 @@
         <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>362.6084404317796</v>
+        <v>314.3065239219562</v>
       </c>
       <c r="L35" t="n">
         <v>498.303324968211</v>
@@ -37318,7 +37320,7 @@
         <v>533.1427107449111</v>
       </c>
       <c r="O35" t="n">
-        <v>396.1825288359632</v>
+        <v>444.4844453457863</v>
       </c>
       <c r="P35" t="n">
         <v>0</v>
@@ -37382,13 +37384,13 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>114.2575577977044</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>488.450591816478</v>
       </c>
       <c r="M36" t="n">
         <v>591.4121262692951</v>
@@ -37397,13 +37399,13 @@
         <v>591.4121262692951</v>
       </c>
       <c r="O36" t="n">
-        <v>398.2202853246626</v>
+        <v>521.7376591828091</v>
       </c>
       <c r="P36" t="n">
-        <v>409.7185542589873</v>
+        <v>148.7405620940779</v>
       </c>
       <c r="Q36" t="n">
-        <v>236.7324157120106</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37540,7 +37542,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>146.110881726089</v>
       </c>
       <c r="K38" t="n">
         <v>362.6084404317796</v>
@@ -37549,13 +37551,13 @@
         <v>498.303324968211</v>
       </c>
       <c r="M38" t="n">
-        <v>551.5160606510915</v>
+        <v>357.103262415179</v>
       </c>
       <c r="N38" t="n">
         <v>533.1427107449111</v>
       </c>
       <c r="O38" t="n">
-        <v>396.1825288359632</v>
+        <v>444.4844453457863</v>
       </c>
       <c r="P38" t="n">
         <v>0</v>
@@ -37622,13 +37624,13 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>322.9688344062893</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
         <v>488.450591816478</v>
       </c>
       <c r="M39" t="n">
-        <v>417.1838539570846</v>
+        <v>591.4121262692951</v>
       </c>
       <c r="N39" t="n">
         <v>591.4121262692951</v>
@@ -37637,7 +37639,7 @@
         <v>521.7376591828091</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>148.7405620940779</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
@@ -37780,7 +37782,7 @@
         <v>0</v>
       </c>
       <c r="K41" t="n">
-        <v>0</v>
+        <v>362.6084404317796</v>
       </c>
       <c r="L41" t="n">
         <v>498.303324968211</v>
@@ -37792,10 +37794,10 @@
         <v>533.1427107449111</v>
       </c>
       <c r="O41" t="n">
-        <v>444.4844453457863</v>
+        <v>396.1825288359632</v>
       </c>
       <c r="P41" t="n">
-        <v>314.3065239219563</v>
+        <v>0</v>
       </c>
       <c r="Q41" t="n">
         <v>0</v>
@@ -37865,7 +37867,7 @@
         <v>488.450591816478</v>
       </c>
       <c r="M42" t="n">
-        <v>330.4341341043865</v>
+        <v>591.4121262692951</v>
       </c>
       <c r="N42" t="n">
         <v>591.4121262692951</v>
@@ -37874,7 +37876,7 @@
         <v>521.7376591828091</v>
       </c>
       <c r="P42" t="n">
-        <v>409.7185542589873</v>
+        <v>148.7405620940788</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
@@ -38014,19 +38016,19 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>146.110881726089</v>
+        <v>0</v>
       </c>
       <c r="K44" t="n">
         <v>362.6084404317796</v>
       </c>
       <c r="L44" t="n">
-        <v>498.303324968211</v>
+        <v>0</v>
       </c>
       <c r="M44" t="n">
-        <v>0</v>
+        <v>463.1002445918322</v>
       </c>
       <c r="N44" t="n">
-        <v>351.8287486424433</v>
+        <v>533.1427107449111</v>
       </c>
       <c r="O44" t="n">
         <v>444.4844453457863</v>
@@ -38093,7 +38095,7 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>114.2575577977044</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
         <v>322.9688344062893</v>
@@ -38102,7 +38104,7 @@
         <v>488.450591816478</v>
       </c>
       <c r="M45" t="n">
-        <v>591.4121262692951</v>
+        <v>362.1450102553806</v>
       </c>
       <c r="N45" t="n">
         <v>0</v>
@@ -38111,7 +38113,7 @@
         <v>521.7376591828091</v>
       </c>
       <c r="P45" t="n">
-        <v>66.19388044736931</v>
+        <v>409.7185542589873</v>
       </c>
       <c r="Q45" t="n">
         <v>236.7324157120106</v>

--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/60/Output_1_12.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/60/Output_1_12.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>375153.7601792219</v>
+        <v>369445.604371336</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>3854815.050462386</v>
+        <v>3854815.050462388</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>10110391.89330058</v>
+        <v>10110391.89330059</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7706098.054851417</v>
+        <v>7706098.054851418</v>
       </c>
     </row>
     <row r="11">
@@ -658,25 +658,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>307.6077533827491</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>412.725494085322</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>409.0311279568768</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>320.8422199291742</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -715,19 +715,19 @@
         <v>221.2655964161775</v>
       </c>
       <c r="U2" t="n">
-        <v>253.1952022697474</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>136.9453936793724</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="3">
@@ -785,10 +785,10 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>23.67787267091717</v>
+        <v>23.6778726709161</v>
       </c>
       <c r="S3" t="n">
-        <v>133.5813703291298</v>
+        <v>133.5813703291307</v>
       </c>
       <c r="T3" t="n">
         <v>175.2139736830806</v>
@@ -822,25 +822,25 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>100.3434053864689</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>166.5715133615489</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>153.923765528121</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>131.7634811092929</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>30.07448747215907</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -867,13 +867,13 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>200.7879229792761</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>177.3207065014959</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>282.5844038405181</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -882,7 +882,7 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -898,19 +898,19 @@
         <v>396.4897982542829</v>
       </c>
       <c r="C5" t="n">
-        <v>389.2437464820987</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>381.5867174954989</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>1.192415124818523</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -946,22 +946,22 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W5" t="n">
-        <v>349.7480363891213</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>392.5258019886049</v>
@@ -992,10 +992,10 @@
         <v>118.8592197488542</v>
       </c>
       <c r="H6" t="n">
-        <v>87.4144422354058</v>
+        <v>87.41444223540508</v>
       </c>
       <c r="I6" t="n">
-        <v>48.89338144820752</v>
+        <v>48.89338144820825</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1059,25 +1059,25 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>100.3434053864689</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>166.5715133615489</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>153.923765528121</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>131.7634811092929</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>30.07448747215907</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1104,19 +1104,19 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>200.7879229792761</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>128.5631274482086</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>282.5844038405181</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -1135,25 +1135,25 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>389.2437464820987</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>409.0311279568768</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>68.23960507338029</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1183,25 +1183,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T8" t="n">
-        <v>168.6545639842436</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U8" t="n">
         <v>253.1952022697474</v>
       </c>
       <c r="V8" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>367.2890446813954</v>
       </c>
       <c r="X8" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>392.5258019886049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1232,7 +1232,7 @@
         <v>87.41444223540508</v>
       </c>
       <c r="I9" t="n">
-        <v>48.89338144820752</v>
+        <v>48.89338144820825</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1262,7 +1262,7 @@
         <v>23.6778726709161</v>
       </c>
       <c r="S9" t="n">
-        <v>133.5813703291307</v>
+        <v>133.5813703291298</v>
       </c>
       <c r="T9" t="n">
         <v>175.2139736830806</v>
@@ -1296,25 +1296,25 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>100.3434053864689</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>166.5715133615489</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>153.923765528121</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>131.7634811092929</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>30.07448747215907</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1338,22 +1338,22 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>233.3618613134482</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>282.5844038405181</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>253.8243076884219</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -1372,25 +1372,25 @@
         <v>396.4897982542829</v>
       </c>
       <c r="C11" t="n">
-        <v>389.2437464820987</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>277.5101497377607</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>320.8422199291742</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>136.9537457384598</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1417,28 +1417,28 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>253.1952022697474</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>282.0561225888061</v>
       </c>
       <c r="Y11" t="n">
-        <v>392.5258019886049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -1469,7 +1469,7 @@
         <v>87.41444223540508</v>
       </c>
       <c r="I12" t="n">
-        <v>48.89338144820752</v>
+        <v>48.89338144820825</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1511,7 +1511,7 @@
         <v>220.3146016126436</v>
       </c>
       <c r="W12" t="n">
-        <v>227.8160734080467</v>
+        <v>227.816073408046</v>
       </c>
       <c r="X12" t="n">
         <v>187.4140068734885</v>
@@ -1581,7 +1581,7 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>66.03149870010068</v>
+        <v>114.7890777533882</v>
       </c>
       <c r="U13" t="n">
         <v>282.5844038405181</v>
@@ -1590,10 +1590,10 @@
         <v>263.319551727384</v>
       </c>
       <c r="W13" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -1609,19 +1609,19 @@
         <v>396.4897982542829</v>
       </c>
       <c r="C14" t="n">
-        <v>253.7514067422077</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>409.0311279568768</v>
+        <v>317.5089689412881</v>
       </c>
       <c r="H14" t="n">
         <v>320.8422199291742</v>
@@ -1657,25 +1657,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>392.5258019886049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -1736,7 +1736,7 @@
         <v>23.6778726709161</v>
       </c>
       <c r="S15" t="n">
-        <v>133.5813703291307</v>
+        <v>133.5813703291298</v>
       </c>
       <c r="T15" t="n">
         <v>175.2139736830806</v>
@@ -1770,22 +1770,22 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>166.5715133615489</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>131.7634811092929</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1818,19 +1818,19 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>130.2648764202384</v>
       </c>
       <c r="U16" t="n">
-        <v>282.5844038405181</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>66.0314987001008</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -1846,7 +1846,7 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>372.4089305243873</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
         <v>381.5867174954989</v>
@@ -1861,7 +1861,7 @@
         <v>409.0311279568768</v>
       </c>
       <c r="H17" t="n">
-        <v>320.8422199291742</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1891,19 +1891,19 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U17" t="n">
         <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>269.5241499516907</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
@@ -2001,7 +2001,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>125.6476561767118</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -2052,16 +2052,16 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>200.7879229792761</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>233.3618613134482</v>
       </c>
       <c r="U19" t="n">
         <v>282.5844038405181</v>
       </c>
       <c r="V19" t="n">
-        <v>263.319551727384</v>
+        <v>175.6983641828944</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -2070,7 +2070,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>220.8809405715231</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2080,10 +2080,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>396.4897982542829</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>389.2437464820987</v>
+        <v>104.6965093559885</v>
       </c>
       <c r="D20" t="n">
         <v>381.5867174954989</v>
@@ -2095,7 +2095,7 @@
         <v>412.725494085322</v>
       </c>
       <c r="G20" t="n">
-        <v>316.5487336740566</v>
+        <v>409.0311279568768</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -2134,7 +2134,7 @@
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U20" t="n">
         <v>0</v>
@@ -2143,7 +2143,7 @@
         <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X20" t="n">
         <v>0</v>
@@ -2241,7 +2241,7 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>168.5030667546707</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -2256,10 +2256,10 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>89.03088904473654</v>
+        <v>153.923765528121</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>131.7634811092929</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,10 +2286,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>122.6619794737488</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>154.1248461123533</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -2301,13 +2301,13 @@
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>231.7395189948467</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="23">
@@ -2317,10 +2317,10 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>304.0074039714629</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>389.2437464820987</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
         <v>381.5867174954989</v>
@@ -2335,7 +2335,7 @@
         <v>409.0311279568768</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>53.94193225927677</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2368,13 +2368,13 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>253.1952022697474</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -2478,22 +2478,22 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>108.1045920014104</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>154.0767819665104</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>166.5715133615489</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>153.923765528121</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2523,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -2532,13 +2532,13 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>282.5844038405181</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>206.6890709537359</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -2554,25 +2554,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C26" t="n">
-        <v>389.2437464820987</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
         <v>381.5867174954989</v>
       </c>
       <c r="E26" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
         <v>412.725494085322</v>
       </c>
       <c r="G26" t="n">
-        <v>409.0311279568768</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>97.75190691509626</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2605,19 +2605,19 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>253.1952022697474</v>
       </c>
       <c r="V26" t="n">
-        <v>304.0074039714629</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X26" t="n">
         <v>0</v>
@@ -2727,7 +2727,7 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>66.0314987001008</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2763,7 +2763,7 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>200.7879229792761</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -2775,10 +2775,10 @@
         <v>263.319551727384</v>
       </c>
       <c r="W28" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>145.7406737689587</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -2791,25 +2791,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E29" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G29" t="n">
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>320.8422199291742</v>
+        <v>34.90216503055347</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2839,25 +2839,25 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U29" t="n">
-        <v>91.6936031722943</v>
+        <v>253.1952022697474</v>
       </c>
       <c r="V29" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
         <v>392.5258019886049</v>
@@ -2949,19 +2949,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>183.3559385043883</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>168.5030667546707</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>154.0767819665104</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>11.612600499655</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -3000,25 +3000,25 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>200.7879229792761</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>282.5844038405181</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>220.8809405715231</v>
+        <v>128.5631274482085</v>
       </c>
     </row>
     <row r="32">
@@ -3031,22 +3031,22 @@
         <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>389.2437464820987</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>412.725494085322</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>409.0311279568768</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>320.8422199291742</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3079,25 +3079,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>253.1952022697474</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y32" t="n">
-        <v>304.0074039714629</v>
+        <v>243.4678766012354</v>
       </c>
     </row>
     <row r="33">
@@ -3207,10 +3207,10 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>131.7634811092929</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>30.07448747215907</v>
+        <v>0</v>
       </c>
       <c r="K34" t="n">
         <v>0</v>
@@ -3234,10 +3234,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>122.6619794737488</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>62.02864869303423</v>
+        <v>200.7879229792761</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -3246,10 +3246,10 @@
         <v>282.5844038405181</v>
       </c>
       <c r="V34" t="n">
-        <v>263.319551727384</v>
+        <v>128.5631274482085</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -3268,25 +3268,25 @@
         <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D35" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>398.5576896346209</v>
+        <v>61.08638012146917</v>
       </c>
       <c r="F35" t="n">
-        <v>412.725494085322</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
         <v>409.0311279568768</v>
       </c>
       <c r="H35" t="n">
-        <v>101.3702069802975</v>
+        <v>320.8422199291742</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>136.9537457384598</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3316,10 +3316,10 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U35" t="n">
         <v>253.1952022697474</v>
@@ -3429,7 +3429,7 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
@@ -3441,7 +3441,7 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>153.923765528121</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3471,22 +3471,22 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>122.6619794737488</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>200.7879229792761</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>233.3618613134482</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>72.30123682228013</v>
+        <v>282.5844038405181</v>
       </c>
       <c r="V37" t="n">
         <v>263.319551727384</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>38.5280492536036</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -3502,28 +3502,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>396.4897982542829</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>389.2437464820987</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
         <v>412.725494085322</v>
       </c>
       <c r="G38" t="n">
-        <v>316.5487336740566</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>320.8422199291742</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>136.9537457384598</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3556,19 +3556,19 @@
         <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>253.1952022697474</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X38" t="n">
-        <v>0</v>
+        <v>244.1951353020872</v>
       </c>
       <c r="Y38" t="n">
         <v>0</v>
@@ -3629,7 +3629,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>23.6778726709161</v>
+        <v>23.67787267091717</v>
       </c>
       <c r="S39" t="n">
         <v>133.5813703291298</v>
@@ -3663,7 +3663,7 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>168.5030667546707</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
@@ -3672,19 +3672,19 @@
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>9.856719095497695</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>166.5715133615489</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>153.923765528121</v>
+        <v>66.0314987001008</v>
       </c>
       <c r="I40" t="n">
-        <v>131.7634811092929</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>30.07448747215907</v>
+        <v>0</v>
       </c>
       <c r="K40" t="n">
         <v>0</v>
@@ -3717,16 +3717,16 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>282.5844038405181</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X40" t="n">
-        <v>231.7395189948467</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -3739,13 +3739,13 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>396.4897982542829</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>389.2437464820987</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
         <v>0</v>
@@ -3754,13 +3754,13 @@
         <v>412.725494085322</v>
       </c>
       <c r="G41" t="n">
-        <v>409.0311279568768</v>
+        <v>206.5821507247538</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>320.8422199291742</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>136.9537457384598</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3787,28 +3787,28 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>253.1952022697474</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X41" t="n">
         <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>306.0752953518007</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -3839,7 +3839,7 @@
         <v>87.41444223540508</v>
       </c>
       <c r="I42" t="n">
-        <v>48.89338144820825</v>
+        <v>48.89338144820752</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3903,7 +3903,7 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
@@ -3951,13 +3951,13 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>226.1191533066457</v>
       </c>
       <c r="U43" t="n">
-        <v>282.5844038405181</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>97.61153143263803</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>280.4970980481341</v>
@@ -3976,7 +3976,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>396.4897982542829</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
@@ -3985,7 +3985,7 @@
         <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
         <v>412.725494085322</v>
@@ -3997,7 +3997,7 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>136.9537457384598</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4024,13 +4024,13 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>37.61298457733328</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>1.981803831422903</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U44" t="n">
         <v>253.1952022697474</v>
@@ -4039,13 +4039,13 @@
         <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X44" t="n">
-        <v>385.5580790162737</v>
+        <v>102.1661664892963</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="45">
@@ -4306,22 +4306,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1201.453214517072</v>
+        <v>751.2033740054303</v>
       </c>
       <c r="C2" t="n">
-        <v>1201.453214517072</v>
+        <v>358.0278725083609</v>
       </c>
       <c r="D2" t="n">
-        <v>1201.453214517072</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="E2" t="n">
-        <v>1201.453214517072</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="F2" t="n">
-        <v>784.5587760470498</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="G2" t="n">
-        <v>371.396020535053</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="H2" t="n">
         <v>47.31297010154361</v>
@@ -4345,10 +4345,10 @@
         <v>2118.077574438405</v>
       </c>
       <c r="O2" t="n">
-        <v>2365.64850507718</v>
+        <v>2180.802944936232</v>
       </c>
       <c r="P2" t="n">
-        <v>2365.64850507718</v>
+        <v>2180.802944936232</v>
       </c>
       <c r="Q2" t="n">
         <v>2365.64850507718</v>
@@ -4363,19 +4363,19 @@
         <v>1937.641433863169</v>
       </c>
       <c r="U2" t="n">
-        <v>1681.888704297768</v>
+        <v>1937.641433863169</v>
       </c>
       <c r="V2" t="n">
-        <v>1339.781895001287</v>
+        <v>1937.641433863169</v>
       </c>
       <c r="W2" t="n">
-        <v>1201.453214517072</v>
+        <v>1937.641433863169</v>
       </c>
       <c r="X2" t="n">
-        <v>1201.453214517072</v>
+        <v>1548.188828796226</v>
       </c>
       <c r="Y2" t="n">
-        <v>1201.453214517072</v>
+        <v>1151.698119716827</v>
       </c>
     </row>
     <row r="3">
@@ -4409,13 +4409,13 @@
         <v>47.31297010154361</v>
       </c>
       <c r="J3" t="n">
-        <v>47.31297010154361</v>
+        <v>160.427952321271</v>
       </c>
       <c r="K3" t="n">
-        <v>367.0521161637701</v>
+        <v>160.427952321271</v>
       </c>
       <c r="L3" t="n">
-        <v>367.0521161637701</v>
+        <v>160.427952321271</v>
       </c>
       <c r="M3" t="n">
         <v>623.6437572083089</v>
@@ -4433,7 +4433,7 @@
         <v>2365.64850507718</v>
       </c>
       <c r="R3" t="n">
-        <v>2341.731461975244</v>
+        <v>2341.731461975245</v>
       </c>
       <c r="S3" t="n">
         <v>2206.800784875113</v>
@@ -4464,28 +4464,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>948.7599926430961</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="C4" t="n">
-        <v>948.7599926430961</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="D4" t="n">
-        <v>847.4030175052487</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="E4" t="n">
-        <v>691.8442053644512</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="F4" t="n">
-        <v>534.5182705774242</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="G4" t="n">
-        <v>366.2642166768698</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="H4" t="n">
-        <v>210.7856656383638</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="I4" t="n">
-        <v>77.69124027544166</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="J4" t="n">
         <v>47.31297010154361</v>
@@ -4515,25 +4515,25 @@
         <v>948.7599926430961</v>
       </c>
       <c r="S4" t="n">
-        <v>948.7599926430961</v>
+        <v>745.9439088256454</v>
       </c>
       <c r="T4" t="n">
-        <v>948.7599926430961</v>
+        <v>566.8320840766596</v>
       </c>
       <c r="U4" t="n">
-        <v>948.7599926430961</v>
+        <v>281.3932923185605</v>
       </c>
       <c r="V4" t="n">
-        <v>948.7599926430961</v>
+        <v>281.3932923185605</v>
       </c>
       <c r="W4" t="n">
-        <v>948.7599926430961</v>
+        <v>281.3932923185605</v>
       </c>
       <c r="X4" t="n">
-        <v>948.7599926430961</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="Y4" t="n">
-        <v>948.7599926430961</v>
+        <v>47.31297010154361</v>
       </c>
     </row>
     <row r="5">
@@ -4543,19 +4543,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>825.9296003819453</v>
+        <v>836.5420834903703</v>
       </c>
       <c r="C5" t="n">
-        <v>432.7540988848759</v>
+        <v>836.5420834903703</v>
       </c>
       <c r="D5" t="n">
-        <v>47.31297010154361</v>
+        <v>451.100954707038</v>
       </c>
       <c r="E5" t="n">
-        <v>47.31297010154361</v>
+        <v>48.51742982358252</v>
       </c>
       <c r="F5" t="n">
-        <v>47.31297010154361</v>
+        <v>48.51742982358252</v>
       </c>
       <c r="G5" t="n">
         <v>47.31297010154361</v>
@@ -4570,19 +4570,19 @@
         <v>191.9627430103717</v>
       </c>
       <c r="K5" t="n">
-        <v>191.9627430103717</v>
+        <v>358.4764287842802</v>
       </c>
       <c r="L5" t="n">
-        <v>685.2830347289006</v>
+        <v>851.7967205028091</v>
       </c>
       <c r="M5" t="n">
-        <v>1231.283934773481</v>
+        <v>1397.79762054739</v>
       </c>
       <c r="N5" t="n">
-        <v>1759.095218410943</v>
+        <v>1925.608904184852</v>
       </c>
       <c r="O5" t="n">
-        <v>2199.134819303272</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="P5" t="n">
         <v>2365.64850507718</v>
@@ -4594,25 +4594,25 @@
         <v>2365.64850507718</v>
       </c>
       <c r="S5" t="n">
-        <v>2365.64850507718</v>
+        <v>2199.134950018231</v>
       </c>
       <c r="T5" t="n">
-        <v>2365.64850507718</v>
+        <v>1975.634347577648</v>
       </c>
       <c r="U5" t="n">
-        <v>2365.64850507718</v>
+        <v>1975.634347577648</v>
       </c>
       <c r="V5" t="n">
-        <v>2365.64850507718</v>
+        <v>1633.527538281166</v>
       </c>
       <c r="W5" t="n">
-        <v>2012.367660239684</v>
+        <v>1633.527538281166</v>
       </c>
       <c r="X5" t="n">
-        <v>1622.915055172741</v>
+        <v>1633.527538281166</v>
       </c>
       <c r="Y5" t="n">
-        <v>1226.424346093342</v>
+        <v>1237.036829201767</v>
       </c>
     </row>
     <row r="6">
@@ -4640,31 +4640,31 @@
         <v>184.9976404890318</v>
       </c>
       <c r="H6" t="n">
-        <v>96.70022408963202</v>
+        <v>96.70022408963275</v>
       </c>
       <c r="I6" t="n">
         <v>47.31297010154361</v>
       </c>
       <c r="J6" t="n">
-        <v>47.31297010154361</v>
+        <v>160.427952321271</v>
       </c>
       <c r="K6" t="n">
-        <v>47.31297010154361</v>
+        <v>480.1670983834974</v>
       </c>
       <c r="L6" t="n">
-        <v>530.8790559998569</v>
+        <v>963.7331842818107</v>
       </c>
       <c r="M6" t="n">
-        <v>1116.377061006459</v>
+        <v>1549.231189288413</v>
       </c>
       <c r="N6" t="n">
-        <v>1701.875066013061</v>
+        <v>1549.231189288413</v>
       </c>
       <c r="O6" t="n">
-        <v>2218.395348604042</v>
+        <v>2065.751471879394</v>
       </c>
       <c r="P6" t="n">
-        <v>2365.64850507718</v>
+        <v>2131.28341352229</v>
       </c>
       <c r="Q6" t="n">
         <v>2365.64850507718</v>
@@ -4701,28 +4701,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>948.7599926430961</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="C7" t="n">
-        <v>948.7599926430961</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="D7" t="n">
-        <v>847.4030175052487</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="E7" t="n">
-        <v>691.8442053644512</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="F7" t="n">
-        <v>534.5182705774242</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="G7" t="n">
-        <v>366.2642166768698</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="H7" t="n">
-        <v>210.7856656383638</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="I7" t="n">
-        <v>77.69124027544166</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="J7" t="n">
         <v>47.31297010154361</v>
@@ -4752,25 +4752,25 @@
         <v>948.7599926430961</v>
       </c>
       <c r="S7" t="n">
-        <v>948.7599926430961</v>
+        <v>745.9439088256454</v>
       </c>
       <c r="T7" t="n">
-        <v>948.7599926430961</v>
+        <v>616.082163928465</v>
       </c>
       <c r="U7" t="n">
-        <v>948.7599926430961</v>
+        <v>330.643372170366</v>
       </c>
       <c r="V7" t="n">
-        <v>948.7599926430961</v>
+        <v>330.643372170366</v>
       </c>
       <c r="W7" t="n">
-        <v>948.7599926430961</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="X7" t="n">
-        <v>948.7599926430961</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="Y7" t="n">
-        <v>948.7599926430961</v>
+        <v>47.31297010154361</v>
       </c>
     </row>
     <row r="8">
@@ -4780,25 +4780,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>440.488471598613</v>
+        <v>1348.882582980534</v>
       </c>
       <c r="C8" t="n">
-        <v>47.31297010154361</v>
+        <v>1348.882582980534</v>
       </c>
       <c r="D8" t="n">
-        <v>47.31297010154361</v>
+        <v>1348.882582980534</v>
       </c>
       <c r="E8" t="n">
-        <v>47.31297010154361</v>
+        <v>946.2990580970782</v>
       </c>
       <c r="F8" t="n">
-        <v>47.31297010154361</v>
+        <v>529.4046196270559</v>
       </c>
       <c r="G8" t="n">
-        <v>47.31297010154361</v>
+        <v>116.2418641150591</v>
       </c>
       <c r="H8" t="n">
-        <v>47.31297010154361</v>
+        <v>116.2418641150591</v>
       </c>
       <c r="I8" t="n">
         <v>47.31297010154361</v>
@@ -4810,19 +4810,19 @@
         <v>550.9450990378335</v>
       </c>
       <c r="L8" t="n">
-        <v>550.9450990378335</v>
+        <v>1044.265390756362</v>
       </c>
       <c r="M8" t="n">
-        <v>1096.945999082414</v>
+        <v>1590.266290800943</v>
       </c>
       <c r="N8" t="n">
-        <v>1624.757282719876</v>
+        <v>2118.077574438405</v>
       </c>
       <c r="O8" t="n">
-        <v>2017.461012945658</v>
+        <v>2180.802944936232</v>
       </c>
       <c r="P8" t="n">
-        <v>2365.64850507718</v>
+        <v>2180.802944936232</v>
       </c>
       <c r="Q8" t="n">
         <v>2365.64850507718</v>
@@ -4831,25 +4831,25 @@
         <v>2365.64850507718</v>
       </c>
       <c r="S8" t="n">
-        <v>2365.64850507718</v>
+        <v>2199.134950018231</v>
       </c>
       <c r="T8" t="n">
-        <v>2195.29035963855</v>
+        <v>1975.634347577648</v>
       </c>
       <c r="U8" t="n">
-        <v>1939.537630073149</v>
+        <v>1719.881618012246</v>
       </c>
       <c r="V8" t="n">
-        <v>1597.430820776668</v>
+        <v>1719.881618012246</v>
       </c>
       <c r="W8" t="n">
-        <v>1226.431785744955</v>
+        <v>1348.882582980534</v>
       </c>
       <c r="X8" t="n">
-        <v>836.979180678012</v>
+        <v>1348.882582980534</v>
       </c>
       <c r="Y8" t="n">
-        <v>440.488471598613</v>
+        <v>1348.882582980534</v>
       </c>
     </row>
     <row r="9">
@@ -4859,25 +4859,25 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>846.6789532415746</v>
+        <v>846.6789532415753</v>
       </c>
       <c r="C9" t="n">
-        <v>696.0247228016668</v>
+        <v>696.0247228016675</v>
       </c>
       <c r="D9" t="n">
-        <v>565.9357554231472</v>
+        <v>565.9357554231478</v>
       </c>
       <c r="E9" t="n">
-        <v>429.4892645340348</v>
+        <v>429.4892645340356</v>
       </c>
       <c r="F9" t="n">
-        <v>305.0574584171666</v>
+        <v>305.0574584171674</v>
       </c>
       <c r="G9" t="n">
-        <v>184.9976404890311</v>
+        <v>184.9976404890318</v>
       </c>
       <c r="H9" t="n">
-        <v>96.70022408963202</v>
+        <v>96.70022408963275</v>
       </c>
       <c r="I9" t="n">
         <v>47.31297010154361</v>
@@ -4886,22 +4886,22 @@
         <v>47.31297010154361</v>
       </c>
       <c r="K9" t="n">
-        <v>47.31297010154361</v>
+        <v>140.0776713099957</v>
       </c>
       <c r="L9" t="n">
-        <v>47.31297010154361</v>
+        <v>623.6437572083089</v>
       </c>
       <c r="M9" t="n">
-        <v>632.8109751081457</v>
+        <v>1209.141762214911</v>
       </c>
       <c r="N9" t="n">
-        <v>1218.308980114748</v>
+        <v>1209.141762214911</v>
       </c>
       <c r="O9" t="n">
-        <v>1734.829262705729</v>
+        <v>1725.662044805892</v>
       </c>
       <c r="P9" t="n">
-        <v>2140.450631422126</v>
+        <v>2131.28341352229</v>
       </c>
       <c r="Q9" t="n">
         <v>2365.64850507718</v>
@@ -4910,25 +4910,25 @@
         <v>2341.731461975245</v>
       </c>
       <c r="S9" t="n">
-        <v>2206.800784875113</v>
+        <v>2206.800784875114</v>
       </c>
       <c r="T9" t="n">
-        <v>2029.816973074021</v>
+        <v>2029.816973074022</v>
       </c>
       <c r="U9" t="n">
-        <v>1819.753829752663</v>
+        <v>1819.753829752664</v>
       </c>
       <c r="V9" t="n">
-        <v>1597.21382812373</v>
+        <v>1597.213828123731</v>
       </c>
       <c r="W9" t="n">
-        <v>1367.096582257017</v>
+        <v>1367.096582257018</v>
       </c>
       <c r="X9" t="n">
         <v>1177.789504607029</v>
       </c>
       <c r="Y9" t="n">
-        <v>998.475287682536</v>
+        <v>998.4752876825366</v>
       </c>
     </row>
     <row r="10">
@@ -4938,28 +4938,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>948.7599926430961</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="C10" t="n">
-        <v>948.7599926430961</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="D10" t="n">
-        <v>847.4030175052487</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="E10" t="n">
-        <v>691.8442053644512</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="F10" t="n">
-        <v>534.5182705774242</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="G10" t="n">
-        <v>366.2642166768698</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="H10" t="n">
-        <v>210.7856656383638</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="I10" t="n">
-        <v>77.69124027544166</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="J10" t="n">
         <v>47.31297010154361</v>
@@ -4986,28 +4986,28 @@
         <v>948.7599926430961</v>
       </c>
       <c r="R10" t="n">
-        <v>948.7599926430961</v>
+        <v>824.8590032756731</v>
       </c>
       <c r="S10" t="n">
-        <v>948.7599926430961</v>
+        <v>824.8590032756731</v>
       </c>
       <c r="T10" t="n">
-        <v>948.7599926430961</v>
+        <v>589.1399514439072</v>
       </c>
       <c r="U10" t="n">
-        <v>948.7599926430961</v>
+        <v>303.7011596858081</v>
       </c>
       <c r="V10" t="n">
-        <v>948.7599926430961</v>
+        <v>303.7011596858081</v>
       </c>
       <c r="W10" t="n">
-        <v>948.7599926430961</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="X10" t="n">
-        <v>948.7599926430961</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="Y10" t="n">
-        <v>948.7599926430961</v>
+        <v>47.31297010154361</v>
       </c>
     </row>
     <row r="11">
@@ -5017,25 +5017,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1568.663050286385</v>
+        <v>449.8964949849991</v>
       </c>
       <c r="C11" t="n">
-        <v>1175.487548789315</v>
+        <v>449.8964949849991</v>
       </c>
       <c r="D11" t="n">
-        <v>790.0464200059828</v>
+        <v>449.8964949849991</v>
       </c>
       <c r="E11" t="n">
-        <v>790.0464200059828</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="F11" t="n">
-        <v>790.0464200059828</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="G11" t="n">
-        <v>509.7331374425881</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="H11" t="n">
-        <v>185.6500870090788</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="I11" t="n">
         <v>47.31297010154361</v>
@@ -5044,49 +5044,49 @@
         <v>191.9627430103717</v>
       </c>
       <c r="K11" t="n">
-        <v>550.9450990378335</v>
+        <v>191.9627430103717</v>
       </c>
       <c r="L11" t="n">
-        <v>1044.265390756362</v>
+        <v>318.7636682303387</v>
       </c>
       <c r="M11" t="n">
-        <v>1590.266290800943</v>
+        <v>864.7645682749193</v>
       </c>
       <c r="N11" t="n">
-        <v>2118.077574438405</v>
+        <v>1392.575851912381</v>
       </c>
       <c r="O11" t="n">
-        <v>2365.64850507718</v>
+        <v>1832.61545280471</v>
       </c>
       <c r="P11" t="n">
-        <v>2365.64850507718</v>
+        <v>2180.802944936232</v>
       </c>
       <c r="Q11" t="n">
         <v>2365.64850507718</v>
       </c>
       <c r="R11" t="n">
-        <v>2365.64850507718</v>
+        <v>2327.655591362702</v>
       </c>
       <c r="S11" t="n">
-        <v>2365.64850507718</v>
+        <v>2327.655591362702</v>
       </c>
       <c r="T11" t="n">
-        <v>2365.64850507718</v>
+        <v>2104.154988922119</v>
       </c>
       <c r="U11" t="n">
-        <v>2365.64850507718</v>
+        <v>1848.402259356717</v>
       </c>
       <c r="V11" t="n">
-        <v>2365.64850507718</v>
+        <v>1506.295450060236</v>
       </c>
       <c r="W11" t="n">
-        <v>2365.64850507718</v>
+        <v>1135.296415028523</v>
       </c>
       <c r="X11" t="n">
-        <v>2365.64850507718</v>
+        <v>850.3912406963959</v>
       </c>
       <c r="Y11" t="n">
-        <v>1969.157795997781</v>
+        <v>850.3912406963959</v>
       </c>
     </row>
     <row r="12">
@@ -5096,46 +5096,46 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>846.6789532415746</v>
+        <v>846.6789532415753</v>
       </c>
       <c r="C12" t="n">
-        <v>696.0247228016668</v>
+        <v>696.0247228016675</v>
       </c>
       <c r="D12" t="n">
-        <v>565.9357554231472</v>
+        <v>565.9357554231478</v>
       </c>
       <c r="E12" t="n">
-        <v>429.4892645340348</v>
+        <v>429.4892645340356</v>
       </c>
       <c r="F12" t="n">
-        <v>305.0574584171666</v>
+        <v>305.0574584171674</v>
       </c>
       <c r="G12" t="n">
-        <v>184.9976404890311</v>
+        <v>184.9976404890318</v>
       </c>
       <c r="H12" t="n">
-        <v>96.70022408963202</v>
+        <v>96.70022408963275</v>
       </c>
       <c r="I12" t="n">
         <v>47.31297010154361</v>
       </c>
       <c r="J12" t="n">
-        <v>47.31297010154361</v>
+        <v>160.427952321271</v>
       </c>
       <c r="K12" t="n">
-        <v>367.0521161637701</v>
+        <v>480.1670983834974</v>
       </c>
       <c r="L12" t="n">
-        <v>850.6182020620834</v>
+        <v>963.7331842818107</v>
       </c>
       <c r="M12" t="n">
-        <v>1436.116207068686</v>
+        <v>963.7331842818107</v>
       </c>
       <c r="N12" t="n">
-        <v>1725.662044805892</v>
+        <v>1549.231189288413</v>
       </c>
       <c r="O12" t="n">
-        <v>1725.662044805892</v>
+        <v>2065.751471879394</v>
       </c>
       <c r="P12" t="n">
         <v>2131.28341352229</v>
@@ -5159,13 +5159,13 @@
         <v>1597.213828123731</v>
       </c>
       <c r="W12" t="n">
-        <v>1367.096582257017</v>
+        <v>1367.096582257018</v>
       </c>
       <c r="X12" t="n">
         <v>1177.789504607029</v>
       </c>
       <c r="Y12" t="n">
-        <v>998.475287682536</v>
+        <v>998.4752876825366</v>
       </c>
     </row>
     <row r="13">
@@ -5229,16 +5229,16 @@
         <v>948.7599926430961</v>
       </c>
       <c r="T13" t="n">
-        <v>882.0615091076409</v>
+        <v>832.8114292558353</v>
       </c>
       <c r="U13" t="n">
-        <v>596.6227173495417</v>
+        <v>547.3726374977363</v>
       </c>
       <c r="V13" t="n">
-        <v>330.643372170366</v>
+        <v>281.3932923185605</v>
       </c>
       <c r="W13" t="n">
-        <v>47.31297010154361</v>
+        <v>281.3932923185605</v>
       </c>
       <c r="X13" t="n">
         <v>47.31297010154361</v>
@@ -5254,19 +5254,19 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1179.210445219441</v>
+        <v>1233.032792569769</v>
       </c>
       <c r="C14" t="n">
-        <v>922.895892954585</v>
+        <v>1233.032792569769</v>
       </c>
       <c r="D14" t="n">
-        <v>922.895892954585</v>
+        <v>1233.032792569769</v>
       </c>
       <c r="E14" t="n">
-        <v>922.895892954585</v>
+        <v>830.4492676863135</v>
       </c>
       <c r="F14" t="n">
-        <v>922.895892954585</v>
+        <v>830.4492676863135</v>
       </c>
       <c r="G14" t="n">
         <v>509.7331374425881</v>
@@ -5278,16 +5278,16 @@
         <v>47.31297010154361</v>
       </c>
       <c r="J14" t="n">
-        <v>47.31297010154361</v>
+        <v>191.9627430103717</v>
       </c>
       <c r="K14" t="n">
-        <v>406.2953261290054</v>
+        <v>550.9450990378335</v>
       </c>
       <c r="L14" t="n">
-        <v>864.7645682749193</v>
+        <v>1044.265390756362</v>
       </c>
       <c r="M14" t="n">
-        <v>864.7645682749193</v>
+        <v>1392.575851912381</v>
       </c>
       <c r="N14" t="n">
         <v>1392.575851912381</v>
@@ -5305,25 +5305,25 @@
         <v>2365.64850507718</v>
       </c>
       <c r="S14" t="n">
-        <v>2365.64850507718</v>
+        <v>2199.134950018231</v>
       </c>
       <c r="T14" t="n">
-        <v>2365.64850507718</v>
+        <v>1975.634347577648</v>
       </c>
       <c r="U14" t="n">
-        <v>2365.64850507718</v>
+        <v>1975.634347577648</v>
       </c>
       <c r="V14" t="n">
-        <v>2365.64850507718</v>
+        <v>1633.527538281166</v>
       </c>
       <c r="W14" t="n">
-        <v>2365.64850507718</v>
+        <v>1633.527538281166</v>
       </c>
       <c r="X14" t="n">
-        <v>1976.195900010237</v>
+        <v>1633.527538281166</v>
       </c>
       <c r="Y14" t="n">
-        <v>1579.705190930838</v>
+        <v>1633.527538281166</v>
       </c>
     </row>
     <row r="15">
@@ -5369,19 +5369,19 @@
         <v>1549.231189288413</v>
       </c>
       <c r="N15" t="n">
-        <v>2134.729194295015</v>
+        <v>1549.231189288413</v>
       </c>
       <c r="O15" t="n">
-        <v>2365.64850507718</v>
+        <v>2065.751471879394</v>
       </c>
       <c r="P15" t="n">
-        <v>2365.64850507718</v>
+        <v>2131.283413522289</v>
       </c>
       <c r="Q15" t="n">
-        <v>2365.64850507718</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="R15" t="n">
-        <v>2341.731461975245</v>
+        <v>2341.731461975244</v>
       </c>
       <c r="S15" t="n">
         <v>2206.800784875113</v>
@@ -5412,25 +5412,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>47.31297010154361</v>
+        <v>817.17930939033</v>
       </c>
       <c r="C16" t="n">
-        <v>47.31297010154361</v>
+        <v>817.17930939033</v>
       </c>
       <c r="D16" t="n">
-        <v>47.31297010154361</v>
+        <v>661.5461962928448</v>
       </c>
       <c r="E16" t="n">
-        <v>47.31297010154361</v>
+        <v>505.9873841520472</v>
       </c>
       <c r="F16" t="n">
-        <v>47.31297010154361</v>
+        <v>348.6614493650202</v>
       </c>
       <c r="G16" t="n">
-        <v>47.31297010154361</v>
+        <v>180.4073954644657</v>
       </c>
       <c r="H16" t="n">
-        <v>47.31297010154361</v>
+        <v>180.4073954644657</v>
       </c>
       <c r="I16" t="n">
         <v>47.31297010154361</v>
@@ -5466,22 +5466,22 @@
         <v>948.7599926430961</v>
       </c>
       <c r="T16" t="n">
-        <v>948.7599926430961</v>
+        <v>817.17930939033</v>
       </c>
       <c r="U16" t="n">
-        <v>663.3212008849971</v>
+        <v>817.17930939033</v>
       </c>
       <c r="V16" t="n">
-        <v>397.3418557058213</v>
+        <v>817.17930939033</v>
       </c>
       <c r="W16" t="n">
-        <v>114.011453636999</v>
+        <v>817.17930939033</v>
       </c>
       <c r="X16" t="n">
-        <v>47.31297010154361</v>
+        <v>817.17930939033</v>
       </c>
       <c r="Y16" t="n">
-        <v>47.31297010154361</v>
+        <v>817.17930939033</v>
       </c>
     </row>
     <row r="17">
@@ -5491,22 +5491,22 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2365.64850507718</v>
+        <v>1665.394817750351</v>
       </c>
       <c r="C17" t="n">
-        <v>1989.47786818386</v>
+        <v>1665.394817750351</v>
       </c>
       <c r="D17" t="n">
-        <v>1604.036739400527</v>
+        <v>1279.953688967018</v>
       </c>
       <c r="E17" t="n">
-        <v>1201.453214517072</v>
+        <v>877.3701640835627</v>
       </c>
       <c r="F17" t="n">
-        <v>784.5587760470498</v>
+        <v>460.4757256135405</v>
       </c>
       <c r="G17" t="n">
-        <v>371.396020535053</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="H17" t="n">
         <v>47.31297010154361</v>
@@ -5515,52 +5515,52 @@
         <v>47.31297010154361</v>
       </c>
       <c r="J17" t="n">
-        <v>47.31297010154361</v>
+        <v>191.9627430103717</v>
       </c>
       <c r="K17" t="n">
-        <v>47.31297010154361</v>
+        <v>550.9450990378335</v>
       </c>
       <c r="L17" t="n">
-        <v>503.6092283712875</v>
+        <v>1044.265390756362</v>
       </c>
       <c r="M17" t="n">
-        <v>1049.610128415868</v>
+        <v>1590.266290800943</v>
       </c>
       <c r="N17" t="n">
-        <v>1577.42141205333</v>
+        <v>2118.077574438405</v>
       </c>
       <c r="O17" t="n">
-        <v>2017.461012945658</v>
+        <v>2180.802944936232</v>
       </c>
       <c r="P17" t="n">
-        <v>2365.64850507718</v>
+        <v>2180.802944936232</v>
       </c>
       <c r="Q17" t="n">
         <v>2365.64850507718</v>
       </c>
       <c r="R17" t="n">
-        <v>2365.64850507718</v>
+        <v>2327.655591362702</v>
       </c>
       <c r="S17" t="n">
-        <v>2365.64850507718</v>
+        <v>2161.142036303753</v>
       </c>
       <c r="T17" t="n">
-        <v>2365.64850507718</v>
+        <v>1937.641433863169</v>
       </c>
       <c r="U17" t="n">
-        <v>2365.64850507718</v>
+        <v>1937.641433863169</v>
       </c>
       <c r="V17" t="n">
-        <v>2365.64850507718</v>
+        <v>1665.394817750351</v>
       </c>
       <c r="W17" t="n">
-        <v>2365.64850507718</v>
+        <v>1665.394817750351</v>
       </c>
       <c r="X17" t="n">
-        <v>2365.64850507718</v>
+        <v>1665.394817750351</v>
       </c>
       <c r="Y17" t="n">
-        <v>2365.64850507718</v>
+        <v>1665.394817750351</v>
       </c>
     </row>
     <row r="18">
@@ -5570,67 +5570,67 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>846.6789532415746</v>
+        <v>846.6789532415751</v>
       </c>
       <c r="C18" t="n">
-        <v>696.0247228016668</v>
+        <v>696.0247228016672</v>
       </c>
       <c r="D18" t="n">
-        <v>565.9357554231472</v>
+        <v>565.9357554231476</v>
       </c>
       <c r="E18" t="n">
-        <v>429.4892645340348</v>
+        <v>429.4892645340353</v>
       </c>
       <c r="F18" t="n">
-        <v>305.0574584171666</v>
+        <v>305.057458417167</v>
       </c>
       <c r="G18" t="n">
-        <v>184.9976404890311</v>
+        <v>184.9976404890315</v>
       </c>
       <c r="H18" t="n">
-        <v>96.70022408963202</v>
+        <v>96.70022408963223</v>
       </c>
       <c r="I18" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154367</v>
       </c>
       <c r="J18" t="n">
-        <v>47.31297010154361</v>
+        <v>160.4279523212711</v>
       </c>
       <c r="K18" t="n">
-        <v>47.31297010154361</v>
+        <v>480.1670983834975</v>
       </c>
       <c r="L18" t="n">
-        <v>47.31297010154361</v>
+        <v>963.7331842818107</v>
       </c>
       <c r="M18" t="n">
-        <v>632.8109751081457</v>
+        <v>1549.231189288413</v>
       </c>
       <c r="N18" t="n">
-        <v>1209.14176221491</v>
+        <v>1549.231189288413</v>
       </c>
       <c r="O18" t="n">
-        <v>1725.662044805891</v>
+        <v>1725.662044805892</v>
       </c>
       <c r="P18" t="n">
-        <v>2131.283413522289</v>
+        <v>2131.28341352229</v>
       </c>
       <c r="Q18" t="n">
-        <v>2365.648505077179</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="R18" t="n">
-        <v>2341.731461975244</v>
+        <v>2341.731461975245</v>
       </c>
       <c r="S18" t="n">
-        <v>2206.800784875113</v>
+        <v>2206.800784875114</v>
       </c>
       <c r="T18" t="n">
-        <v>2029.816973074021</v>
+        <v>2029.816973074022</v>
       </c>
       <c r="U18" t="n">
-        <v>1819.753829752663</v>
+        <v>1819.753829752664</v>
       </c>
       <c r="V18" t="n">
-        <v>1597.21382812373</v>
+        <v>1597.213828123731</v>
       </c>
       <c r="W18" t="n">
         <v>1367.096582257017</v>
@@ -5639,7 +5639,7 @@
         <v>1177.789504607029</v>
       </c>
       <c r="Y18" t="n">
-        <v>998.475287682536</v>
+        <v>998.4752876825364</v>
       </c>
     </row>
     <row r="19">
@@ -5700,25 +5700,25 @@
         <v>948.7599926430961</v>
       </c>
       <c r="S19" t="n">
-        <v>948.7599926430961</v>
+        <v>745.9439088256454</v>
       </c>
       <c r="T19" t="n">
-        <v>948.7599926430961</v>
+        <v>510.2248569938795</v>
       </c>
       <c r="U19" t="n">
-        <v>663.3212008849971</v>
+        <v>224.7860652357804</v>
       </c>
       <c r="V19" t="n">
-        <v>397.3418557058213</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="W19" t="n">
-        <v>397.3418557058213</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="X19" t="n">
-        <v>397.3418557058213</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="Y19" t="n">
-        <v>174.2297945224647</v>
+        <v>47.31297010154361</v>
       </c>
     </row>
     <row r="20">
@@ -5728,19 +5728,19 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1965.153759365783</v>
+        <v>1771.148867604884</v>
       </c>
       <c r="C20" t="n">
-        <v>1571.978257868714</v>
+        <v>1665.394817750351</v>
       </c>
       <c r="D20" t="n">
-        <v>1186.537129085382</v>
+        <v>1279.953688967018</v>
       </c>
       <c r="E20" t="n">
-        <v>783.9536042019261</v>
+        <v>877.3701640835627</v>
       </c>
       <c r="F20" t="n">
-        <v>367.0591657319038</v>
+        <v>460.4757256135405</v>
       </c>
       <c r="G20" t="n">
         <v>47.31297010154361</v>
@@ -5755,22 +5755,22 @@
         <v>191.9627430103717</v>
       </c>
       <c r="K20" t="n">
-        <v>550.9450990378335</v>
+        <v>191.9627430103717</v>
       </c>
       <c r="L20" t="n">
-        <v>1044.265390756362</v>
+        <v>318.7636682303387</v>
       </c>
       <c r="M20" t="n">
-        <v>1590.266290800943</v>
+        <v>864.7645682749193</v>
       </c>
       <c r="N20" t="n">
-        <v>1925.608904184852</v>
+        <v>1392.575851912381</v>
       </c>
       <c r="O20" t="n">
-        <v>2365.64850507718</v>
+        <v>1832.61545280471</v>
       </c>
       <c r="P20" t="n">
-        <v>2365.64850507718</v>
+        <v>2180.802944936232</v>
       </c>
       <c r="Q20" t="n">
         <v>2365.64850507718</v>
@@ -5782,22 +5782,22 @@
         <v>2365.64850507718</v>
       </c>
       <c r="T20" t="n">
-        <v>2365.64850507718</v>
+        <v>2142.147902636597</v>
       </c>
       <c r="U20" t="n">
-        <v>2365.64850507718</v>
+        <v>2142.147902636597</v>
       </c>
       <c r="V20" t="n">
-        <v>2365.64850507718</v>
+        <v>2142.147902636597</v>
       </c>
       <c r="W20" t="n">
-        <v>2365.64850507718</v>
+        <v>1771.148867604884</v>
       </c>
       <c r="X20" t="n">
-        <v>2365.64850507718</v>
+        <v>1771.148867604884</v>
       </c>
       <c r="Y20" t="n">
-        <v>2365.64850507718</v>
+        <v>1771.148867604884</v>
       </c>
     </row>
     <row r="21">
@@ -5807,67 +5807,67 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>846.6789532415751</v>
+        <v>846.6789532415746</v>
       </c>
       <c r="C21" t="n">
-        <v>696.0247228016672</v>
+        <v>696.0247228016668</v>
       </c>
       <c r="D21" t="n">
-        <v>565.9357554231476</v>
+        <v>565.9357554231472</v>
       </c>
       <c r="E21" t="n">
-        <v>429.4892645340353</v>
+        <v>429.4892645340348</v>
       </c>
       <c r="F21" t="n">
-        <v>305.057458417167</v>
+        <v>305.0574584171666</v>
       </c>
       <c r="G21" t="n">
-        <v>184.9976404890315</v>
+        <v>184.9976404890311</v>
       </c>
       <c r="H21" t="n">
-        <v>96.70022408963223</v>
+        <v>96.70022408963202</v>
       </c>
       <c r="I21" t="n">
-        <v>47.31297010154367</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="J21" t="n">
-        <v>47.31297010154367</v>
+        <v>160.427952321271</v>
       </c>
       <c r="K21" t="n">
-        <v>47.31297010154367</v>
+        <v>480.1670983834974</v>
       </c>
       <c r="L21" t="n">
-        <v>530.879055999857</v>
+        <v>963.7331842818107</v>
       </c>
       <c r="M21" t="n">
-        <v>1116.377061006459</v>
+        <v>1209.14176221491</v>
       </c>
       <c r="N21" t="n">
-        <v>1701.875066013061</v>
+        <v>1209.14176221491</v>
       </c>
       <c r="O21" t="n">
-        <v>2218.395348604042</v>
+        <v>1725.662044805891</v>
       </c>
       <c r="P21" t="n">
-        <v>2365.64850507718</v>
+        <v>2131.283413522289</v>
       </c>
       <c r="Q21" t="n">
-        <v>2365.64850507718</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="R21" t="n">
-        <v>2341.731461975245</v>
+        <v>2341.731461975244</v>
       </c>
       <c r="S21" t="n">
-        <v>2206.800784875114</v>
+        <v>2206.800784875113</v>
       </c>
       <c r="T21" t="n">
-        <v>2029.816973074022</v>
+        <v>2029.816973074021</v>
       </c>
       <c r="U21" t="n">
-        <v>1819.753829752664</v>
+        <v>1819.753829752663</v>
       </c>
       <c r="V21" t="n">
-        <v>1597.213828123731</v>
+        <v>1597.21382812373</v>
       </c>
       <c r="W21" t="n">
         <v>1367.096582257017</v>
@@ -5876,7 +5876,7 @@
         <v>1177.789504607029</v>
       </c>
       <c r="Y21" t="n">
-        <v>998.4752876825364</v>
+        <v>998.475287682536</v>
       </c>
     </row>
     <row r="22">
@@ -5886,25 +5886,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>307.4482789898337</v>
+        <v>335.8859465029718</v>
       </c>
       <c r="C22" t="n">
-        <v>137.243161055823</v>
+        <v>335.8859465029718</v>
       </c>
       <c r="D22" t="n">
-        <v>137.243161055823</v>
+        <v>335.8859465029718</v>
       </c>
       <c r="E22" t="n">
-        <v>137.243161055823</v>
+        <v>335.8859465029718</v>
       </c>
       <c r="F22" t="n">
-        <v>137.243161055823</v>
+        <v>335.8859465029718</v>
       </c>
       <c r="G22" t="n">
-        <v>137.243161055823</v>
+        <v>335.8859465029718</v>
       </c>
       <c r="H22" t="n">
-        <v>47.31297010154361</v>
+        <v>180.4073954644657</v>
       </c>
       <c r="I22" t="n">
         <v>47.31297010154361</v>
@@ -5934,28 +5934,28 @@
         <v>948.7599926430961</v>
       </c>
       <c r="R22" t="n">
-        <v>824.8590032756731</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="S22" t="n">
-        <v>824.8590032756731</v>
+        <v>793.0783299033453</v>
       </c>
       <c r="T22" t="n">
-        <v>824.8590032756731</v>
+        <v>793.0783299033453</v>
       </c>
       <c r="U22" t="n">
-        <v>824.8590032756731</v>
+        <v>793.0783299033453</v>
       </c>
       <c r="V22" t="n">
-        <v>824.8590032756731</v>
+        <v>793.0783299033453</v>
       </c>
       <c r="W22" t="n">
-        <v>541.5286012068507</v>
+        <v>793.0783299033453</v>
       </c>
       <c r="X22" t="n">
-        <v>307.4482789898337</v>
+        <v>558.9980076863284</v>
       </c>
       <c r="Y22" t="n">
-        <v>307.4482789898337</v>
+        <v>335.8859465029718</v>
       </c>
     </row>
     <row r="23">
@@ -5965,22 +5965,22 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2058.57031924742</v>
+        <v>1719.881618012246</v>
       </c>
       <c r="C23" t="n">
-        <v>1665.394817750351</v>
+        <v>1719.881618012246</v>
       </c>
       <c r="D23" t="n">
-        <v>1279.953688967018</v>
+        <v>1334.440489228914</v>
       </c>
       <c r="E23" t="n">
-        <v>877.3701640835627</v>
+        <v>931.8569643454584</v>
       </c>
       <c r="F23" t="n">
-        <v>460.4757256135405</v>
+        <v>514.9625258754362</v>
       </c>
       <c r="G23" t="n">
-        <v>47.31297010154361</v>
+        <v>101.7997703634393</v>
       </c>
       <c r="H23" t="n">
         <v>47.31297010154361</v>
@@ -5989,25 +5989,25 @@
         <v>47.31297010154361</v>
       </c>
       <c r="J23" t="n">
-        <v>47.31297010154361</v>
+        <v>191.9627430103717</v>
       </c>
       <c r="K23" t="n">
-        <v>358.4764287842802</v>
+        <v>550.9450990378335</v>
       </c>
       <c r="L23" t="n">
-        <v>851.7967205028091</v>
+        <v>1044.265390756362</v>
       </c>
       <c r="M23" t="n">
-        <v>1397.79762054739</v>
+        <v>1044.265390756362</v>
       </c>
       <c r="N23" t="n">
-        <v>1925.608904184852</v>
+        <v>1392.575851912381</v>
       </c>
       <c r="O23" t="n">
-        <v>2365.64850507718</v>
+        <v>1832.61545280471</v>
       </c>
       <c r="P23" t="n">
-        <v>2365.64850507718</v>
+        <v>2180.802944936232</v>
       </c>
       <c r="Q23" t="n">
         <v>2365.64850507718</v>
@@ -6016,25 +6016,25 @@
         <v>2365.64850507718</v>
       </c>
       <c r="S23" t="n">
-        <v>2365.64850507718</v>
+        <v>2199.134950018231</v>
       </c>
       <c r="T23" t="n">
-        <v>2365.64850507718</v>
+        <v>1975.634347577648</v>
       </c>
       <c r="U23" t="n">
-        <v>2365.64850507718</v>
+        <v>1719.881618012246</v>
       </c>
       <c r="V23" t="n">
-        <v>2365.64850507718</v>
+        <v>1719.881618012246</v>
       </c>
       <c r="W23" t="n">
-        <v>2365.64850507718</v>
+        <v>1719.881618012246</v>
       </c>
       <c r="X23" t="n">
-        <v>2365.64850507718</v>
+        <v>1719.881618012246</v>
       </c>
       <c r="Y23" t="n">
-        <v>2365.64850507718</v>
+        <v>1719.881618012246</v>
       </c>
     </row>
     <row r="24">
@@ -6068,25 +6068,25 @@
         <v>47.31297010154367</v>
       </c>
       <c r="J24" t="n">
-        <v>47.31297010154367</v>
+        <v>160.4279523212711</v>
       </c>
       <c r="K24" t="n">
-        <v>367.0521161637701</v>
+        <v>160.4279523212711</v>
       </c>
       <c r="L24" t="n">
-        <v>850.6182020620834</v>
+        <v>643.9940382195844</v>
       </c>
       <c r="M24" t="n">
-        <v>1436.116207068686</v>
+        <v>1209.141762214911</v>
       </c>
       <c r="N24" t="n">
-        <v>1849.128222486199</v>
+        <v>1209.141762214911</v>
       </c>
       <c r="O24" t="n">
-        <v>2365.64850507718</v>
+        <v>1725.662044805892</v>
       </c>
       <c r="P24" t="n">
-        <v>2365.64850507718</v>
+        <v>2131.28341352229</v>
       </c>
       <c r="Q24" t="n">
         <v>2365.64850507718</v>
@@ -6123,22 +6123,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>948.7599926430961</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="C25" t="n">
-        <v>839.5634350659138</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="D25" t="n">
-        <v>683.9303219684286</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="E25" t="n">
-        <v>528.3715098276311</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="F25" t="n">
-        <v>371.0455750406041</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="G25" t="n">
-        <v>202.7915211400496</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="H25" t="n">
         <v>47.31297010154361</v>
@@ -6171,28 +6171,28 @@
         <v>948.7599926430961</v>
       </c>
       <c r="R25" t="n">
-        <v>948.7599926430961</v>
+        <v>824.8590032756731</v>
       </c>
       <c r="S25" t="n">
-        <v>948.7599926430961</v>
+        <v>824.8590032756731</v>
       </c>
       <c r="T25" t="n">
-        <v>948.7599926430961</v>
+        <v>824.8590032756731</v>
       </c>
       <c r="U25" t="n">
-        <v>948.7599926430961</v>
+        <v>539.420211517574</v>
       </c>
       <c r="V25" t="n">
-        <v>948.7599926430961</v>
+        <v>330.643372170366</v>
       </c>
       <c r="W25" t="n">
-        <v>948.7599926430961</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="X25" t="n">
-        <v>948.7599926430961</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="Y25" t="n">
-        <v>948.7599926430961</v>
+        <v>47.31297010154361</v>
       </c>
     </row>
     <row r="26">
@@ -6202,22 +6202,22 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2058.57031924742</v>
+        <v>948.3878372691368</v>
       </c>
       <c r="C26" t="n">
-        <v>1665.394817750351</v>
+        <v>948.3878372691368</v>
       </c>
       <c r="D26" t="n">
-        <v>1279.953688967018</v>
+        <v>562.9467084858045</v>
       </c>
       <c r="E26" t="n">
-        <v>877.3701640835627</v>
+        <v>562.9467084858045</v>
       </c>
       <c r="F26" t="n">
-        <v>460.4757256135405</v>
+        <v>146.0522700157823</v>
       </c>
       <c r="G26" t="n">
-        <v>47.31297010154361</v>
+        <v>146.0522700157823</v>
       </c>
       <c r="H26" t="n">
         <v>47.31297010154361</v>
@@ -6229,19 +6229,19 @@
         <v>47.31297010154361</v>
       </c>
       <c r="K26" t="n">
-        <v>406.2953261290054</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="L26" t="n">
-        <v>899.6156178475343</v>
+        <v>540.6332618200724</v>
       </c>
       <c r="M26" t="n">
-        <v>1445.616517892115</v>
+        <v>1086.634161864653</v>
       </c>
       <c r="N26" t="n">
-        <v>1973.427801529577</v>
+        <v>1614.445445502115</v>
       </c>
       <c r="O26" t="n">
-        <v>2365.64850507718</v>
+        <v>2054.485046394444</v>
       </c>
       <c r="P26" t="n">
         <v>2365.64850507718</v>
@@ -6253,25 +6253,25 @@
         <v>2365.64850507718</v>
       </c>
       <c r="S26" t="n">
-        <v>2365.64850507718</v>
+        <v>2199.134950018231</v>
       </c>
       <c r="T26" t="n">
-        <v>2365.64850507718</v>
+        <v>1975.634347577648</v>
       </c>
       <c r="U26" t="n">
-        <v>2365.64850507718</v>
+        <v>1719.881618012246</v>
       </c>
       <c r="V26" t="n">
-        <v>2058.57031924742</v>
+        <v>1719.881618012246</v>
       </c>
       <c r="W26" t="n">
-        <v>2058.57031924742</v>
+        <v>1348.882582980534</v>
       </c>
       <c r="X26" t="n">
-        <v>2058.57031924742</v>
+        <v>1348.882582980534</v>
       </c>
       <c r="Y26" t="n">
-        <v>2058.57031924742</v>
+        <v>1348.882582980534</v>
       </c>
     </row>
     <row r="27">
@@ -6308,16 +6308,16 @@
         <v>47.31297010154367</v>
       </c>
       <c r="K27" t="n">
-        <v>367.0521161637701</v>
+        <v>47.31297010154367</v>
       </c>
       <c r="L27" t="n">
-        <v>367.0521161637701</v>
+        <v>530.879055999857</v>
       </c>
       <c r="M27" t="n">
-        <v>858.0088487631995</v>
+        <v>1116.377061006459</v>
       </c>
       <c r="N27" t="n">
-        <v>1443.506853769802</v>
+        <v>1701.875066013061</v>
       </c>
       <c r="O27" t="n">
         <v>1960.027136360783</v>
@@ -6360,19 +6360,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>114.011453636999</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="C28" t="n">
-        <v>114.011453636999</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="D28" t="n">
-        <v>114.011453636999</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="E28" t="n">
-        <v>114.011453636999</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="F28" t="n">
-        <v>114.011453636999</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="G28" t="n">
         <v>47.31297010154361</v>
@@ -6411,25 +6411,25 @@
         <v>948.7599926430961</v>
       </c>
       <c r="S28" t="n">
-        <v>948.7599926430961</v>
+        <v>745.9439088256454</v>
       </c>
       <c r="T28" t="n">
-        <v>948.7599926430961</v>
+        <v>745.9439088256454</v>
       </c>
       <c r="U28" t="n">
-        <v>663.3212008849971</v>
+        <v>460.5051170675463</v>
       </c>
       <c r="V28" t="n">
-        <v>397.3418557058213</v>
+        <v>194.5257718883706</v>
       </c>
       <c r="W28" t="n">
-        <v>114.011453636999</v>
+        <v>194.5257718883706</v>
       </c>
       <c r="X28" t="n">
-        <v>114.011453636999</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="Y28" t="n">
-        <v>114.011453636999</v>
+        <v>47.31297010154361</v>
       </c>
     </row>
     <row r="29">
@@ -6439,22 +6439,22 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>773.9795454185085</v>
+        <v>884.9032495069723</v>
       </c>
       <c r="C29" t="n">
-        <v>773.9795454185085</v>
+        <v>884.9032495069723</v>
       </c>
       <c r="D29" t="n">
-        <v>773.9795454185085</v>
+        <v>499.4621207236401</v>
       </c>
       <c r="E29" t="n">
-        <v>371.396020535053</v>
+        <v>499.4621207236401</v>
       </c>
       <c r="F29" t="n">
-        <v>371.396020535053</v>
+        <v>82.56768225361782</v>
       </c>
       <c r="G29" t="n">
-        <v>371.396020535053</v>
+        <v>82.56768225361782</v>
       </c>
       <c r="H29" t="n">
         <v>47.31297010154361</v>
@@ -6463,22 +6463,22 @@
         <v>47.31297010154361</v>
       </c>
       <c r="J29" t="n">
-        <v>47.31297010154361</v>
+        <v>191.9627430103717</v>
       </c>
       <c r="K29" t="n">
-        <v>406.2953261290054</v>
+        <v>191.9627430103717</v>
       </c>
       <c r="L29" t="n">
-        <v>899.6156178475343</v>
+        <v>685.2830347289006</v>
       </c>
       <c r="M29" t="n">
-        <v>1445.616517892115</v>
+        <v>1049.610128415868</v>
       </c>
       <c r="N29" t="n">
-        <v>1973.427801529577</v>
+        <v>1577.42141205333</v>
       </c>
       <c r="O29" t="n">
-        <v>2365.64850507718</v>
+        <v>2017.461012945658</v>
       </c>
       <c r="P29" t="n">
         <v>2365.64850507718</v>
@@ -6487,28 +6487,28 @@
         <v>2365.64850507718</v>
       </c>
       <c r="R29" t="n">
-        <v>2365.64850507718</v>
+        <v>2327.655591362702</v>
       </c>
       <c r="S29" t="n">
-        <v>2365.64850507718</v>
+        <v>2161.142036303753</v>
       </c>
       <c r="T29" t="n">
-        <v>2365.64850507718</v>
+        <v>1937.641433863169</v>
       </c>
       <c r="U29" t="n">
-        <v>2273.028703893045</v>
+        <v>1681.888704297768</v>
       </c>
       <c r="V29" t="n">
-        <v>1930.921894596563</v>
+        <v>1681.888704297768</v>
       </c>
       <c r="W29" t="n">
-        <v>1559.922859564851</v>
+        <v>1681.888704297768</v>
       </c>
       <c r="X29" t="n">
-        <v>1170.470254497907</v>
+        <v>1681.888704297768</v>
       </c>
       <c r="Y29" t="n">
-        <v>773.9795454185085</v>
+        <v>1285.397995218369</v>
       </c>
     </row>
     <row r="30">
@@ -6518,31 +6518,31 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>846.6789532415751</v>
+        <v>846.6789532415746</v>
       </c>
       <c r="C30" t="n">
-        <v>696.0247228016672</v>
+        <v>696.0247228016668</v>
       </c>
       <c r="D30" t="n">
-        <v>565.9357554231476</v>
+        <v>565.9357554231472</v>
       </c>
       <c r="E30" t="n">
-        <v>429.4892645340353</v>
+        <v>429.4892645340348</v>
       </c>
       <c r="F30" t="n">
-        <v>305.057458417167</v>
+        <v>305.0574584171666</v>
       </c>
       <c r="G30" t="n">
-        <v>184.9976404890315</v>
+        <v>184.9976404890311</v>
       </c>
       <c r="H30" t="n">
-        <v>96.70022408963223</v>
+        <v>96.70022408963202</v>
       </c>
       <c r="I30" t="n">
-        <v>47.31297010154367</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="J30" t="n">
-        <v>47.31297010154367</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="K30" t="n">
         <v>367.0521161637701</v>
@@ -6551,34 +6551,34 @@
         <v>850.6182020620834</v>
       </c>
       <c r="M30" t="n">
-        <v>1436.116207068686</v>
+        <v>1209.14176221491</v>
       </c>
       <c r="N30" t="n">
-        <v>1849.128222486199</v>
+        <v>1209.14176221491</v>
       </c>
       <c r="O30" t="n">
-        <v>2365.64850507718</v>
+        <v>1725.662044805891</v>
       </c>
       <c r="P30" t="n">
-        <v>2365.64850507718</v>
+        <v>2131.283413522289</v>
       </c>
       <c r="Q30" t="n">
-        <v>2365.64850507718</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="R30" t="n">
-        <v>2341.731461975245</v>
+        <v>2341.731461975244</v>
       </c>
       <c r="S30" t="n">
-        <v>2206.800784875114</v>
+        <v>2206.800784875113</v>
       </c>
       <c r="T30" t="n">
-        <v>2029.816973074022</v>
+        <v>2029.816973074021</v>
       </c>
       <c r="U30" t="n">
-        <v>1819.753829752664</v>
+        <v>1819.753829752663</v>
       </c>
       <c r="V30" t="n">
-        <v>1597.213828123731</v>
+        <v>1597.21382812373</v>
       </c>
       <c r="W30" t="n">
         <v>1367.096582257017</v>
@@ -6587,7 +6587,7 @@
         <v>1177.789504607029</v>
       </c>
       <c r="Y30" t="n">
-        <v>998.4752876825364</v>
+        <v>998.475287682536</v>
       </c>
     </row>
     <row r="31">
@@ -6597,16 +6597,16 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>540.4399127684381</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="C31" t="n">
-        <v>370.2347948344274</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="D31" t="n">
-        <v>214.6016817369421</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="E31" t="n">
-        <v>59.04286959614461</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="F31" t="n">
         <v>47.31297010154361</v>
@@ -6648,25 +6648,25 @@
         <v>948.7599926430961</v>
       </c>
       <c r="S31" t="n">
-        <v>948.7599926430961</v>
+        <v>745.9439088256454</v>
       </c>
       <c r="T31" t="n">
-        <v>948.7599926430961</v>
+        <v>745.9439088256454</v>
       </c>
       <c r="U31" t="n">
-        <v>948.7599926430961</v>
+        <v>460.5051170675463</v>
       </c>
       <c r="V31" t="n">
-        <v>948.7599926430961</v>
+        <v>460.5051170675463</v>
       </c>
       <c r="W31" t="n">
-        <v>948.7599926430961</v>
+        <v>177.174714998724</v>
       </c>
       <c r="X31" t="n">
-        <v>948.7599926430961</v>
+        <v>177.174714998724</v>
       </c>
       <c r="Y31" t="n">
-        <v>725.6479314597394</v>
+        <v>47.31297010154361</v>
       </c>
     </row>
     <row r="32">
@@ -6676,22 +6676,22 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2058.57031924742</v>
+        <v>371.396020535053</v>
       </c>
       <c r="C32" t="n">
-        <v>1665.394817750351</v>
+        <v>371.396020535053</v>
       </c>
       <c r="D32" t="n">
-        <v>1279.953688967018</v>
+        <v>371.396020535053</v>
       </c>
       <c r="E32" t="n">
-        <v>877.3701640835627</v>
+        <v>371.396020535053</v>
       </c>
       <c r="F32" t="n">
-        <v>460.4757256135405</v>
+        <v>371.396020535053</v>
       </c>
       <c r="G32" t="n">
-        <v>47.31297010154361</v>
+        <v>371.396020535053</v>
       </c>
       <c r="H32" t="n">
         <v>47.31297010154361</v>
@@ -6703,22 +6703,22 @@
         <v>47.31297010154361</v>
       </c>
       <c r="K32" t="n">
-        <v>406.2953261290054</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="L32" t="n">
-        <v>899.6156178475343</v>
+        <v>540.6332618200724</v>
       </c>
       <c r="M32" t="n">
-        <v>1445.616517892115</v>
+        <v>1086.634161864653</v>
       </c>
       <c r="N32" t="n">
-        <v>1973.427801529577</v>
+        <v>1614.445445502115</v>
       </c>
       <c r="O32" t="n">
-        <v>2365.64850507718</v>
+        <v>1832.61545280471</v>
       </c>
       <c r="P32" t="n">
-        <v>2365.64850507718</v>
+        <v>2180.802944936232</v>
       </c>
       <c r="Q32" t="n">
         <v>2365.64850507718</v>
@@ -6727,25 +6727,25 @@
         <v>2365.64850507718</v>
       </c>
       <c r="S32" t="n">
-        <v>2365.64850507718</v>
+        <v>2199.134950018231</v>
       </c>
       <c r="T32" t="n">
-        <v>2365.64850507718</v>
+        <v>1975.634347577648</v>
       </c>
       <c r="U32" t="n">
-        <v>2365.64850507718</v>
+        <v>1719.881618012246</v>
       </c>
       <c r="V32" t="n">
-        <v>2365.64850507718</v>
+        <v>1377.774808715765</v>
       </c>
       <c r="W32" t="n">
-        <v>2365.64850507718</v>
+        <v>1006.775773684052</v>
       </c>
       <c r="X32" t="n">
-        <v>2365.64850507718</v>
+        <v>617.323168617109</v>
       </c>
       <c r="Y32" t="n">
-        <v>2058.57031924742</v>
+        <v>371.396020535053</v>
       </c>
     </row>
     <row r="33">
@@ -6779,25 +6779,25 @@
         <v>47.31297010154367</v>
       </c>
       <c r="J33" t="n">
-        <v>47.31297010154367</v>
+        <v>160.4279523212711</v>
       </c>
       <c r="K33" t="n">
-        <v>367.0521161637701</v>
+        <v>480.1670983834975</v>
       </c>
       <c r="L33" t="n">
-        <v>850.6182020620834</v>
+        <v>963.7331842818107</v>
       </c>
       <c r="M33" t="n">
-        <v>1263.630217479597</v>
+        <v>1549.231189288413</v>
       </c>
       <c r="N33" t="n">
-        <v>1849.128222486199</v>
+        <v>2131.28341352229</v>
       </c>
       <c r="O33" t="n">
-        <v>2365.64850507718</v>
+        <v>2131.28341352229</v>
       </c>
       <c r="P33" t="n">
-        <v>2365.64850507718</v>
+        <v>2131.28341352229</v>
       </c>
       <c r="Q33" t="n">
         <v>2365.64850507718</v>
@@ -6834,28 +6834,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>210.7856656383638</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="C34" t="n">
-        <v>210.7856656383638</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="D34" t="n">
-        <v>210.7856656383638</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="E34" t="n">
-        <v>210.7856656383638</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="F34" t="n">
-        <v>210.7856656383638</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="G34" t="n">
-        <v>210.7856656383638</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="H34" t="n">
-        <v>210.7856656383638</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="I34" t="n">
-        <v>77.69124027544166</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="J34" t="n">
         <v>47.31297010154361</v>
@@ -6882,28 +6882,28 @@
         <v>948.7599926430961</v>
       </c>
       <c r="R34" t="n">
-        <v>824.8590032756731</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="S34" t="n">
-        <v>762.2038025756385</v>
+        <v>745.9439088256454</v>
       </c>
       <c r="T34" t="n">
-        <v>762.2038025756385</v>
+        <v>745.9439088256454</v>
       </c>
       <c r="U34" t="n">
-        <v>476.7650108175395</v>
+        <v>460.5051170675463</v>
       </c>
       <c r="V34" t="n">
-        <v>210.7856656383638</v>
+        <v>330.643372170366</v>
       </c>
       <c r="W34" t="n">
-        <v>210.7856656383638</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="X34" t="n">
-        <v>210.7856656383638</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="Y34" t="n">
-        <v>210.7856656383638</v>
+        <v>47.31297010154361</v>
       </c>
     </row>
     <row r="35">
@@ -6913,49 +6913,49 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1767.788966215297</v>
+        <v>1377.774808715765</v>
       </c>
       <c r="C35" t="n">
-        <v>1767.788966215297</v>
+        <v>984.5993072186952</v>
       </c>
       <c r="D35" t="n">
-        <v>1382.347837431965</v>
+        <v>984.5993072186952</v>
       </c>
       <c r="E35" t="n">
-        <v>979.7643125485097</v>
+        <v>922.895892954585</v>
       </c>
       <c r="F35" t="n">
-        <v>562.8698740784874</v>
+        <v>922.895892954585</v>
       </c>
       <c r="G35" t="n">
-        <v>149.7071185664906</v>
+        <v>509.7331374425881</v>
       </c>
       <c r="H35" t="n">
-        <v>47.31297010154361</v>
+        <v>185.6500870090788</v>
       </c>
       <c r="I35" t="n">
         <v>47.31297010154361</v>
       </c>
       <c r="J35" t="n">
-        <v>47.31297010154361</v>
+        <v>191.9627430103717</v>
       </c>
       <c r="K35" t="n">
-        <v>358.4764287842802</v>
+        <v>550.9450990378335</v>
       </c>
       <c r="L35" t="n">
-        <v>851.7967205028091</v>
+        <v>1044.265390756362</v>
       </c>
       <c r="M35" t="n">
-        <v>1397.79762054739</v>
+        <v>1044.265390756362</v>
       </c>
       <c r="N35" t="n">
-        <v>1925.608904184852</v>
+        <v>1392.575851912381</v>
       </c>
       <c r="O35" t="n">
-        <v>2365.64850507718</v>
+        <v>1832.61545280471</v>
       </c>
       <c r="P35" t="n">
-        <v>2365.64850507718</v>
+        <v>2180.802944936232</v>
       </c>
       <c r="Q35" t="n">
         <v>2365.64850507718</v>
@@ -6964,25 +6964,25 @@
         <v>2365.64850507718</v>
       </c>
       <c r="S35" t="n">
-        <v>2365.64850507718</v>
+        <v>2199.134950018231</v>
       </c>
       <c r="T35" t="n">
-        <v>2365.64850507718</v>
+        <v>1975.634347577648</v>
       </c>
       <c r="U35" t="n">
-        <v>2109.895775511779</v>
+        <v>1719.881618012246</v>
       </c>
       <c r="V35" t="n">
-        <v>1767.788966215297</v>
+        <v>1377.774808715765</v>
       </c>
       <c r="W35" t="n">
-        <v>1767.788966215297</v>
+        <v>1377.774808715765</v>
       </c>
       <c r="X35" t="n">
-        <v>1767.788966215297</v>
+        <v>1377.774808715765</v>
       </c>
       <c r="Y35" t="n">
-        <v>1767.788966215297</v>
+        <v>1377.774808715765</v>
       </c>
     </row>
     <row r="36">
@@ -7016,25 +7016,25 @@
         <v>47.31297010154361</v>
       </c>
       <c r="J36" t="n">
-        <v>47.31297010154361</v>
+        <v>160.427952321271</v>
       </c>
       <c r="K36" t="n">
-        <v>47.31297010154361</v>
+        <v>480.1670983834974</v>
       </c>
       <c r="L36" t="n">
-        <v>530.8790559998569</v>
+        <v>963.7331842818107</v>
       </c>
       <c r="M36" t="n">
-        <v>1116.377061006459</v>
+        <v>1549.231189288413</v>
       </c>
       <c r="N36" t="n">
-        <v>1701.875066013061</v>
+        <v>1614.763130931308</v>
       </c>
       <c r="O36" t="n">
-        <v>2218.395348604042</v>
+        <v>2131.283413522289</v>
       </c>
       <c r="P36" t="n">
-        <v>2365.648505077179</v>
+        <v>2131.283413522289</v>
       </c>
       <c r="Q36" t="n">
         <v>2365.648505077179</v>
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1464.201482535628</v>
+        <v>358.4246342375349</v>
       </c>
       <c r="C37" t="n">
-        <v>1464.201482535628</v>
+        <v>358.4246342375349</v>
       </c>
       <c r="D37" t="n">
-        <v>1464.201482535628</v>
+        <v>202.7915211400496</v>
       </c>
       <c r="E37" t="n">
-        <v>1464.201482535628</v>
+        <v>202.7915211400496</v>
       </c>
       <c r="F37" t="n">
-        <v>1464.201482535628</v>
+        <v>202.7915211400496</v>
       </c>
       <c r="G37" t="n">
-        <v>1464.201482535628</v>
+        <v>202.7915211400496</v>
       </c>
       <c r="H37" t="n">
-        <v>1464.201482535628</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="I37" t="n">
-        <v>1464.201482535628</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="J37" t="n">
-        <v>1464.201482535628</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="K37" t="n">
-        <v>1546.036523645569</v>
+        <v>129.1480112114855</v>
       </c>
       <c r="L37" t="n">
-        <v>1710.164163519369</v>
+        <v>293.2756510852853</v>
       </c>
       <c r="M37" t="n">
-        <v>1896.455741857633</v>
+        <v>479.5672294235493</v>
       </c>
       <c r="N37" t="n">
-        <v>2079.645375888842</v>
+        <v>662.7568634547586</v>
       </c>
       <c r="O37" t="n">
-        <v>2242.350142930551</v>
+        <v>825.4616304964666</v>
       </c>
       <c r="P37" t="n">
-        <v>2362.226308707129</v>
+        <v>945.3377962730451</v>
       </c>
       <c r="Q37" t="n">
-        <v>2365.64850507718</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="R37" t="n">
-        <v>2241.747515709757</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="S37" t="n">
-        <v>2038.931431892307</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="T37" t="n">
-        <v>1803.212380060541</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="U37" t="n">
-        <v>1730.180827714803</v>
+        <v>663.3212008849971</v>
       </c>
       <c r="V37" t="n">
-        <v>1464.201482535628</v>
+        <v>397.3418557058213</v>
       </c>
       <c r="W37" t="n">
-        <v>1464.201482535628</v>
+        <v>358.4246342375349</v>
       </c>
       <c r="X37" t="n">
-        <v>1464.201482535628</v>
+        <v>358.4246342375349</v>
       </c>
       <c r="Y37" t="n">
-        <v>1464.201482535628</v>
+        <v>358.4246342375349</v>
       </c>
     </row>
     <row r="38">
@@ -7150,25 +7150,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1965.153759365783</v>
+        <v>926.6275759126104</v>
       </c>
       <c r="C38" t="n">
-        <v>1571.978257868714</v>
+        <v>926.6275759126104</v>
       </c>
       <c r="D38" t="n">
-        <v>1186.537129085382</v>
+        <v>926.6275759126104</v>
       </c>
       <c r="E38" t="n">
-        <v>783.9536042019261</v>
+        <v>926.6275759126104</v>
       </c>
       <c r="F38" t="n">
-        <v>367.0591657319038</v>
+        <v>509.7331374425881</v>
       </c>
       <c r="G38" t="n">
-        <v>47.31297010154361</v>
+        <v>509.7331374425881</v>
       </c>
       <c r="H38" t="n">
-        <v>47.31297010154361</v>
+        <v>185.6500870090788</v>
       </c>
       <c r="I38" t="n">
         <v>47.31297010154361</v>
@@ -7180,19 +7180,19 @@
         <v>550.9450990378335</v>
       </c>
       <c r="L38" t="n">
-        <v>1044.265390756362</v>
+        <v>550.9450990378335</v>
       </c>
       <c r="M38" t="n">
-        <v>1397.79762054739</v>
+        <v>864.7645682749193</v>
       </c>
       <c r="N38" t="n">
-        <v>1925.608904184852</v>
+        <v>1392.575851912381</v>
       </c>
       <c r="O38" t="n">
-        <v>2365.64850507718</v>
+        <v>1832.61545280471</v>
       </c>
       <c r="P38" t="n">
-        <v>2365.64850507718</v>
+        <v>2180.802944936232</v>
       </c>
       <c r="Q38" t="n">
         <v>2365.64850507718</v>
@@ -7204,22 +7204,22 @@
         <v>2365.64850507718</v>
       </c>
       <c r="T38" t="n">
-        <v>2365.64850507718</v>
+        <v>2142.147902636597</v>
       </c>
       <c r="U38" t="n">
-        <v>2365.64850507718</v>
+        <v>1886.395173071196</v>
       </c>
       <c r="V38" t="n">
-        <v>2365.64850507718</v>
+        <v>1544.288363774714</v>
       </c>
       <c r="W38" t="n">
-        <v>2365.64850507718</v>
+        <v>1173.289328743002</v>
       </c>
       <c r="X38" t="n">
-        <v>2365.64850507718</v>
+        <v>926.6275759126104</v>
       </c>
       <c r="Y38" t="n">
-        <v>2365.64850507718</v>
+        <v>926.6275759126104</v>
       </c>
     </row>
     <row r="39">
@@ -7253,28 +7253,28 @@
         <v>47.31297010154361</v>
       </c>
       <c r="J39" t="n">
-        <v>47.31297010154361</v>
+        <v>160.427952321271</v>
       </c>
       <c r="K39" t="n">
-        <v>47.31297010154361</v>
+        <v>480.1670983834974</v>
       </c>
       <c r="L39" t="n">
-        <v>530.8790559998569</v>
+        <v>963.7331842818107</v>
       </c>
       <c r="M39" t="n">
-        <v>1116.377061006459</v>
+        <v>1209.141762214911</v>
       </c>
       <c r="N39" t="n">
-        <v>1701.875066013061</v>
+        <v>1209.141762214911</v>
       </c>
       <c r="O39" t="n">
-        <v>2218.395348604042</v>
+        <v>1725.662044805892</v>
       </c>
       <c r="P39" t="n">
-        <v>2365.648505077179</v>
+        <v>2131.28341352229</v>
       </c>
       <c r="Q39" t="n">
-        <v>2365.648505077179</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="R39" t="n">
         <v>2341.731461975244</v>
@@ -7308,28 +7308,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>714.6796704260792</v>
+        <v>114.011453636999</v>
       </c>
       <c r="C40" t="n">
-        <v>544.4745524920684</v>
+        <v>114.011453636999</v>
       </c>
       <c r="D40" t="n">
-        <v>544.4745524920684</v>
+        <v>114.011453636999</v>
       </c>
       <c r="E40" t="n">
-        <v>544.4745524920684</v>
+        <v>114.011453636999</v>
       </c>
       <c r="F40" t="n">
-        <v>534.5182705774242</v>
+        <v>114.011453636999</v>
       </c>
       <c r="G40" t="n">
-        <v>366.2642166768698</v>
+        <v>114.011453636999</v>
       </c>
       <c r="H40" t="n">
-        <v>210.7856656383638</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="I40" t="n">
-        <v>77.69124027544166</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="J40" t="n">
         <v>47.31297010154361</v>
@@ -7365,19 +7365,19 @@
         <v>948.7599926430961</v>
       </c>
       <c r="U40" t="n">
-        <v>948.7599926430961</v>
+        <v>663.3212008849971</v>
       </c>
       <c r="V40" t="n">
-        <v>948.7599926430961</v>
+        <v>397.3418557058213</v>
       </c>
       <c r="W40" t="n">
-        <v>948.7599926430961</v>
+        <v>114.011453636999</v>
       </c>
       <c r="X40" t="n">
-        <v>714.6796704260792</v>
+        <v>114.011453636999</v>
       </c>
       <c r="Y40" t="n">
-        <v>714.6796704260792</v>
+        <v>114.011453636999</v>
       </c>
     </row>
     <row r="41">
@@ -7387,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1655.986794363964</v>
+        <v>1135.296415028523</v>
       </c>
       <c r="C41" t="n">
-        <v>1262.811292866895</v>
+        <v>1135.296415028523</v>
       </c>
       <c r="D41" t="n">
-        <v>877.3701640835627</v>
+        <v>1135.296415028523</v>
       </c>
       <c r="E41" t="n">
-        <v>877.3701640835627</v>
+        <v>1135.296415028523</v>
       </c>
       <c r="F41" t="n">
-        <v>460.4757256135405</v>
+        <v>718.4019765585011</v>
       </c>
       <c r="G41" t="n">
-        <v>47.31297010154361</v>
+        <v>509.7331374425881</v>
       </c>
       <c r="H41" t="n">
-        <v>47.31297010154361</v>
+        <v>185.6500870090788</v>
       </c>
       <c r="I41" t="n">
         <v>47.31297010154361</v>
       </c>
       <c r="J41" t="n">
-        <v>47.31297010154361</v>
+        <v>191.9627430103717</v>
       </c>
       <c r="K41" t="n">
-        <v>406.2953261290054</v>
+        <v>550.9450990378335</v>
       </c>
       <c r="L41" t="n">
-        <v>899.6156178475343</v>
+        <v>1044.265390756362</v>
       </c>
       <c r="M41" t="n">
-        <v>1445.616517892115</v>
+        <v>1590.266290800943</v>
       </c>
       <c r="N41" t="n">
-        <v>1973.427801529577</v>
+        <v>1832.61545280471</v>
       </c>
       <c r="O41" t="n">
-        <v>2365.64850507718</v>
+        <v>1832.61545280471</v>
       </c>
       <c r="P41" t="n">
-        <v>2365.64850507718</v>
+        <v>2180.802944936232</v>
       </c>
       <c r="Q41" t="n">
         <v>2365.64850507718</v>
       </c>
       <c r="R41" t="n">
-        <v>2365.64850507718</v>
+        <v>2327.655591362702</v>
       </c>
       <c r="S41" t="n">
-        <v>2365.64850507718</v>
+        <v>2327.655591362702</v>
       </c>
       <c r="T41" t="n">
-        <v>2365.64850507718</v>
+        <v>2104.154988922119</v>
       </c>
       <c r="U41" t="n">
-        <v>2365.64850507718</v>
+        <v>1848.402259356717</v>
       </c>
       <c r="V41" t="n">
-        <v>2365.64850507718</v>
+        <v>1506.295450060236</v>
       </c>
       <c r="W41" t="n">
-        <v>2365.64850507718</v>
+        <v>1135.296415028523</v>
       </c>
       <c r="X41" t="n">
-        <v>2365.64850507718</v>
+        <v>1135.296415028523</v>
       </c>
       <c r="Y41" t="n">
-        <v>2056.481540075361</v>
+        <v>1135.296415028523</v>
       </c>
     </row>
     <row r="42">
@@ -7466,49 +7466,49 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>846.6789532415753</v>
+        <v>846.6789532415751</v>
       </c>
       <c r="C42" t="n">
-        <v>696.0247228016675</v>
+        <v>696.0247228016672</v>
       </c>
       <c r="D42" t="n">
-        <v>565.9357554231478</v>
+        <v>565.9357554231476</v>
       </c>
       <c r="E42" t="n">
-        <v>429.4892645340356</v>
+        <v>429.4892645340353</v>
       </c>
       <c r="F42" t="n">
-        <v>305.0574584171674</v>
+        <v>305.057458417167</v>
       </c>
       <c r="G42" t="n">
-        <v>184.9976404890318</v>
+        <v>184.9976404890315</v>
       </c>
       <c r="H42" t="n">
-        <v>96.70022408963275</v>
+        <v>96.70022408963223</v>
       </c>
       <c r="I42" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154367</v>
       </c>
       <c r="J42" t="n">
-        <v>47.31297010154361</v>
+        <v>160.4279523212711</v>
       </c>
       <c r="K42" t="n">
-        <v>47.31297010154361</v>
+        <v>480.1670983834975</v>
       </c>
       <c r="L42" t="n">
-        <v>530.8790559998569</v>
+        <v>480.1670983834975</v>
       </c>
       <c r="M42" t="n">
-        <v>1116.377061006459</v>
+        <v>1065.6651033901</v>
       </c>
       <c r="N42" t="n">
-        <v>1701.875066013061</v>
+        <v>1651.163108396702</v>
       </c>
       <c r="O42" t="n">
-        <v>2218.395348604042</v>
+        <v>2131.28341352229</v>
       </c>
       <c r="P42" t="n">
-        <v>2365.64850507718</v>
+        <v>2131.28341352229</v>
       </c>
       <c r="Q42" t="n">
         <v>2365.64850507718</v>
@@ -7529,13 +7529,13 @@
         <v>1597.213828123731</v>
       </c>
       <c r="W42" t="n">
-        <v>1367.096582257018</v>
+        <v>1367.096582257017</v>
       </c>
       <c r="X42" t="n">
         <v>1177.789504607029</v>
       </c>
       <c r="Y42" t="n">
-        <v>998.4752876825366</v>
+        <v>998.4752876825364</v>
       </c>
     </row>
     <row r="43">
@@ -7545,10 +7545,10 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>47.31297010154361</v>
+        <v>202.9460831990289</v>
       </c>
       <c r="C43" t="n">
-        <v>47.31297010154361</v>
+        <v>202.9460831990289</v>
       </c>
       <c r="D43" t="n">
         <v>47.31297010154361</v>
@@ -7599,22 +7599,22 @@
         <v>948.7599926430961</v>
       </c>
       <c r="T43" t="n">
-        <v>948.7599926430961</v>
+        <v>720.3568074848681</v>
       </c>
       <c r="U43" t="n">
-        <v>663.3212008849971</v>
+        <v>720.3568074848681</v>
       </c>
       <c r="V43" t="n">
-        <v>564.7236943873829</v>
+        <v>720.3568074848681</v>
       </c>
       <c r="W43" t="n">
-        <v>281.3932923185605</v>
+        <v>437.0264054160458</v>
       </c>
       <c r="X43" t="n">
-        <v>47.31297010154361</v>
+        <v>202.9460831990289</v>
       </c>
       <c r="Y43" t="n">
-        <v>47.31297010154361</v>
+        <v>202.9460831990289</v>
       </c>
     </row>
     <row r="44">
@@ -7624,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1279.953688967018</v>
+        <v>1015.707280991098</v>
       </c>
       <c r="C44" t="n">
-        <v>1279.953688967018</v>
+        <v>1015.707280991098</v>
       </c>
       <c r="D44" t="n">
-        <v>1279.953688967018</v>
+        <v>1015.707280991098</v>
       </c>
       <c r="E44" t="n">
-        <v>877.3701640835627</v>
+        <v>1015.707280991098</v>
       </c>
       <c r="F44" t="n">
-        <v>460.4757256135405</v>
+        <v>598.8128425210757</v>
       </c>
       <c r="G44" t="n">
-        <v>47.31297010154361</v>
+        <v>185.6500870090788</v>
       </c>
       <c r="H44" t="n">
-        <v>47.31297010154361</v>
+        <v>185.6500870090788</v>
       </c>
       <c r="I44" t="n">
         <v>47.31297010154361</v>
       </c>
       <c r="J44" t="n">
-        <v>47.31297010154361</v>
+        <v>191.9627430103717</v>
       </c>
       <c r="K44" t="n">
-        <v>406.2953261290054</v>
+        <v>550.9450990378335</v>
       </c>
       <c r="L44" t="n">
-        <v>406.2953261290054</v>
+        <v>1044.265390756362</v>
       </c>
       <c r="M44" t="n">
-        <v>864.7645682749193</v>
+        <v>1590.266290800943</v>
       </c>
       <c r="N44" t="n">
-        <v>1392.575851912381</v>
+        <v>1590.266290800943</v>
       </c>
       <c r="O44" t="n">
-        <v>1832.61545280471</v>
+        <v>2030.305891693271</v>
       </c>
       <c r="P44" t="n">
-        <v>2180.802944936232</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="Q44" t="n">
         <v>2365.64850507718</v>
       </c>
       <c r="R44" t="n">
-        <v>2327.655591362702</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="S44" t="n">
-        <v>2327.655591362702</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="T44" t="n">
-        <v>2325.65376931076</v>
+        <v>2142.147902636597</v>
       </c>
       <c r="U44" t="n">
-        <v>2069.901039745359</v>
+        <v>1886.395173071196</v>
       </c>
       <c r="V44" t="n">
-        <v>2069.901039745359</v>
+        <v>1886.395173071196</v>
       </c>
       <c r="W44" t="n">
-        <v>2069.901039745359</v>
+        <v>1515.396138039483</v>
       </c>
       <c r="X44" t="n">
-        <v>1680.448434678415</v>
+        <v>1412.197990070497</v>
       </c>
       <c r="Y44" t="n">
-        <v>1680.448434678415</v>
+        <v>1015.707280991098</v>
       </c>
     </row>
     <row r="45">
@@ -7727,13 +7727,13 @@
         <v>47.31297010154361</v>
       </c>
       <c r="J45" t="n">
-        <v>47.31297010154361</v>
+        <v>160.427952321271</v>
       </c>
       <c r="K45" t="n">
-        <v>367.0521161637701</v>
+        <v>480.1670983834974</v>
       </c>
       <c r="L45" t="n">
-        <v>850.6182020620834</v>
+        <v>963.7331842818107</v>
       </c>
       <c r="M45" t="n">
         <v>1209.14176221491</v>
@@ -7993,13 +7993,13 @@
         <v>682.2612020826953</v>
       </c>
       <c r="O2" t="n">
-        <v>399.6354845339704</v>
+        <v>212.9227975229111</v>
       </c>
       <c r="P2" t="n">
         <v>150.3014472409252</v>
       </c>
       <c r="Q2" t="n">
-        <v>144.4986984183922</v>
+        <v>331.2113854294513</v>
       </c>
       <c r="R2" t="n">
         <v>102.5176150018526</v>
@@ -8057,16 +8057,16 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J3" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K3" t="n">
-        <v>412.5657697396227</v>
+        <v>89.59693533333335</v>
       </c>
       <c r="L3" t="n">
         <v>90.06034685691823</v>
       </c>
       <c r="M3" t="n">
-        <v>351.5705978518764</v>
+        <v>560.2818744604613</v>
       </c>
       <c r="N3" t="n">
         <v>676.7842391234617</v>
@@ -8218,7 +8218,7 @@
         <v>263.7907196684351</v>
       </c>
       <c r="K5" t="n">
-        <v>143.0584031792374</v>
+        <v>311.2540453751045</v>
       </c>
       <c r="L5" t="n">
         <v>651.5514946987026</v>
@@ -8233,7 +8233,7 @@
         <v>594.0482827698827</v>
       </c>
       <c r="P5" t="n">
-        <v>318.4970894367924</v>
+        <v>150.3014472409252</v>
       </c>
       <c r="Q5" t="n">
         <v>144.4986984183922</v>
@@ -8294,10 +8294,10 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J6" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K6" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L6" t="n">
         <v>578.5109386733963</v>
@@ -8306,16 +8306,16 @@
         <v>683.7992483186069</v>
       </c>
       <c r="N6" t="n">
-        <v>676.7842391234617</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O6" t="n">
         <v>614.4252180716981</v>
       </c>
       <c r="P6" t="n">
-        <v>235.8239269133934</v>
+        <v>153.277245266684</v>
       </c>
       <c r="Q6" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R6" t="n">
         <v>71.01380490566048</v>
@@ -8458,7 +8458,7 @@
         <v>505.666843611017</v>
       </c>
       <c r="L8" t="n">
-        <v>153.2481697304917</v>
+        <v>651.5514946987026</v>
       </c>
       <c r="M8" t="n">
         <v>701.2411122488187</v>
@@ -8467,13 +8467,13 @@
         <v>682.2612020826953</v>
       </c>
       <c r="O8" t="n">
-        <v>546.2342719955939</v>
+        <v>212.9227975229111</v>
       </c>
       <c r="P8" t="n">
-        <v>502.0059847475129</v>
+        <v>150.3014472409252</v>
       </c>
       <c r="Q8" t="n">
-        <v>144.4986984183922</v>
+        <v>331.2113854294513</v>
       </c>
       <c r="R8" t="n">
         <v>102.5176150018526</v>
@@ -8534,16 +8534,16 @@
         <v>82.44445733333335</v>
       </c>
       <c r="K9" t="n">
-        <v>89.59693533333335</v>
+        <v>183.2986537257091</v>
       </c>
       <c r="L9" t="n">
-        <v>90.06034685691823</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M9" t="n">
         <v>683.7992483186069</v>
       </c>
       <c r="N9" t="n">
-        <v>676.7842391234617</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O9" t="n">
         <v>614.4252180716981</v>
@@ -8552,7 +8552,7 @@
         <v>496.801919078302</v>
       </c>
       <c r="Q9" t="n">
-        <v>318.4607528074838</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R9" t="n">
         <v>71.01380490566048</v>
@@ -8692,10 +8692,10 @@
         <v>263.7907196684351</v>
       </c>
       <c r="K11" t="n">
-        <v>505.666843611017</v>
+        <v>143.0584031792374</v>
       </c>
       <c r="L11" t="n">
-        <v>651.5514946987026</v>
+        <v>281.3299123769229</v>
       </c>
       <c r="M11" t="n">
         <v>701.2411122488187</v>
@@ -8704,13 +8704,13 @@
         <v>682.2612020826953</v>
       </c>
       <c r="O11" t="n">
-        <v>399.6354845339704</v>
+        <v>594.0482827698827</v>
       </c>
       <c r="P11" t="n">
-        <v>150.3014472409252</v>
+        <v>502.0059847475129</v>
       </c>
       <c r="Q11" t="n">
-        <v>144.4986984183922</v>
+        <v>331.2113854294513</v>
       </c>
       <c r="R11" t="n">
         <v>102.5176150018526</v>
@@ -8768,7 +8768,7 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J12" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K12" t="n">
         <v>412.5657697396227</v>
@@ -8777,16 +8777,16 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M12" t="n">
-        <v>683.7992483186069</v>
+        <v>92.38712204931191</v>
       </c>
       <c r="N12" t="n">
-        <v>377.8426560230623</v>
+        <v>676.7842391234617</v>
       </c>
       <c r="O12" t="n">
-        <v>92.68755888888889</v>
+        <v>614.4252180716981</v>
       </c>
       <c r="P12" t="n">
-        <v>496.801919078302</v>
+        <v>153.277245266684</v>
       </c>
       <c r="Q12" t="n">
         <v>327.7205688679246</v>
@@ -8926,19 +8926,19 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>117.6798379423461</v>
+        <v>263.7907196684351</v>
       </c>
       <c r="K14" t="n">
         <v>505.666843611017</v>
       </c>
       <c r="L14" t="n">
-        <v>616.3484143223238</v>
+        <v>651.5514946987026</v>
       </c>
       <c r="M14" t="n">
-        <v>149.7250515977273</v>
+        <v>501.5538002401705</v>
       </c>
       <c r="N14" t="n">
-        <v>682.2612020826953</v>
+        <v>149.1184913377841</v>
       </c>
       <c r="O14" t="n">
         <v>594.0482827698827</v>
@@ -9017,16 +9017,16 @@
         <v>683.7992483186069</v>
       </c>
       <c r="N15" t="n">
-        <v>676.7842391234617</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O15" t="n">
-        <v>325.939387961783</v>
+        <v>614.4252180716981</v>
       </c>
       <c r="P15" t="n">
-        <v>87.08336481931465</v>
+        <v>153.2772452666831</v>
       </c>
       <c r="Q15" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R15" t="n">
         <v>71.01380490566048</v>
@@ -9163,13 +9163,13 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>117.6798379423461</v>
+        <v>263.7907196684351</v>
       </c>
       <c r="K17" t="n">
-        <v>143.0584031792374</v>
+        <v>505.666843611017</v>
       </c>
       <c r="L17" t="n">
-        <v>614.1534811140714</v>
+        <v>651.5514946987026</v>
       </c>
       <c r="M17" t="n">
         <v>701.2411122488187</v>
@@ -9178,13 +9178,13 @@
         <v>682.2612020826953</v>
       </c>
       <c r="O17" t="n">
-        <v>594.0482827698827</v>
+        <v>212.9227975229111</v>
       </c>
       <c r="P17" t="n">
-        <v>502.0059847475129</v>
+        <v>150.3014472409252</v>
       </c>
       <c r="Q17" t="n">
-        <v>144.4986984183922</v>
+        <v>331.2113854294513</v>
       </c>
       <c r="R17" t="n">
         <v>102.5176150018526</v>
@@ -9242,22 +9242,22 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J18" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K18" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L18" t="n">
-        <v>90.06034685691823</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M18" t="n">
         <v>683.7992483186069</v>
       </c>
       <c r="N18" t="n">
-        <v>667.5244230630196</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O18" t="n">
-        <v>614.4252180716981</v>
+        <v>270.9005442600802</v>
       </c>
       <c r="P18" t="n">
         <v>496.801919078302</v>
@@ -9403,25 +9403,25 @@
         <v>263.7907196684351</v>
       </c>
       <c r="K20" t="n">
-        <v>505.666843611017</v>
+        <v>143.0584031792374</v>
       </c>
       <c r="L20" t="n">
-        <v>651.5514946987026</v>
+        <v>281.3299123769229</v>
       </c>
       <c r="M20" t="n">
         <v>701.2411122488187</v>
       </c>
       <c r="N20" t="n">
-        <v>487.848403846783</v>
+        <v>682.2612020826953</v>
       </c>
       <c r="O20" t="n">
         <v>594.0482827698827</v>
       </c>
       <c r="P20" t="n">
-        <v>150.3014472409252</v>
+        <v>502.0059847475129</v>
       </c>
       <c r="Q20" t="n">
-        <v>144.4986984183922</v>
+        <v>331.2113854294513</v>
       </c>
       <c r="R20" t="n">
         <v>102.5176150018526</v>
@@ -9479,28 +9479,28 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J21" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K21" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L21" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M21" t="n">
-        <v>683.7992483186069</v>
+        <v>340.2745745069881</v>
       </c>
       <c r="N21" t="n">
-        <v>676.7842391234617</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O21" t="n">
         <v>614.4252180716981</v>
       </c>
       <c r="P21" t="n">
-        <v>235.8239269133934</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q21" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R21" t="n">
         <v>71.01380490566048</v>
@@ -9637,28 +9637,28 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>117.6798379423461</v>
+        <v>263.7907196684351</v>
       </c>
       <c r="K23" t="n">
-        <v>457.3649271011935</v>
+        <v>505.666843611017</v>
       </c>
       <c r="L23" t="n">
         <v>651.5514946987026</v>
       </c>
       <c r="M23" t="n">
-        <v>701.2411122488187</v>
+        <v>149.7250515977273</v>
       </c>
       <c r="N23" t="n">
-        <v>682.2612020826953</v>
+        <v>500.9472399802273</v>
       </c>
       <c r="O23" t="n">
         <v>594.0482827698827</v>
       </c>
       <c r="P23" t="n">
-        <v>150.3014472409252</v>
+        <v>502.0059847475129</v>
       </c>
       <c r="Q23" t="n">
-        <v>144.4986984183922</v>
+        <v>331.2113854294513</v>
       </c>
       <c r="R23" t="n">
         <v>102.5176150018526</v>
@@ -9716,28 +9716,28 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J24" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K24" t="n">
-        <v>412.5657697396227</v>
+        <v>89.59693533333335</v>
       </c>
       <c r="L24" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M24" t="n">
-        <v>683.7992483186069</v>
+        <v>663.2434089132782</v>
       </c>
       <c r="N24" t="n">
-        <v>502.5559668112513</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O24" t="n">
         <v>614.4252180716981</v>
       </c>
       <c r="P24" t="n">
-        <v>87.08336481931465</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q24" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R24" t="n">
         <v>71.01380490566048</v>
@@ -9877,7 +9877,7 @@
         <v>117.6798379423461</v>
       </c>
       <c r="K26" t="n">
-        <v>505.666843611017</v>
+        <v>143.0584031792374</v>
       </c>
       <c r="L26" t="n">
         <v>651.5514946987026</v>
@@ -9889,10 +9889,10 @@
         <v>682.2612020826953</v>
       </c>
       <c r="O26" t="n">
-        <v>545.7463662600596</v>
+        <v>594.0482827698827</v>
       </c>
       <c r="P26" t="n">
-        <v>150.3014472409252</v>
+        <v>464.6079711628815</v>
       </c>
       <c r="Q26" t="n">
         <v>144.4986984183922</v>
@@ -9956,19 +9956,19 @@
         <v>82.44445733333335</v>
       </c>
       <c r="K27" t="n">
-        <v>412.5657697396227</v>
+        <v>89.59693533333335</v>
       </c>
       <c r="L27" t="n">
-        <v>90.06034685691823</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M27" t="n">
-        <v>588.303013563887</v>
+        <v>683.7992483186069</v>
       </c>
       <c r="N27" t="n">
         <v>676.7842391234617</v>
       </c>
       <c r="O27" t="n">
-        <v>614.4252180716981</v>
+        <v>353.4472259067894</v>
       </c>
       <c r="P27" t="n">
         <v>496.801919078302</v>
@@ -10111,25 +10111,25 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>117.6798379423461</v>
+        <v>263.7907196684351</v>
       </c>
       <c r="K29" t="n">
-        <v>505.666843611017</v>
+        <v>143.0584031792374</v>
       </c>
       <c r="L29" t="n">
         <v>651.5514946987026</v>
       </c>
       <c r="M29" t="n">
-        <v>701.2411122488187</v>
+        <v>517.7322169380984</v>
       </c>
       <c r="N29" t="n">
         <v>682.2612020826953</v>
       </c>
       <c r="O29" t="n">
-        <v>545.7463662600596</v>
+        <v>594.0482827698827</v>
       </c>
       <c r="P29" t="n">
-        <v>150.3014472409252</v>
+        <v>502.0059847475129</v>
       </c>
       <c r="Q29" t="n">
         <v>144.4986984183922</v>
@@ -10199,19 +10199,19 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M30" t="n">
-        <v>683.7992483186069</v>
+        <v>454.5321323046925</v>
       </c>
       <c r="N30" t="n">
-        <v>502.5559668112513</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O30" t="n">
         <v>614.4252180716981</v>
       </c>
       <c r="P30" t="n">
-        <v>87.08336481931465</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q30" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R30" t="n">
         <v>71.01380490566048</v>
@@ -10351,7 +10351,7 @@
         <v>117.6798379423461</v>
       </c>
       <c r="K32" t="n">
-        <v>505.666843611017</v>
+        <v>143.0584031792374</v>
       </c>
       <c r="L32" t="n">
         <v>651.5514946987026</v>
@@ -10363,13 +10363,13 @@
         <v>682.2612020826953</v>
       </c>
       <c r="O32" t="n">
-        <v>545.7463662600596</v>
+        <v>369.9375821741921</v>
       </c>
       <c r="P32" t="n">
-        <v>150.3014472409252</v>
+        <v>502.0059847475129</v>
       </c>
       <c r="Q32" t="n">
-        <v>144.4986984183922</v>
+        <v>331.2113854294513</v>
       </c>
       <c r="R32" t="n">
         <v>102.5176150018526</v>
@@ -10427,7 +10427,7 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J33" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K33" t="n">
         <v>412.5657697396227</v>
@@ -10436,19 +10436,19 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M33" t="n">
-        <v>509.5709760063966</v>
+        <v>683.7992483186069</v>
       </c>
       <c r="N33" t="n">
-        <v>676.7842391234617</v>
+        <v>673.3036524843452</v>
       </c>
       <c r="O33" t="n">
-        <v>614.4252180716981</v>
+        <v>92.68755888888889</v>
       </c>
       <c r="P33" t="n">
         <v>87.08336481931465</v>
       </c>
       <c r="Q33" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R33" t="n">
         <v>71.01380490566048</v>
@@ -10585,28 +10585,28 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>117.6798379423461</v>
+        <v>263.7907196684351</v>
       </c>
       <c r="K35" t="n">
-        <v>457.3649271011935</v>
+        <v>505.666843611017</v>
       </c>
       <c r="L35" t="n">
         <v>651.5514946987026</v>
       </c>
       <c r="M35" t="n">
-        <v>701.2411122488187</v>
+        <v>149.7250515977273</v>
       </c>
       <c r="N35" t="n">
-        <v>682.2612020826953</v>
+        <v>500.9472399802273</v>
       </c>
       <c r="O35" t="n">
         <v>594.0482827698827</v>
       </c>
       <c r="P35" t="n">
-        <v>150.3014472409252</v>
+        <v>502.0059847475129</v>
       </c>
       <c r="Q35" t="n">
-        <v>144.4986984183922</v>
+        <v>331.2113854294513</v>
       </c>
       <c r="R35" t="n">
         <v>102.5176150018526</v>
@@ -10664,10 +10664,10 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J36" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K36" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L36" t="n">
         <v>578.5109386733963</v>
@@ -10676,16 +10676,16 @@
         <v>683.7992483186069</v>
       </c>
       <c r="N36" t="n">
-        <v>676.7842391234617</v>
+        <v>151.5659933015353</v>
       </c>
       <c r="O36" t="n">
         <v>614.4252180716981</v>
       </c>
       <c r="P36" t="n">
-        <v>235.8239269133925</v>
+        <v>87.08336481931465</v>
       </c>
       <c r="Q36" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R36" t="n">
         <v>71.01380490566048</v>
@@ -10828,10 +10828,10 @@
         <v>505.666843611017</v>
       </c>
       <c r="L38" t="n">
-        <v>651.5514946987026</v>
+        <v>153.2481697304917</v>
       </c>
       <c r="M38" t="n">
-        <v>506.8283140129063</v>
+        <v>466.7144144634705</v>
       </c>
       <c r="N38" t="n">
         <v>682.2612020826953</v>
@@ -10840,10 +10840,10 @@
         <v>594.0482827698827</v>
       </c>
       <c r="P38" t="n">
-        <v>150.3014472409252</v>
+        <v>502.0059847475129</v>
       </c>
       <c r="Q38" t="n">
-        <v>144.4986984183922</v>
+        <v>331.2113854294513</v>
       </c>
       <c r="R38" t="n">
         <v>102.5176150018526</v>
@@ -10901,28 +10901,28 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J39" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K39" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L39" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M39" t="n">
-        <v>683.7992483186069</v>
+        <v>340.274574506989</v>
       </c>
       <c r="N39" t="n">
-        <v>676.7842391234617</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O39" t="n">
         <v>614.4252180716981</v>
       </c>
       <c r="P39" t="n">
-        <v>235.8239269133925</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q39" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R39" t="n">
         <v>71.01380490566048</v>
@@ -11059,7 +11059,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>117.6798379423461</v>
+        <v>263.7907196684351</v>
       </c>
       <c r="K41" t="n">
         <v>505.666843611017</v>
@@ -11071,16 +11071,16 @@
         <v>701.2411122488187</v>
       </c>
       <c r="N41" t="n">
-        <v>682.2612020826953</v>
+        <v>393.9156246749224</v>
       </c>
       <c r="O41" t="n">
-        <v>545.7463662600596</v>
+        <v>149.5638374240964</v>
       </c>
       <c r="P41" t="n">
-        <v>150.3014472409252</v>
+        <v>502.0059847475129</v>
       </c>
       <c r="Q41" t="n">
-        <v>144.4986984183922</v>
+        <v>331.2113854294513</v>
       </c>
       <c r="R41" t="n">
         <v>102.5176150018526</v>
@@ -11138,13 +11138,13 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J42" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K42" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L42" t="n">
-        <v>578.5109386733963</v>
+        <v>90.06034685691823</v>
       </c>
       <c r="M42" t="n">
         <v>683.7992483186069</v>
@@ -11153,13 +11153,13 @@
         <v>676.7842391234617</v>
       </c>
       <c r="O42" t="n">
-        <v>614.4252180716981</v>
+        <v>577.6575640662504</v>
       </c>
       <c r="P42" t="n">
-        <v>235.8239269133934</v>
+        <v>87.08336481931465</v>
       </c>
       <c r="Q42" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R42" t="n">
         <v>71.01380490566048</v>
@@ -11296,28 +11296,28 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>117.6798379423461</v>
+        <v>263.7907196684351</v>
       </c>
       <c r="K44" t="n">
         <v>505.666843611017</v>
       </c>
       <c r="L44" t="n">
-        <v>153.2481697304917</v>
+        <v>651.5514946987026</v>
       </c>
       <c r="M44" t="n">
-        <v>612.8252961895594</v>
+        <v>701.2411122488187</v>
       </c>
       <c r="N44" t="n">
-        <v>682.2612020826953</v>
+        <v>149.1184913377841</v>
       </c>
       <c r="O44" t="n">
         <v>594.0482827698827</v>
       </c>
       <c r="P44" t="n">
-        <v>502.0059847475129</v>
+        <v>489.0313597499241</v>
       </c>
       <c r="Q44" t="n">
-        <v>331.2113854294513</v>
+        <v>144.4986984183922</v>
       </c>
       <c r="R44" t="n">
         <v>102.5176150018526</v>
@@ -11375,7 +11375,7 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J45" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K45" t="n">
         <v>412.5657697396227</v>
@@ -11384,7 +11384,7 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M45" t="n">
-        <v>454.5321323046925</v>
+        <v>340.2745745069881</v>
       </c>
       <c r="N45" t="n">
         <v>85.37211285416666</v>
@@ -22546,25 +22546,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>396.4897982542829</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>389.2437464820987</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>381.5867174954989</v>
+        <v>73.97896411274985</v>
       </c>
       <c r="E2" t="n">
         <v>398.5576896346209</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>409.0311279568768</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>320.8422199291742</v>
       </c>
       <c r="I2" t="n">
         <v>136.9537457384598</v>
@@ -22603,19 +22603,19 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>253.1952022697474</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W2" t="n">
-        <v>230.343651002023</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X2" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>392.5258019886049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -22710,25 +22710,25 @@
         <v>168.5030667546707</v>
       </c>
       <c r="D4" t="n">
-        <v>53.73337658004151</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.5715133615489</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>153.923765528121</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>131.7634811092929</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -22755,13 +22755,13 @@
         <v>122.6619794737488</v>
       </c>
       <c r="S4" t="n">
-        <v>200.7879229792761</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>233.3618613134482</v>
+        <v>56.04115481195228</v>
       </c>
       <c r="U4" t="n">
-        <v>282.5844038405181</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>263.319551727384</v>
@@ -22770,7 +22770,7 @@
         <v>280.4970980481341</v>
       </c>
       <c r="X4" t="n">
-        <v>231.7395189948467</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>220.8809405715231</v>
@@ -22786,19 +22786,19 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>412.725494085322</v>
       </c>
       <c r="G5" t="n">
-        <v>409.0311279568768</v>
+        <v>407.8387128320583</v>
       </c>
       <c r="H5" t="n">
         <v>320.8422199291742</v>
@@ -22834,22 +22834,22 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S5" t="n">
-        <v>164.8484195083599</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>221.2655964161775</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>253.1952022697474</v>
       </c>
       <c r="V5" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>17.54100829227411</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -22947,25 +22947,25 @@
         <v>168.5030667546707</v>
       </c>
       <c r="D7" t="n">
-        <v>53.73337658004151</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.5715133615489</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>153.923765528121</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>131.7634811092929</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -22992,19 +22992,19 @@
         <v>122.6619794737488</v>
       </c>
       <c r="S7" t="n">
-        <v>200.7879229792761</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>233.3618613134482</v>
+        <v>104.7987338652396</v>
       </c>
       <c r="U7" t="n">
-        <v>282.5844038405181</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>263.319551727384</v>
       </c>
       <c r="W7" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>231.7395189948467</v>
@@ -23023,25 +23023,25 @@
         <v>396.4897982542829</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D8" t="n">
         <v>381.5867174954989</v>
       </c>
       <c r="E8" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>412.725494085322</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>409.0311279568768</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
         <v>320.8422199291742</v>
       </c>
       <c r="I8" t="n">
-        <v>136.9537457384598</v>
+        <v>68.71414066507953</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -23071,25 +23071,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S8" t="n">
-        <v>164.8484195083599</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>52.61103243193392</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="9">
@@ -23184,25 +23184,25 @@
         <v>168.5030667546707</v>
       </c>
       <c r="D10" t="n">
-        <v>53.73337658004151</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.5715133615489</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>153.923765528121</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>131.7634811092929</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -23226,22 +23226,22 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>122.6619794737488</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>200.7879229792761</v>
       </c>
       <c r="T10" t="n">
-        <v>233.3618613134482</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>282.5844038405181</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>263.319551727384</v>
       </c>
       <c r="W10" t="n">
-        <v>280.4970980481341</v>
+        <v>26.67279035971228</v>
       </c>
       <c r="X10" t="n">
         <v>231.7395189948467</v>
@@ -23260,25 +23260,25 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E11" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
         <v>412.725494085322</v>
       </c>
       <c r="G11" t="n">
-        <v>131.5209782191162</v>
+        <v>409.0311279568768</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>320.8422199291742</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>136.9537457384598</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23305,28 +23305,28 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>37.61298457733328</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
         <v>164.8484195083599</v>
       </c>
       <c r="T11" t="n">
-        <v>221.2655964161775</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>253.1952022697474</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>385.5580790162737</v>
+        <v>103.5019564274676</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="12">
@@ -23469,7 +23469,7 @@
         <v>200.7879229792761</v>
       </c>
       <c r="T13" t="n">
-        <v>167.3303626133475</v>
+        <v>118.57278356006</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23478,10 +23478,10 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X13" t="n">
-        <v>231.7395189948467</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>220.8809405715231</v>
@@ -23497,19 +23497,19 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>135.492339739891</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D14" t="n">
         <v>381.5867174954989</v>
       </c>
       <c r="E14" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
         <v>412.725494085322</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>91.52215901558873</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -23545,25 +23545,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S14" t="n">
-        <v>164.8484195083599</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>221.2655964161775</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
         <v>253.1952022697474</v>
       </c>
       <c r="V14" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
         <v>367.2890446813954</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="15">
@@ -23658,22 +23658,22 @@
         <v>168.5030667546707</v>
       </c>
       <c r="D16" t="n">
-        <v>154.0767819665104</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>166.5715133615489</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>153.923765528121</v>
       </c>
       <c r="I16" t="n">
-        <v>131.7634811092929</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>30.07448747215907</v>
@@ -23706,19 +23706,19 @@
         <v>200.7879229792761</v>
       </c>
       <c r="T16" t="n">
-        <v>233.3618613134482</v>
+        <v>103.0969848932098</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>282.5844038405181</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X16" t="n">
-        <v>165.7080202947459</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y16" t="n">
         <v>220.8809405715231</v>
@@ -23734,7 +23734,7 @@
         <v>396.4897982542829</v>
       </c>
       <c r="C17" t="n">
-        <v>16.83481595771138</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
@@ -23749,7 +23749,7 @@
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>320.8422199291742</v>
       </c>
       <c r="I17" t="n">
         <v>136.9537457384598</v>
@@ -23779,19 +23779,19 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>37.61298457733328</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>164.8484195083599</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>221.2655964161775</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
         <v>253.1952022697474</v>
       </c>
       <c r="V17" t="n">
-        <v>338.6857412035168</v>
+        <v>69.16159125182611</v>
       </c>
       <c r="W17" t="n">
         <v>367.2890446813954</v>
@@ -23889,7 +23889,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>57.70828232767641</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C19" t="n">
         <v>168.5030667546707</v>
@@ -23940,16 +23940,16 @@
         <v>122.6619794737488</v>
       </c>
       <c r="S19" t="n">
-        <v>200.7879229792761</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>233.3618613134482</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>87.62118754448957</v>
       </c>
       <c r="W19" t="n">
         <v>280.4970980481341</v>
@@ -23958,7 +23958,7 @@
         <v>231.7395189948467</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="20">
@@ -23968,10 +23968,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>284.5472371261102</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
@@ -23983,7 +23983,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>92.48239428282028</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
         <v>320.8422199291742</v>
@@ -24022,7 +24022,7 @@
         <v>164.8484195083599</v>
       </c>
       <c r="T20" t="n">
-        <v>221.2655964161775</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
         <v>253.1952022697474</v>
@@ -24031,7 +24031,7 @@
         <v>338.6857412035168</v>
       </c>
       <c r="W20" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
         <v>385.5580790162737</v>
@@ -24129,7 +24129,7 @@
         <v>183.3559385043883</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D22" t="n">
         <v>154.0767819665104</v>
@@ -24144,10 +24144,10 @@
         <v>166.5715133615489</v>
       </c>
       <c r="H22" t="n">
-        <v>64.89287648338441</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>131.7634811092929</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>30.07448747215907</v>
@@ -24174,10 +24174,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S22" t="n">
-        <v>200.7879229792761</v>
+        <v>46.66307686692286</v>
       </c>
       <c r="T22" t="n">
         <v>233.3618613134482</v>
@@ -24189,13 +24189,13 @@
         <v>263.319551727384</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>220.8809405715231</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24205,10 +24205,10 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>92.48239428282</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D23" t="n">
         <v>0</v>
@@ -24223,7 +24223,7 @@
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>320.8422199291742</v>
+        <v>266.9002876698975</v>
       </c>
       <c r="I23" t="n">
         <v>136.9537457384598</v>
@@ -24256,13 +24256,13 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S23" t="n">
-        <v>164.8484195083599</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>221.2655964161775</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>253.1952022697474</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
         <v>338.6857412035168</v>
@@ -24366,22 +24366,22 @@
         <v>183.3559385043883</v>
       </c>
       <c r="C25" t="n">
-        <v>60.39847475326023</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>166.5715133615489</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>153.923765528121</v>
       </c>
       <c r="I25" t="n">
         <v>131.7634811092929</v>
@@ -24411,7 +24411,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>122.6619794737488</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>200.7879229792761</v>
@@ -24420,13 +24420,13 @@
         <v>233.3618613134482</v>
       </c>
       <c r="U25" t="n">
-        <v>282.5844038405181</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>263.319551727384</v>
+        <v>56.63048077364809</v>
       </c>
       <c r="W25" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>231.7395189948467</v>
@@ -24442,25 +24442,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>396.4897982542829</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D26" t="n">
         <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F26" t="n">
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>409.0311279568768</v>
       </c>
       <c r="H26" t="n">
-        <v>320.8422199291742</v>
+        <v>223.090313014078</v>
       </c>
       <c r="I26" t="n">
         <v>136.9537457384598</v>
@@ -24493,19 +24493,19 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S26" t="n">
-        <v>164.8484195083599</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>221.2655964161775</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>253.1952022697474</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>34.67833723205388</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W26" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
         <v>385.5580790162737</v>
@@ -24615,7 +24615,7 @@
         <v>155.7526754391568</v>
       </c>
       <c r="G28" t="n">
-        <v>100.5400146614481</v>
+        <v>166.5715133615489</v>
       </c>
       <c r="H28" t="n">
         <v>153.923765528121</v>
@@ -24651,7 +24651,7 @@
         <v>122.6619794737488</v>
       </c>
       <c r="S28" t="n">
-        <v>200.7879229792761</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>233.3618613134482</v>
@@ -24663,10 +24663,10 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X28" t="n">
-        <v>231.7395189948467</v>
+        <v>85.99884522588803</v>
       </c>
       <c r="Y28" t="n">
         <v>220.8809405715231</v>
@@ -24679,25 +24679,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>396.4897982542829</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
         <v>389.2437464820987</v>
       </c>
       <c r="D29" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F29" t="n">
-        <v>412.725494085322</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
         <v>409.0311279568768</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>285.9400548986208</v>
       </c>
       <c r="I29" t="n">
         <v>136.9537457384598</v>
@@ -24727,25 +24727,25 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>37.61298457733328</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>164.8484195083599</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>221.2655964161775</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>161.5015990974531</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y29" t="n">
         <v>0</v>
@@ -24837,19 +24837,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F31" t="n">
-        <v>144.1400749395018</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G31" t="n">
         <v>166.5715133615489</v>
@@ -24888,25 +24888,25 @@
         <v>122.6619794737488</v>
       </c>
       <c r="S31" t="n">
-        <v>200.7879229792761</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>233.3618613134482</v>
       </c>
       <c r="U31" t="n">
-        <v>282.5844038405181</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>263.319551727384</v>
       </c>
       <c r="W31" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>231.7395189948467</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>92.31781312331452</v>
       </c>
     </row>
     <row r="32">
@@ -24919,22 +24919,22 @@
         <v>396.4897982542829</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>409.0311279568768</v>
       </c>
       <c r="H32" t="n">
-        <v>320.8422199291742</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
         <v>136.9537457384598</v>
@@ -24967,25 +24967,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S32" t="n">
-        <v>164.8484195083599</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>221.2655964161775</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>253.1952022697474</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>88.51839801714198</v>
+        <v>149.0579253873694</v>
       </c>
     </row>
     <row r="33">
@@ -25095,10 +25095,10 @@
         <v>153.923765528121</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>131.7634811092929</v>
       </c>
       <c r="J34" t="n">
-        <v>0</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K34" t="n">
         <v>0</v>
@@ -25122,10 +25122,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S34" t="n">
-        <v>138.7592742862419</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>233.3618613134482</v>
@@ -25134,10 +25134,10 @@
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>134.7564242791755</v>
       </c>
       <c r="W34" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>231.7395189948467</v>
@@ -25156,25 +25156,25 @@
         <v>396.4897982542829</v>
       </c>
       <c r="C35" t="n">
-        <v>389.2437464820987</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>337.4713095131517</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G35" t="n">
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>219.4720129488767</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>136.9537457384598</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -25204,10 +25204,10 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S35" t="n">
-        <v>164.8484195083599</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>221.2655964161775</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
         <v>0</v>
@@ -25317,7 +25317,7 @@
         <v>168.5030667546707</v>
       </c>
       <c r="D37" t="n">
-        <v>154.0767819665104</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>154.0032240193895</v>
@@ -25329,7 +25329,7 @@
         <v>166.5715133615489</v>
       </c>
       <c r="H37" t="n">
-        <v>153.923765528121</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>131.7634811092929</v>
@@ -25359,22 +25359,22 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>200.7879229792761</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>233.3618613134482</v>
       </c>
       <c r="U37" t="n">
-        <v>210.2831670182379</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>280.4970980481341</v>
+        <v>241.9690487945306</v>
       </c>
       <c r="X37" t="n">
         <v>231.7395189948467</v>
@@ -25390,28 +25390,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F38" t="n">
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>92.48239428282028</v>
+        <v>409.0311279568768</v>
       </c>
       <c r="H38" t="n">
-        <v>320.8422199291742</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>136.9537457384598</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -25444,19 +25444,19 @@
         <v>164.8484195083599</v>
       </c>
       <c r="T38" t="n">
-        <v>221.2655964161775</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>253.1952022697474</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>385.5580790162737</v>
+        <v>141.3629437141865</v>
       </c>
       <c r="Y38" t="n">
         <v>392.5258019886049</v>
@@ -25551,7 +25551,7 @@
         <v>183.3559385043883</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D40" t="n">
         <v>154.0767819665104</v>
@@ -25560,19 +25560,19 @@
         <v>154.0032240193895</v>
       </c>
       <c r="F40" t="n">
-        <v>145.8959563436591</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>166.5715133615489</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>87.89226682802015</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>131.7634811092929</v>
       </c>
       <c r="J40" t="n">
-        <v>0</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K40" t="n">
         <v>0</v>
@@ -25605,16 +25605,16 @@
         <v>233.3618613134482</v>
       </c>
       <c r="U40" t="n">
-        <v>282.5844038405181</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y40" t="n">
         <v>220.8809405715231</v>
@@ -25627,13 +25627,13 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E41" t="n">
         <v>398.5576896346209</v>
@@ -25642,13 +25642,13 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>202.448977232123</v>
       </c>
       <c r="H41" t="n">
-        <v>320.8422199291742</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>136.9537457384598</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25675,28 +25675,28 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>37.61298457733328</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
         <v>164.8484195083599</v>
       </c>
       <c r="T41" t="n">
-        <v>221.2655964161775</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>253.1952022697474</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
         <v>385.5580790162737</v>
       </c>
       <c r="Y41" t="n">
-        <v>86.45050663680422</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="42">
@@ -25791,7 +25791,7 @@
         <v>168.5030667546707</v>
       </c>
       <c r="D43" t="n">
-        <v>154.0767819665104</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>154.0032240193895</v>
@@ -25839,13 +25839,13 @@
         <v>200.7879229792761</v>
       </c>
       <c r="T43" t="n">
-        <v>233.3618613134482</v>
+        <v>7.242708006802502</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>282.5844038405181</v>
       </c>
       <c r="V43" t="n">
-        <v>165.708020294746</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
@@ -25864,7 +25864,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C44" t="n">
         <v>389.2437464820987</v>
@@ -25873,7 +25873,7 @@
         <v>381.5867174954989</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F44" t="n">
         <v>0</v>
@@ -25885,7 +25885,7 @@
         <v>320.8422199291742</v>
       </c>
       <c r="I44" t="n">
-        <v>136.9537457384598</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25912,13 +25912,13 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S44" t="n">
         <v>164.8484195083599</v>
       </c>
       <c r="T44" t="n">
-        <v>219.2837925847546</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
         <v>0</v>
@@ -25927,13 +25927,13 @@
         <v>338.6857412035168</v>
       </c>
       <c r="W44" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>283.3919125269774</v>
       </c>
       <c r="Y44" t="n">
-        <v>392.5258019886049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -26125,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>666437.4409807237</v>
+        <v>666437.4409807239</v>
       </c>
     </row>
     <row r="3">
@@ -26133,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>666437.4409807237</v>
+        <v>666437.4409807239</v>
       </c>
     </row>
     <row r="4">
@@ -26141,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>666437.4409807237</v>
+        <v>666437.4409807238</v>
       </c>
     </row>
     <row r="5">
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>666437.4409807238</v>
+        <v>666437.4409807239</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>666437.4409807239</v>
+        <v>666437.4409807234</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>666437.4409807238</v>
+        <v>666437.4409807239</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>666437.4409807237</v>
+        <v>666437.4409807236</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>666437.4409807234</v>
+        <v>666437.4409807238</v>
       </c>
     </row>
     <row r="10">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>666437.4409807236</v>
+        <v>666437.4409807238</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>666437.4409807237</v>
+        <v>666437.4409807239</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>666437.4409807239</v>
+        <v>666437.4409807238</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>666437.4409807237</v>
+        <v>666437.4409807241</v>
       </c>
     </row>
     <row r="15">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>666437.4409807239</v>
+        <v>666437.4409807241</v>
       </c>
     </row>
   </sheetData>
@@ -26316,13 +26316,13 @@
         <v>135515.4785656234</v>
       </c>
       <c r="C2" t="n">
-        <v>135515.4785656234</v>
+        <v>135515.4785656235</v>
       </c>
       <c r="D2" t="n">
         <v>135515.4785656234</v>
       </c>
       <c r="E2" t="n">
-        <v>135515.4785656233</v>
+        <v>135515.4785656234</v>
       </c>
       <c r="F2" t="n">
         <v>135515.4785656234</v>
@@ -26340,7 +26340,7 @@
         <v>135515.4785656234</v>
       </c>
       <c r="K2" t="n">
-        <v>135515.4785656234</v>
+        <v>135515.4785656233</v>
       </c>
       <c r="L2" t="n">
         <v>135515.4785656234</v>
@@ -26355,7 +26355,7 @@
         <v>135515.4785656234</v>
       </c>
       <c r="P2" t="n">
-        <v>135515.4785656233</v>
+        <v>135515.4785656234</v>
       </c>
     </row>
     <row r="3">
@@ -26429,13 +26429,13 @@
         <v>11907.28194961663</v>
       </c>
       <c r="F4" t="n">
+        <v>11907.28194961662</v>
+      </c>
+      <c r="G4" t="n">
         <v>11907.28194961663</v>
       </c>
-      <c r="G4" t="n">
+      <c r="H4" t="n">
         <v>11907.28194961662</v>
-      </c>
-      <c r="H4" t="n">
-        <v>11907.28194961663</v>
       </c>
       <c r="I4" t="n">
         <v>11907.28194961663</v>
@@ -26450,7 +26450,7 @@
         <v>11907.28194961663</v>
       </c>
       <c r="M4" t="n">
-        <v>11907.28194961662</v>
+        <v>11907.28194961663</v>
       </c>
       <c r="N4" t="n">
         <v>11907.28194961663</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-144173.0666529113</v>
+        <v>-144847.0927791314</v>
       </c>
       <c r="C6" t="n">
-        <v>54022.73933883363</v>
+        <v>53348.71321261366</v>
       </c>
       <c r="D6" t="n">
-        <v>54022.73933883362</v>
+        <v>53348.7132126136</v>
       </c>
       <c r="E6" t="n">
-        <v>87650.33933883358</v>
+        <v>86976.31321261358</v>
       </c>
       <c r="F6" t="n">
-        <v>87650.33933883364</v>
+        <v>86976.31321261363</v>
       </c>
       <c r="G6" t="n">
-        <v>87650.33933883364</v>
+        <v>86976.31321261358</v>
       </c>
       <c r="H6" t="n">
-        <v>87650.33933883364</v>
+        <v>86976.31321261358</v>
       </c>
       <c r="I6" t="n">
-        <v>87650.33933883364</v>
+        <v>86976.3132126136</v>
       </c>
       <c r="J6" t="n">
-        <v>-67089.09502676982</v>
+        <v>-67763.12115298983</v>
       </c>
       <c r="K6" t="n">
-        <v>87650.33933883364</v>
+        <v>86976.31321261352</v>
       </c>
       <c r="L6" t="n">
-        <v>87650.33933883361</v>
+        <v>86976.3132126136</v>
       </c>
       <c r="M6" t="n">
-        <v>87650.33933883364</v>
+        <v>86976.3132126136</v>
       </c>
       <c r="N6" t="n">
-        <v>87650.33933883361</v>
+        <v>86976.31321261358</v>
       </c>
       <c r="O6" t="n">
-        <v>87650.33933883364</v>
+        <v>86976.3132126136</v>
       </c>
       <c r="P6" t="n">
-        <v>87650.33933883358</v>
+        <v>86976.3132126136</v>
       </c>
     </row>
   </sheetData>
@@ -34713,13 +34713,13 @@
         <v>533.1427107449111</v>
       </c>
       <c r="O2" t="n">
-        <v>250.071647109874</v>
+        <v>63.35896009881473</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>186.7126870110591</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34777,16 +34777,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K3" t="n">
-        <v>322.9688344062893</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>259.1834758025645</v>
+        <v>467.8947524111494</v>
       </c>
       <c r="N3" t="n">
         <v>591.4121262692951</v>
@@ -34938,7 +34938,7 @@
         <v>146.110881726089</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>168.1956421958672</v>
       </c>
       <c r="L5" t="n">
         <v>498.303324968211</v>
@@ -34953,7 +34953,7 @@
         <v>444.4844453457863</v>
       </c>
       <c r="P5" t="n">
-        <v>168.1956421958672</v>
+        <v>0</v>
       </c>
       <c r="Q5" t="n">
         <v>0</v>
@@ -35014,10 +35014,10 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L6" t="n">
         <v>488.450591816478</v>
@@ -35026,16 +35026,16 @@
         <v>591.4121262692951</v>
       </c>
       <c r="N6" t="n">
-        <v>591.4121262692951</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
         <v>521.7376591828091</v>
       </c>
       <c r="P6" t="n">
-        <v>148.7405620940788</v>
+        <v>66.19388044736931</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35178,7 +35178,7 @@
         <v>362.6084404317796</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>498.303324968211</v>
       </c>
       <c r="M8" t="n">
         <v>551.5160606510915</v>
@@ -35187,13 +35187,13 @@
         <v>533.1427107449111</v>
       </c>
       <c r="O8" t="n">
-        <v>396.6704345714974</v>
+        <v>63.35896009881473</v>
       </c>
       <c r="P8" t="n">
-        <v>351.7045375065877</v>
+        <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>186.7126870110591</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35254,16 +35254,16 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>93.7017183923758</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>488.450591816478</v>
       </c>
       <c r="M9" t="n">
         <v>591.4121262692951</v>
       </c>
       <c r="N9" t="n">
-        <v>591.4121262692951</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
         <v>521.7376591828091</v>
@@ -35272,7 +35272,7 @@
         <v>409.7185542589873</v>
       </c>
       <c r="Q9" t="n">
-        <v>227.4725996515698</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35412,10 +35412,10 @@
         <v>146.110881726089</v>
       </c>
       <c r="K11" t="n">
-        <v>362.6084404317796</v>
+        <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>498.303324968211</v>
+        <v>128.0817426464313</v>
       </c>
       <c r="M11" t="n">
         <v>551.5160606510915</v>
@@ -35424,13 +35424,13 @@
         <v>533.1427107449111</v>
       </c>
       <c r="O11" t="n">
-        <v>250.071647109874</v>
+        <v>444.4844453457863</v>
       </c>
       <c r="P11" t="n">
-        <v>0</v>
+        <v>351.7045375065877</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>186.7126870110591</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -35488,7 +35488,7 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K12" t="n">
         <v>322.9688344062893</v>
@@ -35497,16 +35497,16 @@
         <v>488.450591816478</v>
       </c>
       <c r="M12" t="n">
+        <v>0</v>
+      </c>
+      <c r="N12" t="n">
         <v>591.4121262692951</v>
       </c>
-      <c r="N12" t="n">
-        <v>292.4705431688957</v>
-      </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>521.7376591828091</v>
       </c>
       <c r="P12" t="n">
-        <v>409.7185542589873</v>
+        <v>66.19388044736931</v>
       </c>
       <c r="Q12" t="n">
         <v>236.7324157120106</v>
@@ -35646,19 +35646,19 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>146.110881726089</v>
       </c>
       <c r="K14" t="n">
         <v>362.6084404317796</v>
       </c>
       <c r="L14" t="n">
-        <v>463.1002445918322</v>
+        <v>498.303324968211</v>
       </c>
       <c r="M14" t="n">
-        <v>0</v>
+        <v>351.8287486424433</v>
       </c>
       <c r="N14" t="n">
-        <v>533.1427107449111</v>
+        <v>0</v>
       </c>
       <c r="O14" t="n">
         <v>444.4844453457863</v>
@@ -35737,16 +35737,16 @@
         <v>591.4121262692951</v>
       </c>
       <c r="N15" t="n">
-        <v>591.4121262692951</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>233.2518290728942</v>
+        <v>521.7376591828091</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>66.19388044736839</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35883,13 +35883,13 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>146.110881726089</v>
       </c>
       <c r="K17" t="n">
-        <v>0</v>
+        <v>362.6084404317796</v>
       </c>
       <c r="L17" t="n">
-        <v>460.9053113835797</v>
+        <v>498.303324968211</v>
       </c>
       <c r="M17" t="n">
         <v>551.5160606510915</v>
@@ -35898,13 +35898,13 @@
         <v>533.1427107449111</v>
       </c>
       <c r="O17" t="n">
-        <v>444.4844453457863</v>
+        <v>63.35896009881473</v>
       </c>
       <c r="P17" t="n">
-        <v>351.7045375065877</v>
+        <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>186.7126870110591</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
@@ -35962,22 +35962,22 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>488.450591816478</v>
       </c>
       <c r="M18" t="n">
         <v>591.4121262692951</v>
       </c>
       <c r="N18" t="n">
-        <v>582.152310208853</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>521.7376591828091</v>
+        <v>178.2129853711913</v>
       </c>
       <c r="P18" t="n">
         <v>409.7185542589873</v>
@@ -36123,25 +36123,25 @@
         <v>146.110881726089</v>
       </c>
       <c r="K20" t="n">
-        <v>362.6084404317796</v>
+        <v>0</v>
       </c>
       <c r="L20" t="n">
-        <v>498.303324968211</v>
+        <v>128.0817426464313</v>
       </c>
       <c r="M20" t="n">
         <v>551.5160606510915</v>
       </c>
       <c r="N20" t="n">
-        <v>338.7299125089989</v>
+        <v>533.1427107449111</v>
       </c>
       <c r="O20" t="n">
         <v>444.4844453457863</v>
       </c>
       <c r="P20" t="n">
-        <v>0</v>
+        <v>351.7045375065877</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>186.7126870110591</v>
       </c>
       <c r="R20" t="n">
         <v>0</v>
@@ -36199,28 +36199,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L21" t="n">
         <v>488.450591816478</v>
       </c>
       <c r="M21" t="n">
-        <v>591.4121262692951</v>
+        <v>247.8874524576762</v>
       </c>
       <c r="N21" t="n">
-        <v>591.4121262692951</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
         <v>521.7376591828091</v>
       </c>
       <c r="P21" t="n">
-        <v>148.7405620940788</v>
+        <v>409.7185542589873</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36357,28 +36357,28 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>146.110881726089</v>
       </c>
       <c r="K23" t="n">
-        <v>314.3065239219562</v>
+        <v>362.6084404317796</v>
       </c>
       <c r="L23" t="n">
         <v>498.303324968211</v>
       </c>
       <c r="M23" t="n">
-        <v>551.5160606510915</v>
+        <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>533.1427107449111</v>
+        <v>351.8287486424433</v>
       </c>
       <c r="O23" t="n">
         <v>444.4844453457863</v>
       </c>
       <c r="P23" t="n">
-        <v>0</v>
+        <v>351.7045375065877</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>186.7126870110591</v>
       </c>
       <c r="R23" t="n">
         <v>0</v>
@@ -36436,28 +36436,28 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K24" t="n">
-        <v>322.9688344062893</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
         <v>488.450591816478</v>
       </c>
       <c r="M24" t="n">
-        <v>591.4121262692951</v>
+        <v>570.8562868639664</v>
       </c>
       <c r="N24" t="n">
-        <v>417.1838539570846</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
         <v>521.7376591828091</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>409.7185542589873</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36597,7 +36597,7 @@
         <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>362.6084404317796</v>
+        <v>0</v>
       </c>
       <c r="L26" t="n">
         <v>498.303324968211</v>
@@ -36609,10 +36609,10 @@
         <v>533.1427107449111</v>
       </c>
       <c r="O26" t="n">
-        <v>396.1825288359632</v>
+        <v>444.4844453457863</v>
       </c>
       <c r="P26" t="n">
-        <v>0</v>
+        <v>314.3065239219563</v>
       </c>
       <c r="Q26" t="n">
         <v>0</v>
@@ -36676,19 +36676,19 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>322.9688344062893</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>488.450591816478</v>
       </c>
       <c r="M27" t="n">
-        <v>495.9158915145751</v>
+        <v>591.4121262692951</v>
       </c>
       <c r="N27" t="n">
         <v>591.4121262692951</v>
       </c>
       <c r="O27" t="n">
-        <v>521.7376591828091</v>
+        <v>260.7596670179005</v>
       </c>
       <c r="P27" t="n">
         <v>409.7185542589873</v>
@@ -36831,25 +36831,25 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>146.110881726089</v>
       </c>
       <c r="K29" t="n">
-        <v>362.6084404317796</v>
+        <v>0</v>
       </c>
       <c r="L29" t="n">
         <v>498.303324968211</v>
       </c>
       <c r="M29" t="n">
-        <v>551.5160606510915</v>
+        <v>368.0071653403712</v>
       </c>
       <c r="N29" t="n">
         <v>533.1427107449111</v>
       </c>
       <c r="O29" t="n">
-        <v>396.1825288359632</v>
+        <v>444.4844453457863</v>
       </c>
       <c r="P29" t="n">
-        <v>0</v>
+        <v>351.7045375065877</v>
       </c>
       <c r="Q29" t="n">
         <v>0</v>
@@ -36919,19 +36919,19 @@
         <v>488.450591816478</v>
       </c>
       <c r="M30" t="n">
-        <v>591.4121262692951</v>
+        <v>362.1450102553806</v>
       </c>
       <c r="N30" t="n">
-        <v>417.1838539570846</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
         <v>521.7376591828091</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>409.7185542589873</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37071,7 +37071,7 @@
         <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>362.6084404317796</v>
+        <v>0</v>
       </c>
       <c r="L32" t="n">
         <v>498.303324968211</v>
@@ -37083,13 +37083,13 @@
         <v>533.1427107449111</v>
       </c>
       <c r="O32" t="n">
-        <v>396.1825288359632</v>
+        <v>220.3737447500957</v>
       </c>
       <c r="P32" t="n">
-        <v>0</v>
+        <v>351.7045375065877</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>186.7126870110591</v>
       </c>
       <c r="R32" t="n">
         <v>0</v>
@@ -37147,7 +37147,7 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K33" t="n">
         <v>322.9688344062893</v>
@@ -37156,19 +37156,19 @@
         <v>488.450591816478</v>
       </c>
       <c r="M33" t="n">
-        <v>417.1838539570846</v>
+        <v>591.4121262692951</v>
       </c>
       <c r="N33" t="n">
-        <v>591.4121262692951</v>
+        <v>587.9315396301786</v>
       </c>
       <c r="O33" t="n">
-        <v>521.7376591828091</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37305,28 +37305,28 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>146.110881726089</v>
       </c>
       <c r="K35" t="n">
-        <v>314.3065239219562</v>
+        <v>362.6084404317796</v>
       </c>
       <c r="L35" t="n">
         <v>498.303324968211</v>
       </c>
       <c r="M35" t="n">
-        <v>551.5160606510915</v>
+        <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>533.1427107449111</v>
+        <v>351.8287486424433</v>
       </c>
       <c r="O35" t="n">
         <v>444.4844453457863</v>
       </c>
       <c r="P35" t="n">
-        <v>0</v>
+        <v>351.7045375065877</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>186.7126870110591</v>
       </c>
       <c r="R35" t="n">
         <v>0</v>
@@ -37384,10 +37384,10 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L36" t="n">
         <v>488.450591816478</v>
@@ -37396,16 +37396,16 @@
         <v>591.4121262692951</v>
       </c>
       <c r="N36" t="n">
-        <v>591.4121262692951</v>
+        <v>66.19388044736863</v>
       </c>
       <c r="O36" t="n">
         <v>521.7376591828091</v>
       </c>
       <c r="P36" t="n">
-        <v>148.7405620940779</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37548,10 +37548,10 @@
         <v>362.6084404317796</v>
       </c>
       <c r="L38" t="n">
-        <v>498.303324968211</v>
+        <v>0</v>
       </c>
       <c r="M38" t="n">
-        <v>357.103262415179</v>
+        <v>316.9893628657432</v>
       </c>
       <c r="N38" t="n">
         <v>533.1427107449111</v>
@@ -37560,10 +37560,10 @@
         <v>444.4844453457863</v>
       </c>
       <c r="P38" t="n">
-        <v>0</v>
+        <v>351.7045375065877</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>186.7126870110591</v>
       </c>
       <c r="R38" t="n">
         <v>0</v>
@@ -37621,28 +37621,28 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L39" t="n">
         <v>488.450591816478</v>
       </c>
       <c r="M39" t="n">
-        <v>591.4121262692951</v>
+        <v>247.8874524576771</v>
       </c>
       <c r="N39" t="n">
-        <v>591.4121262692951</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
         <v>521.7376591828091</v>
       </c>
       <c r="P39" t="n">
-        <v>148.7405620940779</v>
+        <v>409.7185542589873</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37779,7 +37779,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>146.110881726089</v>
       </c>
       <c r="K41" t="n">
         <v>362.6084404317796</v>
@@ -37791,16 +37791,16 @@
         <v>551.5160606510915</v>
       </c>
       <c r="N41" t="n">
-        <v>533.1427107449111</v>
+        <v>244.7971333371383</v>
       </c>
       <c r="O41" t="n">
-        <v>396.1825288359632</v>
+        <v>0</v>
       </c>
       <c r="P41" t="n">
-        <v>0</v>
+        <v>351.7045375065877</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>186.7126870110591</v>
       </c>
       <c r="R41" t="n">
         <v>0</v>
@@ -37858,13 +37858,13 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L42" t="n">
-        <v>488.450591816478</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
         <v>591.4121262692951</v>
@@ -37873,13 +37873,13 @@
         <v>591.4121262692951</v>
       </c>
       <c r="O42" t="n">
-        <v>521.7376591828091</v>
+        <v>484.9700051773615</v>
       </c>
       <c r="P42" t="n">
-        <v>148.7405620940788</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38016,28 +38016,28 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>146.110881726089</v>
       </c>
       <c r="K44" t="n">
         <v>362.6084404317796</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>498.303324968211</v>
       </c>
       <c r="M44" t="n">
-        <v>463.1002445918322</v>
+        <v>551.5160606510915</v>
       </c>
       <c r="N44" t="n">
-        <v>533.1427107449111</v>
+        <v>0</v>
       </c>
       <c r="O44" t="n">
         <v>444.4844453457863</v>
       </c>
       <c r="P44" t="n">
-        <v>351.7045375065877</v>
+        <v>338.7299125089989</v>
       </c>
       <c r="Q44" t="n">
-        <v>186.7126870110591</v>
+        <v>0</v>
       </c>
       <c r="R44" t="n">
         <v>0</v>
@@ -38095,7 +38095,7 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K45" t="n">
         <v>322.9688344062893</v>
@@ -38104,7 +38104,7 @@
         <v>488.450591816478</v>
       </c>
       <c r="M45" t="n">
-        <v>362.1450102553806</v>
+        <v>247.8874524576762</v>
       </c>
       <c r="N45" t="n">
         <v>0</v>
